--- a/design documents/jRPG balance scratchsheet.xlsx
+++ b/design documents/jRPG balance scratchsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\jRPG-Attempt\design documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Documents\Godot\jRPG-Attempt\design documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE0369E-82C5-4AB4-A462-4ED3122DAE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD5123-167D-4AF8-9EF9-8BD4EEEAF384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="6" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Log(5)" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Log(2)" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Log(3)" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Player Character Stats" sheetId="6" r:id="rId6"/>
+    <sheet name="Stat Progression &amp; Growth Rates" sheetId="6" r:id="rId6"/>
+    <sheet name="Stats" sheetId="7" r:id="rId7"/>
+    <sheet name="Archetypes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t xml:space="preserve">LOG of </t>
   </si>
@@ -84,13 +86,156 @@
   <si>
     <t>The absolute highest value a stat can get to, at Lv. 100, is 255. This is because it feels right to me, as an old-school player, and this is kinda meant to emulate those kinds of games.</t>
   </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Experience Points</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>How often you dodge attacks and effects.</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Willpower</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>Offense</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Magical</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Affects the power of your social attacks / abilities.</t>
+  </si>
+  <si>
+    <t>How fast you move in combat. Higher Initiative = maybe getting more turns</t>
+  </si>
+  <si>
+    <t>How much damage you deal with magical attacks.</t>
+  </si>
+  <si>
+    <t>How often you land your attacks.</t>
+  </si>
+  <si>
+    <t>Affects how often you are struck by status effects and critical hits.</t>
+  </si>
+  <si>
+    <t>Affects the range on normal and critical damage, and how often you apply status effects.</t>
+  </si>
+  <si>
+    <t>Affects how much damage you receive from social attacks.</t>
+  </si>
+  <si>
+    <t>How much damage you deal with physical attacks.</t>
+  </si>
+  <si>
+    <t>Affects how much damage you receive from physical attacks.</t>
+  </si>
+  <si>
+    <t>Affects how much damage you receive from magical attacks.</t>
+  </si>
+  <si>
+    <t>ARCHETYPE</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Black Mage</t>
+  </si>
+  <si>
+    <t>Damage, Inflicting</t>
+  </si>
+  <si>
+    <t>Damage, Reducing</t>
+  </si>
+  <si>
+    <t>Effect, Dodging</t>
+  </si>
+  <si>
+    <t>Effect, Causing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -118,13 +263,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -135,6 +294,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowCount="1">
+  <autoFilter ref="A1:D12" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{486137BA-44D5-40FB-89BE-88D888F85C59}" name="ARCHETYPE" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{3C66E523-A125-4DFA-AFF7-0FDFA1E549B3}" name="Barbarian" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{28418343-CB19-4C77-A015-C8A25697DBB5}" name="Fighter" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{65BE661D-3CBD-4918-9156-F6B9DE1C8EB9}" name="Black Mage" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,9 +632,9 @@
       <selection activeCell="I6" sqref="I6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I5">
         <v>0</v>
       </c>
@@ -497,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
@@ -546,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>5</v>
       </c>
@@ -595,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>10</v>
       </c>
@@ -644,7 +816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>15</v>
       </c>
@@ -693,7 +865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>20</v>
       </c>
@@ -742,7 +914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>25</v>
       </c>
@@ -791,7 +963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -840,7 +1012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>35</v>
       </c>
@@ -889,7 +1061,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>40</v>
       </c>
@@ -938,7 +1110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>45</v>
       </c>
@@ -987,7 +1159,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>50</v>
       </c>
@@ -1036,7 +1208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>60</v>
       </c>
@@ -1085,7 +1257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>70</v>
       </c>
@@ -1134,7 +1306,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>80</v>
       </c>
@@ -1183,7 +1355,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>90</v>
       </c>
@@ -1232,7 +1404,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>100</v>
       </c>
@@ -1306,9 +1478,9 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I5">
         <v>0</v>
       </c>
@@ -1343,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
@@ -1392,7 +1564,7 @@
         <v>0.77815125038364363</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>5</v>
       </c>
@@ -1441,7 +1613,7 @@
         <v>1.414973347970818</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>10</v>
       </c>
@@ -1490,7 +1662,7 @@
         <v>1.7075701760979363</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>15</v>
       </c>
@@ -1539,7 +1711,7 @@
         <v>1.8808135922807914</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>20</v>
       </c>
@@ -1588,7 +1760,7 @@
         <v>2.0043213737826426</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>25</v>
       </c>
@@ -1637,7 +1809,7 @@
         <v>2.1003705451175629</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -1686,7 +1858,7 @@
         <v>2.1789769472931693</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>35</v>
       </c>
@@ -1735,7 +1907,7 @@
         <v>2.2455126678141499</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>40</v>
       </c>
@@ -1784,7 +1956,7 @@
         <v>2.3031960574204891</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>45</v>
       </c>
@@ -1833,7 +2005,7 @@
         <v>2.3541084391474008</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>50</v>
       </c>
@@ -1882,7 +2054,7 @@
         <v>2.399673721481038</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>60</v>
       </c>
@@ -1931,7 +2103,7 @@
         <v>2.4785664955938436</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>70</v>
       </c>
@@ -1980,7 +2152,7 @@
         <v>2.5453071164658239</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>80</v>
       </c>
@@ -2029,7 +2201,7 @@
         <v>2.6031443726201822</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>90</v>
       </c>
@@ -2078,7 +2250,7 @@
         <v>2.6541765418779604</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>100</v>
       </c>
@@ -2127,13 +2299,13 @@
         <v>2.6998377258672459</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>SQRT(256)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>0</v>
       </c>
@@ -2168,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1</v>
       </c>
@@ -2217,7 +2389,7 @@
         <v>0.77815125038364363</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>5</v>
       </c>
@@ -2266,7 +2438,7 @@
         <v>7.0748667398540901</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>10</v>
       </c>
@@ -2315,7 +2487,7 @@
         <v>17.075701760979364</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>15</v>
       </c>
@@ -2364,7 +2536,7 @@
         <v>28.212203884211871</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>20</v>
       </c>
@@ -2413,7 +2585,7 @@
         <v>40.086427475652854</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>25</v>
       </c>
@@ -2462,7 +2634,7 @@
         <v>52.50926362793907</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>30</v>
       </c>
@@ -2511,7 +2683,7 @@
         <v>65.369308418795072</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>35</v>
       </c>
@@ -2560,7 +2732,7 @@
         <v>78.592943373495245</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>40</v>
       </c>
@@ -2609,7 +2781,7 @@
         <v>92.127842296819566</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>45</v>
       </c>
@@ -2658,7 +2830,7 @@
         <v>105.93487976163303</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>50</v>
       </c>
@@ -2707,7 +2879,7 @@
         <v>119.9836860740519</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>60</v>
       </c>
@@ -2756,7 +2928,7 @@
         <v>148.71398973563061</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>70</v>
       </c>
@@ -2805,7 +2977,7 @@
         <v>178.17149815260768</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>80</v>
       </c>
@@ -2854,7 +3026,7 @@
         <v>208.25154980961457</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>90</v>
       </c>
@@ -2903,7 +3075,7 @@
         <v>238.87588876901643</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>100</v>
       </c>
@@ -2989,9 +3161,9 @@
       <selection activeCell="J6" sqref="J6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3026,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
@@ -3075,12 +3247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="e">
-        <f t="shared" ref="I7:S21" si="1">LOG(I$5*$H7)</f>
+        <f t="shared" ref="I7:I21" si="1">LOG(I$5*$H7)</f>
         <v>#NUM!</v>
       </c>
       <c r="J7">
@@ -3124,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>10</v>
       </c>
@@ -3173,7 +3345,7 @@
         <v>2.4306765580733933</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>15</v>
       </c>
@@ -3222,7 +3394,7 @@
         <v>2.6826061944859854</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>20</v>
       </c>
@@ -3271,7 +3443,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>25</v>
       </c>
@@ -3320,7 +3492,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -3369,7 +3541,7 @@
         <v>3.1132827525593783</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>35</v>
       </c>
@@ -3418,7 +3590,7 @@
         <v>3.2090619551221682</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>40</v>
       </c>
@@ -3467,7 +3639,7 @@
         <v>3.2920296742201791</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>45</v>
       </c>
@@ -3516,7 +3688,7 @@
         <v>3.3652123889719707</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>50</v>
       </c>
@@ -3565,7 +3737,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>60</v>
       </c>
@@ -3614,7 +3786,7 @@
         <v>3.5439593106327716</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>70</v>
       </c>
@@ -3663,7 +3835,7 @@
         <v>3.6397385131955606</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>80</v>
       </c>
@@ -3712,7 +3884,7 @@
         <v>3.7227062322935724</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>90</v>
       </c>
@@ -3761,7 +3933,7 @@
         <v>3.7958889470453641</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>100</v>
       </c>
@@ -3810,7 +3982,7 @@
         <v>3.8613531161467862</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>0</v>
       </c>
@@ -3845,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1</v>
       </c>
@@ -3894,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>5</v>
       </c>
@@ -3943,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>10</v>
       </c>
@@ -3992,7 +4164,7 @@
         <v>24.306765580733934</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>15</v>
       </c>
@@ -4041,7 +4213,7 @@
         <v>40.239092917289781</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>20</v>
       </c>
@@ -4090,7 +4262,7 @@
         <v>57.227062322935737</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>25</v>
       </c>
@@ -4139,7 +4311,7 @@
         <v>75.000000000000014</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>30</v>
       </c>
@@ -4188,7 +4360,7 @@
         <v>93.398482576781348</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>35</v>
       </c>
@@ -4237,7 +4409,7 @@
         <v>112.31716842927588</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>40</v>
       </c>
@@ -4286,7 +4458,7 @@
         <v>131.68118696880717</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>45</v>
       </c>
@@ -4335,7 +4507,7 @@
         <v>151.43455750373869</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>50</v>
       </c>
@@ -4384,7 +4556,7 @@
         <v>171.53382790366965</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>60</v>
       </c>
@@ -4433,7 +4605,7 @@
         <v>212.63755863796629</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>70</v>
       </c>
@@ -4482,7 +4654,7 @@
         <v>254.78169592368926</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>80</v>
       </c>
@@ -4531,7 +4703,7 @@
         <v>297.81649858348578</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>90</v>
       </c>
@@ -4580,7 +4752,7 @@
         <v>341.63000523408277</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>100</v>
       </c>
@@ -4666,9 +4838,9 @@
       <selection activeCell="J6" sqref="J6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I5">
         <v>0</v>
       </c>
@@ -4703,7 +4875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
@@ -4752,12 +4924,12 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="e">
-        <f t="shared" ref="I7:S21" si="1">LOG(I$5*$H7)</f>
+        <f t="shared" ref="I7:I21" si="1">LOG(I$5*$H7)</f>
         <v>#NUM!</v>
       </c>
       <c r="J7">
@@ -4801,7 +4973,7 @@
         <v>4.6438561897747244</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>10</v>
       </c>
@@ -4850,7 +5022,7 @@
         <v>5.6438561897747244</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>15</v>
       </c>
@@ -4899,7 +5071,7 @@
         <v>6.2288186904958804</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>20</v>
       </c>
@@ -4948,7 +5120,7 @@
         <v>6.6438561897747253</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>25</v>
       </c>
@@ -4997,7 +5169,7 @@
         <v>6.9657842846620879</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -5046,7 +5218,7 @@
         <v>7.2288186904958804</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>35</v>
       </c>
@@ -5095,7 +5267,7 @@
         <v>7.4512111118323299</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>40</v>
       </c>
@@ -5144,7 +5316,7 @@
         <v>7.6438561897747244</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>45</v>
       </c>
@@ -5193,7 +5365,7 @@
         <v>7.8137811912170374</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>50</v>
       </c>
@@ -5242,7 +5414,7 @@
         <v>7.965784284662087</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>60</v>
       </c>
@@ -5291,7 +5463,7 @@
         <v>8.2288186904958813</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>70</v>
       </c>
@@ -5340,7 +5512,7 @@
         <v>8.451211111832329</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>80</v>
       </c>
@@ -5389,7 +5561,7 @@
         <v>8.6438561897747253</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>90</v>
       </c>
@@ -5438,7 +5610,7 @@
         <v>8.8137811912170374</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>100</v>
       </c>
@@ -5487,7 +5659,7 @@
         <v>8.965784284662087</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>0</v>
       </c>
@@ -5522,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1</v>
       </c>
@@ -5571,7 +5743,7 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>5</v>
       </c>
@@ -5620,7 +5792,7 @@
         <v>23.219280948873621</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>10</v>
       </c>
@@ -5669,7 +5841,7 @@
         <v>56.438561897747242</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>15</v>
       </c>
@@ -5718,7 +5890,7 @@
         <v>93.432280357438202</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>20</v>
       </c>
@@ -5767,7 +5939,7 @@
         <v>132.8771237954945</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>25</v>
       </c>
@@ -5816,7 +5988,7 @@
         <v>174.14460711655221</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>30</v>
       </c>
@@ -5865,7 +6037,7 @@
         <v>216.8645607148764</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>35</v>
       </c>
@@ -5914,7 +6086,7 @@
         <v>260.79238891413155</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>40</v>
       </c>
@@ -5963,7 +6135,7 @@
         <v>305.754247590989</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>45</v>
       </c>
@@ -6012,7 +6184,7 @@
         <v>351.6201536047667</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>50</v>
       </c>
@@ -6061,7 +6233,7 @@
         <v>398.28921423310436</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>60</v>
       </c>
@@ -6110,7 +6282,7 @@
         <v>493.72912142975287</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>70</v>
       </c>
@@ -6159,7 +6331,7 @@
         <v>591.58477782826299</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>80</v>
       </c>
@@ -6208,7 +6380,7 @@
         <v>691.50849518197799</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>90</v>
       </c>
@@ -6257,7 +6429,7 @@
         <v>793.2403072095334</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>100</v>
       </c>
@@ -6343,9 +6515,9 @@
       <selection activeCell="I5" sqref="I5:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6353,7 +6525,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I5">
         <v>0</v>
       </c>
@@ -6388,7 +6560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
@@ -6437,7 +6609,7 @@
         <v>3.2017671907333973</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>5</v>
       </c>
@@ -6486,7 +6658,7 @@
         <v>5.8220239819207045</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>10</v>
       </c>
@@ -6535,7 +6707,7 @@
         <v>7.0259376477384912</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>15</v>
       </c>
@@ -6584,7 +6756,7 @@
         <v>7.7387619035259947</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>20</v>
       </c>
@@ -6633,7 +6805,7 @@
         <v>8.2469448080936303</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>25</v>
       </c>
@@ -6682,7 +6854,7 @@
         <v>8.6421470073134614</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -6731,7 +6903,7 @@
         <v>8.9655795011163946</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>35</v>
       </c>
@@ -6780,7 +6952,7 @@
         <v>9.2393461844839937</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>40</v>
       </c>
@@ -6829,7 +7001,7 @@
         <v>9.4766892256997135</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>45</v>
       </c>
@@ -6878,7 +7050,7 @@
         <v>9.6861723992279387</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>50</v>
       </c>
@@ -6927,7 +7099,7 @@
         <v>9.8736544934100348</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>60</v>
       </c>
@@ -6976,7 +7148,7 @@
         <v>10.198265288054118</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>70</v>
       </c>
@@ -7025,7 +7197,7 @@
         <v>10.472875050734229</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>80</v>
       </c>
@@ -7074,7 +7246,7 @@
         <v>10.710851188491215</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>90</v>
       </c>
@@ -7123,7 +7295,7 @@
         <v>10.920827237647407</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>100</v>
       </c>
@@ -7172,7 +7344,7 @@
         <v>11.108703927063321</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>0</v>
       </c>
@@ -7207,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1</v>
       </c>
@@ -7256,7 +7428,7 @@
         <v>3.2017671907333973</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>5</v>
       </c>
@@ -7305,7 +7477,7 @@
         <v>29.110119909603522</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>10</v>
       </c>
@@ -7354,7 +7526,7 @@
         <v>70.259376477384905</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>15</v>
       </c>
@@ -7403,7 +7575,7 @@
         <v>116.08142855288992</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>20</v>
       </c>
@@ -7452,7 +7624,7 @@
         <v>164.93889616187261</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>25</v>
       </c>
@@ -7501,7 +7673,7 @@
         <v>216.05367518283654</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>30</v>
       </c>
@@ -7550,7 +7722,7 @@
         <v>268.96738503349184</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>35</v>
       </c>
@@ -7599,7 +7771,7 @@
         <v>323.3771164569398</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>40</v>
       </c>
@@ -7648,7 +7820,7 @@
         <v>379.06756902798855</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>45</v>
       </c>
@@ -7697,7 +7869,7 @@
         <v>435.87775796525722</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>50</v>
       </c>
@@ -7746,7 +7918,7 @@
         <v>493.68272467050173</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>60</v>
       </c>
@@ -7795,7 +7967,7 @@
         <v>611.89591728324706</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>70</v>
       </c>
@@ -7844,7 +8016,7 @@
         <v>733.1012535513961</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>80</v>
       </c>
@@ -7893,7 +8065,7 @@
         <v>856.86809507929729</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>90</v>
       </c>
@@ -7942,7 +8114,7 @@
         <v>982.87445138826661</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>100</v>
       </c>
@@ -8024,13 +8196,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230097ED-BEB9-4A73-B915-440E74A5CD6B}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8038,7 +8210,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8082,7 +8254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -8123,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>1</v>
       </c>
@@ -8175,7 +8347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>2</v>
       </c>
@@ -8227,7 +8399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>3</v>
       </c>
@@ -8276,7 +8448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>4</v>
       </c>
@@ -8328,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>5</v>
       </c>
@@ -8380,7 +8552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>6</v>
       </c>
@@ -8432,7 +8604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>7</v>
       </c>
@@ -8484,7 +8656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>8</v>
       </c>
@@ -8536,7 +8708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>9</v>
       </c>
@@ -8588,7 +8760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>10</v>
       </c>
@@ -8637,7 +8809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>11</v>
       </c>
@@ -8686,7 +8858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>12</v>
       </c>
@@ -8735,7 +8907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>13</v>
       </c>
@@ -8784,7 +8956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>14</v>
       </c>
@@ -8833,7 +9005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>15</v>
       </c>
@@ -8882,7 +9054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>16</v>
       </c>
@@ -8931,7 +9103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>17</v>
       </c>
@@ -8980,7 +9152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>18</v>
       </c>
@@ -9029,7 +9201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>19</v>
       </c>
@@ -9078,7 +9250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>20</v>
       </c>
@@ -9127,7 +9299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>21</v>
       </c>
@@ -9176,7 +9348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>22</v>
       </c>
@@ -9225,7 +9397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>23</v>
       </c>
@@ -9274,7 +9446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>24</v>
       </c>
@@ -9323,7 +9495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>25</v>
       </c>
@@ -9372,7 +9544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>26</v>
       </c>
@@ -9421,7 +9593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>27</v>
       </c>
@@ -9470,7 +9642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>28</v>
       </c>
@@ -9519,7 +9691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>29</v>
       </c>
@@ -9568,7 +9740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>30</v>
       </c>
@@ -9617,7 +9789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>100</v>
       </c>
@@ -9666,7 +9838,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
       <c r="G39" t="e">
         <f>3.576*LOG(G$2)+2.5</f>
         <v>#NUM!</v>
@@ -9712,7 +9884,7 @@
         <v>4.9995167355056029</v>
       </c>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>1</v>
       </c>
@@ -9762,4 +9934,539 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1003504F-087A-4F5F-8D46-DC05F28FB8F0}">
+  <dimension ref="D3:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="str">
+        <f>E5&amp;F5</f>
+        <v>DefenseAccuracy</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G15" si="0">E6&amp;F6</f>
+        <v>OffenseSocial</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseMagical</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseAccuracy</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseStatus</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseStatus</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseSocial</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>OffensePhysical</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>DefensePhysical</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseMagical</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G5:G15 H10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EB0E4-D9D7-4D2E-96C4-1C88BE71FF97}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <f>SUBTOTAL(109,Table1[Barbarian])</f>
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f>SUBTOTAL(109,Table1[Fighter])</f>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <f>SUBTOTAL(109,Table1[Black Mage])</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/design documents/jRPG balance scratchsheet.xlsx
+++ b/design documents/jRPG balance scratchsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Documents\Godot\jRPG-Attempt\design documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\jRPG-Attempt\design documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD5123-167D-4AF8-9EF9-8BD4EEEAF384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB6F1A-1F58-4125-8B06-ACE6831BD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="6" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="Log(2)" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Log(3)" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Stat Progression &amp; Growth Rates" sheetId="6" r:id="rId6"/>
-    <sheet name="Stats" sheetId="7" r:id="rId7"/>
-    <sheet name="Archetypes" sheetId="8" r:id="rId8"/>
+    <sheet name="Stats (Old)" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Stats (New)" sheetId="9" r:id="rId8"/>
+    <sheet name="Archetypes" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="StatsByGrowthRateAndLevel">'Stat Progression &amp; Growth Rates'!$F$2:$Q$103</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t xml:space="preserve">LOG of </t>
   </si>
@@ -221,12 +225,30 @@
   <si>
     <t>Effect, Causing</t>
   </si>
+  <si>
+    <t>So let's play with HP.</t>
+  </si>
+  <si>
+    <t>It involves your Level, your Vitality, and maybe Passives from the Archetypes.</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Total HP</t>
+  </si>
+  <si>
+    <t>Passive Boost (%)</t>
+  </si>
+  <si>
+    <t>Stat for Level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,16 +264,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,18 +295,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -632,9 +704,9 @@
       <selection activeCell="I6" sqref="I6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -669,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -718,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -767,7 +839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>10</v>
       </c>
@@ -816,7 +888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>15</v>
       </c>
@@ -865,7 +937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>20</v>
       </c>
@@ -914,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>25</v>
       </c>
@@ -963,7 +1035,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>30</v>
       </c>
@@ -1012,7 +1084,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>35</v>
       </c>
@@ -1061,7 +1133,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>40</v>
       </c>
@@ -1110,7 +1182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>45</v>
       </c>
@@ -1159,7 +1231,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>50</v>
       </c>
@@ -1208,7 +1280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>60</v>
       </c>
@@ -1257,7 +1329,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>70</v>
       </c>
@@ -1306,7 +1378,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>80</v>
       </c>
@@ -1355,7 +1427,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>90</v>
       </c>
@@ -1404,7 +1476,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>100</v>
       </c>
@@ -1478,9 +1550,9 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -1515,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -1564,7 +1636,7 @@
         <v>0.77815125038364363</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -1613,7 +1685,7 @@
         <v>1.414973347970818</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>10</v>
       </c>
@@ -1662,7 +1734,7 @@
         <v>1.7075701760979363</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>15</v>
       </c>
@@ -1711,7 +1783,7 @@
         <v>1.8808135922807914</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>20</v>
       </c>
@@ -1760,7 +1832,7 @@
         <v>2.0043213737826426</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>25</v>
       </c>
@@ -1809,7 +1881,7 @@
         <v>2.1003705451175629</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>30</v>
       </c>
@@ -1858,7 +1930,7 @@
         <v>2.1789769472931693</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>35</v>
       </c>
@@ -1907,7 +1979,7 @@
         <v>2.2455126678141499</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>40</v>
       </c>
@@ -1956,7 +2028,7 @@
         <v>2.3031960574204891</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>45</v>
       </c>
@@ -2005,7 +2077,7 @@
         <v>2.3541084391474008</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>50</v>
       </c>
@@ -2054,7 +2126,7 @@
         <v>2.399673721481038</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>60</v>
       </c>
@@ -2103,7 +2175,7 @@
         <v>2.4785664955938436</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>70</v>
       </c>
@@ -2152,7 +2224,7 @@
         <v>2.5453071164658239</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>80</v>
       </c>
@@ -2201,7 +2273,7 @@
         <v>2.6031443726201822</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>90</v>
       </c>
@@ -2250,7 +2322,7 @@
         <v>2.6541765418779604</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>100</v>
       </c>
@@ -2299,13 +2371,13 @@
         <v>2.6998377258672459</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>SQRT(256)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>0</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>1</v>
       </c>
@@ -2389,7 +2461,7 @@
         <v>0.77815125038364363</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>5</v>
       </c>
@@ -2438,7 +2510,7 @@
         <v>7.0748667398540901</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>10</v>
       </c>
@@ -2487,7 +2559,7 @@
         <v>17.075701760979364</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>15</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>28.212203884211871</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>20</v>
       </c>
@@ -2585,7 +2657,7 @@
         <v>40.086427475652854</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>25</v>
       </c>
@@ -2634,7 +2706,7 @@
         <v>52.50926362793907</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>30</v>
       </c>
@@ -2683,7 +2755,7 @@
         <v>65.369308418795072</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>35</v>
       </c>
@@ -2732,7 +2804,7 @@
         <v>78.592943373495245</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>40</v>
       </c>
@@ -2781,7 +2853,7 @@
         <v>92.127842296819566</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>45</v>
       </c>
@@ -2830,7 +2902,7 @@
         <v>105.93487976163303</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>50</v>
       </c>
@@ -2879,7 +2951,7 @@
         <v>119.9836860740519</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>60</v>
       </c>
@@ -2928,7 +3000,7 @@
         <v>148.71398973563061</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>70</v>
       </c>
@@ -2977,7 +3049,7 @@
         <v>178.17149815260768</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>80</v>
       </c>
@@ -3026,7 +3098,7 @@
         <v>208.25154980961457</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>90</v>
       </c>
@@ -3075,7 +3147,7 @@
         <v>238.87588876901643</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>100</v>
       </c>
@@ -3161,9 +3233,9 @@
       <selection activeCell="J6" sqref="J6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3198,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -3247,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -3296,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>10</v>
       </c>
@@ -3345,7 +3417,7 @@
         <v>2.4306765580733933</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>15</v>
       </c>
@@ -3394,7 +3466,7 @@
         <v>2.6826061944859854</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>20</v>
       </c>
@@ -3443,7 +3515,7 @@
         <v>2.8613531161467867</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>25</v>
       </c>
@@ -3492,7 +3564,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>30</v>
       </c>
@@ -3541,7 +3613,7 @@
         <v>3.1132827525593783</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>35</v>
       </c>
@@ -3590,7 +3662,7 @@
         <v>3.2090619551221682</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>40</v>
       </c>
@@ -3639,7 +3711,7 @@
         <v>3.2920296742201791</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>45</v>
       </c>
@@ -3688,7 +3760,7 @@
         <v>3.3652123889719707</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>50</v>
       </c>
@@ -3737,7 +3809,7 @@
         <v>3.4306765580733929</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>60</v>
       </c>
@@ -3786,7 +3858,7 @@
         <v>3.5439593106327716</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>70</v>
       </c>
@@ -3835,7 +3907,7 @@
         <v>3.6397385131955606</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>80</v>
       </c>
@@ -3884,7 +3956,7 @@
         <v>3.7227062322935724</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>90</v>
       </c>
@@ -3933,7 +4005,7 @@
         <v>3.7958889470453641</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>100</v>
       </c>
@@ -3982,7 +4054,7 @@
         <v>3.8613531161467862</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>0</v>
       </c>
@@ -4017,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>1</v>
       </c>
@@ -4066,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>5</v>
       </c>
@@ -4115,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>10</v>
       </c>
@@ -4164,7 +4236,7 @@
         <v>24.306765580733934</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>15</v>
       </c>
@@ -4213,7 +4285,7 @@
         <v>40.239092917289781</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>20</v>
       </c>
@@ -4262,7 +4334,7 @@
         <v>57.227062322935737</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>25</v>
       </c>
@@ -4311,7 +4383,7 @@
         <v>75.000000000000014</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>30</v>
       </c>
@@ -4360,7 +4432,7 @@
         <v>93.398482576781348</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>35</v>
       </c>
@@ -4409,7 +4481,7 @@
         <v>112.31716842927588</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>40</v>
       </c>
@@ -4458,7 +4530,7 @@
         <v>131.68118696880717</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>45</v>
       </c>
@@ -4507,7 +4579,7 @@
         <v>151.43455750373869</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>50</v>
       </c>
@@ -4556,7 +4628,7 @@
         <v>171.53382790366965</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>60</v>
       </c>
@@ -4605,7 +4677,7 @@
         <v>212.63755863796629</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>70</v>
       </c>
@@ -4654,7 +4726,7 @@
         <v>254.78169592368926</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>80</v>
       </c>
@@ -4703,7 +4775,7 @@
         <v>297.81649858348578</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>90</v>
       </c>
@@ -4752,7 +4824,7 @@
         <v>341.63000523408277</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>100</v>
       </c>
@@ -4838,9 +4910,9 @@
       <selection activeCell="J6" sqref="J6:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -4875,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -4924,7 +4996,7 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -4973,7 +5045,7 @@
         <v>4.6438561897747244</v>
       </c>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>10</v>
       </c>
@@ -5022,7 +5094,7 @@
         <v>5.6438561897747244</v>
       </c>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>15</v>
       </c>
@@ -5071,7 +5143,7 @@
         <v>6.2288186904958804</v>
       </c>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>20</v>
       </c>
@@ -5120,7 +5192,7 @@
         <v>6.6438561897747253</v>
       </c>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>25</v>
       </c>
@@ -5169,7 +5241,7 @@
         <v>6.9657842846620879</v>
       </c>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>30</v>
       </c>
@@ -5218,7 +5290,7 @@
         <v>7.2288186904958804</v>
       </c>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>35</v>
       </c>
@@ -5267,7 +5339,7 @@
         <v>7.4512111118323299</v>
       </c>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>40</v>
       </c>
@@ -5316,7 +5388,7 @@
         <v>7.6438561897747244</v>
       </c>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>45</v>
       </c>
@@ -5365,7 +5437,7 @@
         <v>7.8137811912170374</v>
       </c>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>50</v>
       </c>
@@ -5414,7 +5486,7 @@
         <v>7.965784284662087</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>60</v>
       </c>
@@ -5463,7 +5535,7 @@
         <v>8.2288186904958813</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>70</v>
       </c>
@@ -5512,7 +5584,7 @@
         <v>8.451211111832329</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>80</v>
       </c>
@@ -5561,7 +5633,7 @@
         <v>8.6438561897747253</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>90</v>
       </c>
@@ -5610,7 +5682,7 @@
         <v>8.8137811912170374</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>100</v>
       </c>
@@ -5659,7 +5731,7 @@
         <v>8.965784284662087</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>0</v>
       </c>
@@ -5694,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>1</v>
       </c>
@@ -5743,7 +5815,7 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>5</v>
       </c>
@@ -5792,7 +5864,7 @@
         <v>23.219280948873621</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>10</v>
       </c>
@@ -5841,7 +5913,7 @@
         <v>56.438561897747242</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>15</v>
       </c>
@@ -5890,7 +5962,7 @@
         <v>93.432280357438202</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>20</v>
       </c>
@@ -5939,7 +6011,7 @@
         <v>132.8771237954945</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>25</v>
       </c>
@@ -5988,7 +6060,7 @@
         <v>174.14460711655221</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>30</v>
       </c>
@@ -6037,7 +6109,7 @@
         <v>216.8645607148764</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>35</v>
       </c>
@@ -6086,7 +6158,7 @@
         <v>260.79238891413155</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>40</v>
       </c>
@@ -6135,7 +6207,7 @@
         <v>305.754247590989</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>45</v>
       </c>
@@ -6184,7 +6256,7 @@
         <v>351.6201536047667</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>50</v>
       </c>
@@ -6233,7 +6305,7 @@
         <v>398.28921423310436</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>60</v>
       </c>
@@ -6282,7 +6354,7 @@
         <v>493.72912142975287</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>70</v>
       </c>
@@ -6331,7 +6403,7 @@
         <v>591.58477782826299</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>80</v>
       </c>
@@ -6380,7 +6452,7 @@
         <v>691.50849518197799</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>90</v>
       </c>
@@ -6429,7 +6501,7 @@
         <v>793.2403072095334</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>100</v>
       </c>
@@ -6515,9 +6587,9 @@
       <selection activeCell="I5" sqref="I5:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6525,7 +6597,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -6560,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -6609,7 +6681,7 @@
         <v>3.2017671907333973</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -6658,7 +6730,7 @@
         <v>5.8220239819207045</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>10</v>
       </c>
@@ -6707,7 +6779,7 @@
         <v>7.0259376477384912</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>15</v>
       </c>
@@ -6756,7 +6828,7 @@
         <v>7.7387619035259947</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>20</v>
       </c>
@@ -6805,7 +6877,7 @@
         <v>8.2469448080936303</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>25</v>
       </c>
@@ -6854,7 +6926,7 @@
         <v>8.6421470073134614</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>30</v>
       </c>
@@ -6903,7 +6975,7 @@
         <v>8.9655795011163946</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>35</v>
       </c>
@@ -6952,7 +7024,7 @@
         <v>9.2393461844839937</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>40</v>
       </c>
@@ -7001,7 +7073,7 @@
         <v>9.4766892256997135</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>45</v>
       </c>
@@ -7050,7 +7122,7 @@
         <v>9.6861723992279387</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>50</v>
       </c>
@@ -7099,7 +7171,7 @@
         <v>9.8736544934100348</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>60</v>
       </c>
@@ -7148,7 +7220,7 @@
         <v>10.198265288054118</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>70</v>
       </c>
@@ -7197,7 +7269,7 @@
         <v>10.472875050734229</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>80</v>
       </c>
@@ -7246,7 +7318,7 @@
         <v>10.710851188491215</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>90</v>
       </c>
@@ -7295,7 +7367,7 @@
         <v>10.920827237647407</v>
       </c>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>100</v>
       </c>
@@ -7344,7 +7416,7 @@
         <v>11.108703927063321</v>
       </c>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>0</v>
       </c>
@@ -7379,7 +7451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>1</v>
       </c>
@@ -7428,7 +7500,7 @@
         <v>3.2017671907333973</v>
       </c>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>5</v>
       </c>
@@ -7477,7 +7549,7 @@
         <v>29.110119909603522</v>
       </c>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>10</v>
       </c>
@@ -7526,7 +7598,7 @@
         <v>70.259376477384905</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>15</v>
       </c>
@@ -7575,7 +7647,7 @@
         <v>116.08142855288992</v>
       </c>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>20</v>
       </c>
@@ -7624,7 +7696,7 @@
         <v>164.93889616187261</v>
       </c>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>25</v>
       </c>
@@ -7673,7 +7745,7 @@
         <v>216.05367518283654</v>
       </c>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>30</v>
       </c>
@@ -7722,7 +7794,7 @@
         <v>268.96738503349184</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>35</v>
       </c>
@@ -7771,7 +7843,7 @@
         <v>323.3771164569398</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>40</v>
       </c>
@@ -7820,7 +7892,7 @@
         <v>379.06756902798855</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>45</v>
       </c>
@@ -7869,7 +7941,7 @@
         <v>435.87775796525722</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>50</v>
       </c>
@@ -7918,7 +7990,7 @@
         <v>493.68272467050173</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>60</v>
       </c>
@@ -7967,7 +8039,7 @@
         <v>611.89591728324706</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>70</v>
       </c>
@@ -8016,7 +8088,7 @@
         <v>733.1012535513961</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>80</v>
       </c>
@@ -8065,7 +8137,7 @@
         <v>856.86809507929729</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>90</v>
       </c>
@@ -8114,7 +8186,7 @@
         <v>982.87445138826661</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>100</v>
       </c>
@@ -8194,15 +8266,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230097ED-BEB9-4A73-B915-440E74A5CD6B}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:Q103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8210,1717 +8282,5098 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4.84</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="4">
         <v>0.5</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="4">
         <v>1.5</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="4">
         <v>2.5</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="4">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="4">
         <v>3.5</v>
       </c>
-      <c r="O2">
+      <c r="O3" s="4">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="4">
         <v>4.5</v>
       </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1.85</v>
-      </c>
-      <c r="I3">
-        <v>2.5</v>
-      </c>
-      <c r="J3">
-        <v>3.12</v>
-      </c>
-      <c r="K3">
-        <v>3.58</v>
-      </c>
-      <c r="L3">
-        <v>3.92</v>
-      </c>
-      <c r="M3">
-        <v>4.21</v>
-      </c>
-      <c r="N3">
-        <v>4.45</v>
-      </c>
-      <c r="O3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="P3">
-        <v>4.84</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>5</v>
       </c>
       <c r="U3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <f>ROUND((($B$1/100)*$F4*(G$3/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(G$3/5)),0)</f>
+        <f>ROUND((($B$1/100)*$F4*(G$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(G$2/5)),0)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:Q4" si="0">ROUND((($B$1/100)*$F4*(H$3/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(H$3/5)),0)</f>
+        <f>ROUND((($B$1/100)*$F4*(H$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(H$2/5)),0)</f>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(I$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(I$2/5)),0)</f>
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(J$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(J$2/5)),0)</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(K$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(K$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(L$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(L$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(M$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(M$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(N$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(N$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(O$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(O$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(P$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(P$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f>ROUND((($B$1/100)*$F4*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(Q$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="U4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:Q34" si="1">ROUND((($B$1/100)*$F5*(G$3/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(G$3/5)),0)</f>
+        <f>ROUND((($B$1/100)*$F5*(G$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(G$2/5)),0)</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(H$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(H$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(I$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(I$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(J$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(J$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(K$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(K$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(L$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(L$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(M$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(M$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(N$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(N$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(O$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(O$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(P$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(P$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F5*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(Q$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="U5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(G$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(G$2/5)),0)</f>
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(H$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(H$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(I$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(I$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(J$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(J$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(K$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(K$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(L$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(L$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(M$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(M$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(N$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(N$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(O$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(O$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(P$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(P$2/5)),0)</f>
         <v>7</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F6*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(Q$2/5)),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(G$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(G$2/5)),0)</f>
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(H$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(H$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(I$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(I$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(J$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(J$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(K$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(K$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(L$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(L$2/5)),0)</f>
         <v>7</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(M$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(M$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(N$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(N$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(O$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(O$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(P$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(P$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F7*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(Q$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(G$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(G$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(H$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(H$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(I$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(I$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(J$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(J$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(K$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(K$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(L$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(L$2/5)),0)</f>
         <v>10</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(M$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(M$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(N$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(N$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(O$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(O$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(P$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(P$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F8*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(Q$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="U8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(G$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(G$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(H$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(H$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(I$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(I$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(J$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(J$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(K$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(K$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(L$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(L$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(M$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(M$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(N$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(N$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(O$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(O$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(P$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(P$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F9*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(Q$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="U9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(G$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(G$2/5)),0)</f>
         <v>3</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(H$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(H$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(I$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(I$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(J$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(J$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(K$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(K$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(L$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(L$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(M$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(M$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(N$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(N$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(O$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(O$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(P$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(P$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F10*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(Q$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="U10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(G$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(G$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(H$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(H$2/5)),0)</f>
         <v>7</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(I$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(I$2/5)),0)</f>
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(J$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(J$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(K$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(K$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(L$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(L$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(M$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(M$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(N$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(N$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(O$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(O$2/5)),0)</f>
         <v>18</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(P$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(P$2/5)),0)</f>
         <v>19</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F11*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(Q$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="U11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(G$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(G$2/5)),0)</f>
         <v>4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(H$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(H$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(I$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(I$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(J$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(J$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(K$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(K$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(L$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(L$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(M$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(M$2/5)),0)</f>
         <v>18</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(N$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(N$2/5)),0)</f>
         <v>19</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(O$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(O$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(P$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(P$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F12*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(Q$2/5)),0)</f>
         <v>22</v>
       </c>
       <c r="U12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(G$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(G$2/5)),0)</f>
         <v>5</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(H$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(H$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(I$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(I$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(J$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(J$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(K$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(K$2/5)),0)</f>
         <v>18</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(L$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(L$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(M$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(M$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(N$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(N$2/5)),0)</f>
         <v>23</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(O$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(O$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(P$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(P$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F13*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(Q$2/5)),0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(G$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(G$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(H$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(H$2/5)),0)</f>
         <v>10</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(I$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(I$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(J$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(J$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(K$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(K$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(L$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(L$2/5)),0)</f>
         <v>22</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(M$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(M$2/5)),0)</f>
         <v>23</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(N$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(N$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(O$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(O$2/5)),0)</f>
         <v>26</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(P$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(P$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F14*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(Q$2/5)),0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(G$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(G$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(H$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(H$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(I$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(I$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(J$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(J$2/5)),0)</f>
         <v>19</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(K$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(K$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(L$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(L$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(M$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(M$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(N$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(N$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(O$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(O$2/5)),0)</f>
         <v>28</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(P$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(P$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F15*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(Q$2/5)),0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(G$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(G$2/5)),0)</f>
         <v>6</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(H$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(H$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(I$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(I$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(J$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(J$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(K$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(K$2/5)),0)</f>
         <v>23</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(L$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(L$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(M$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(M$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(N$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(N$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(O$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(O$2/5)),0)</f>
         <v>30</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(P$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(P$2/5)),0)</f>
         <v>31</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F16*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(Q$2/5)),0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(G$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(G$2/5)),0)</f>
         <v>7</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(H$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(H$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(I$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(I$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(J$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(J$2/5)),0)</f>
         <v>22</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(K$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(K$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(L$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(L$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(M$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(M$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(N$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(N$2/5)),0)</f>
         <v>31</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(O$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(O$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(P$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(P$2/5)),0)</f>
         <v>33</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F17*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(Q$2/5)),0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(G$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(G$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(H$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(H$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(I$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(I$2/5)),0)</f>
         <v>19</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(J$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(J$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(K$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(K$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(L$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(L$2/5)),0)</f>
         <v>30</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(M$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(M$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(N$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(N$2/5)),0)</f>
         <v>34</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(O$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(O$2/5)),0)</f>
         <v>36</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(P$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(P$2/5)),0)</f>
         <v>37</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F18*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(Q$2/5)),0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>16</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(G$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(G$2/5)),0)</f>
         <v>8</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(H$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(H$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(I$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(I$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(J$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(J$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(K$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(K$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(L$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(L$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(M$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(M$2/5)),0)</f>
         <v>34</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(N$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(N$2/5)),0)</f>
         <v>36</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(O$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(O$2/5)),0)</f>
         <v>38</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(P$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(P$2/5)),0)</f>
         <v>39</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F19*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(Q$2/5)),0)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>17</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(G$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(G$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(H$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(H$2/5)),0)</f>
         <v>16</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(I$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(I$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(J$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(J$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(K$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(K$2/5)),0)</f>
         <v>31</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(L$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(L$2/5)),0)</f>
         <v>34</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(M$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(M$2/5)),0)</f>
         <v>36</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(N$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(N$2/5)),0)</f>
         <v>38</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(O$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(O$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(P$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(P$2/5)),0)</f>
         <v>41</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F20*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(Q$2/5)),0)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>18</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(G$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(G$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(H$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(H$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(I$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(I$2/5)),0)</f>
         <v>23</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(J$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(J$2/5)),0)</f>
         <v>28</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(K$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(K$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(L$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(L$2/5)),0)</f>
         <v>35</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(M$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(M$2/5)),0)</f>
         <v>38</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(N$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(N$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(O$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(O$2/5)),0)</f>
         <v>42</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(P$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(P$2/5)),0)</f>
         <v>44</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F21*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(Q$2/5)),0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>19</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(G$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(G$2/5)),0)</f>
         <v>9</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(H$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(H$2/5)),0)</f>
         <v>17</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(I$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(I$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(J$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(J$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(K$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(K$2/5)),0)</f>
         <v>34</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(L$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(L$2/5)),0)</f>
         <v>37</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(M$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(M$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(N$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(N$2/5)),0)</f>
         <v>42</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(O$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(O$2/5)),0)</f>
         <v>44</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(P$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(P$2/5)),0)</f>
         <v>46</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F22*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(Q$2/5)),0)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(G$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(G$2/5)),0)</f>
         <v>10</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(H$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(H$2/5)),0)</f>
         <v>19</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(I$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(I$2/5)),0)</f>
         <v>26</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(J$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(J$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(K$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(K$2/5)),0)</f>
         <v>37</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(L$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(L$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(M$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(M$2/5)),0)</f>
         <v>43</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(N$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(N$2/5)),0)</f>
         <v>45</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(O$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(O$2/5)),0)</f>
         <v>47</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(P$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(P$2/5)),0)</f>
         <v>49</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F23*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(Q$2/5)),0)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>21</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(G$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(G$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(H$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(H$2/5)),0)</f>
         <v>20</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(I$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(I$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(J$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(J$2/5)),0)</f>
         <v>33</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(K$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(K$2/5)),0)</f>
         <v>38</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(L$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(L$2/5)),0)</f>
         <v>42</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(M$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(M$2/5)),0)</f>
         <v>45</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(N$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(N$2/5)),0)</f>
         <v>47</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(O$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(O$2/5)),0)</f>
         <v>50</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(P$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(P$2/5)),0)</f>
         <v>52</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F24*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(Q$2/5)),0)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>22</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(G$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(G$2/5)),0)</f>
         <v>11</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(H$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(H$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(I$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(I$2/5)),0)</f>
         <v>28</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(J$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(J$2/5)),0)</f>
         <v>35</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(K$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(K$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(L$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(L$2/5)),0)</f>
         <v>44</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(M$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(M$2/5)),0)</f>
         <v>47</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(N$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(N$2/5)),0)</f>
         <v>49</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(O$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(O$2/5)),0)</f>
         <v>52</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(P$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(P$2/5)),0)</f>
         <v>54</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F25*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(Q$2/5)),0)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(G$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(G$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(H$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(H$2/5)),0)</f>
         <v>21</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(I$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(I$2/5)),0)</f>
         <v>29</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(J$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(J$2/5)),0)</f>
         <v>36</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(K$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(K$2/5)),0)</f>
         <v>41</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(L$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(L$2/5)),0)</f>
         <v>45</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(M$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(M$2/5)),0)</f>
         <v>49</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(N$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(N$2/5)),0)</f>
         <v>51</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(O$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(O$2/5)),0)</f>
         <v>54</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(P$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(P$2/5)),0)</f>
         <v>56</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F26*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(Q$2/5)),0)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>24</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F27*(G$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(G$2/5)),0)</f>
         <v>12</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f>ROUND((($B$1/100)*$F27*(H$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(H$2/5)),0)</f>
         <v>22</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="G27:Q33" si="2">ROUND((($B$1/100)*$F27*(I$3/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(I$3/5)),0)</f>
+        <f>ROUND((($B$1/100)*$F27*(I$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(I$2/5)),0)</f>
         <v>30</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(J$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(J$2/5)),0)</f>
         <v>37</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(K$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(K$2/5)),0)</f>
         <v>43</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(L$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(L$2/5)),0)</f>
         <v>47</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(M$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(M$2/5)),0)</f>
         <v>51</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(N$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(N$2/5)),0)</f>
         <v>53</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(O$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(O$2/5)),0)</f>
         <v>56</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(P$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(P$2/5)),0)</f>
         <v>58</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F27*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(Q$2/5)),0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>25</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(G$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(G$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(H$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(H$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(I$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(I$2/5)),0)</f>
         <v>32</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(J$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(J$2/5)),0)</f>
         <v>40</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(K$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(K$2/5)),0)</f>
         <v>46</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(L$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(L$2/5)),0)</f>
         <v>50</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(M$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(M$2/5)),0)</f>
         <v>54</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(N$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(N$2/5)),0)</f>
         <v>57</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(O$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(O$2/5)),0)</f>
         <v>59</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(P$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(P$2/5)),0)</f>
         <v>62</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F28*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(Q$2/5)),0)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>26</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(G$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(G$2/5)),0)</f>
         <v>13</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(H$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(H$2/5)),0)</f>
         <v>24</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(I$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(I$2/5)),0)</f>
         <v>33</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(J$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(J$2/5)),0)</f>
         <v>41</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(K$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(K$2/5)),0)</f>
         <v>47</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(L$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(L$2/5)),0)</f>
         <v>52</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(M$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(M$2/5)),0)</f>
         <v>56</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(N$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(N$2/5)),0)</f>
         <v>59</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(O$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(O$2/5)),0)</f>
         <v>61</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(P$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(P$2/5)),0)</f>
         <v>64</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F29*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(Q$2/5)),0)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>27</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(G$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(G$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(H$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(H$2/5)),0)</f>
         <v>25</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(I$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(I$2/5)),0)</f>
         <v>34</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(J$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(J$2/5)),0)</f>
         <v>43</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(K$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(K$2/5)),0)</f>
         <v>49</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(L$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(L$2/5)),0)</f>
         <v>54</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(M$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(M$2/5)),0)</f>
         <v>57</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(N$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(N$2/5)),0)</f>
         <v>61</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(O$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(O$2/5)),0)</f>
         <v>63</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(P$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(P$2/5)),0)</f>
         <v>66</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F30*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(Q$2/5)),0)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>28</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(G$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(G$2/5)),0)</f>
         <v>14</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(H$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(H$2/5)),0)</f>
         <v>26</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(I$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(I$2/5)),0)</f>
         <v>35</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(J$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(J$2/5)),0)</f>
         <v>44</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(K$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(K$2/5)),0)</f>
         <v>50</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(L$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(L$2/5)),0)</f>
         <v>55</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(M$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(M$2/5)),0)</f>
         <v>59</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(N$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(N$2/5)),0)</f>
         <v>63</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(O$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(O$2/5)),0)</f>
         <v>66</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(P$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(P$2/5)),0)</f>
         <v>68</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F31*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(Q$2/5)),0)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>29</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(G$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(G$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(H$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(H$2/5)),0)</f>
         <v>27</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(I$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(I$2/5)),0)</f>
         <v>36</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(J$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(J$2/5)),0)</f>
         <v>45</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(K$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(K$2/5)),0)</f>
         <v>52</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(L$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(L$2/5)),0)</f>
         <v>57</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(M$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(M$2/5)),0)</f>
         <v>61</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(N$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(N$2/5)),0)</f>
         <v>65</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(O$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(O$2/5)),0)</f>
         <v>68</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(P$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(P$2/5)),0)</f>
         <v>70</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F32*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(Q$2/5)),0)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>30</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(G$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(G$2/5)),0)</f>
         <v>15</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(H$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(H$2/5)),0)</f>
         <v>28</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(I$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(I$2/5)),0)</f>
         <v>38</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(J$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(J$2/5)),0)</f>
         <v>48</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(K$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(K$2/5)),0)</f>
         <v>55</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(L$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(L$2/5)),0)</f>
         <v>60</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(M$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(M$2/5)),0)</f>
         <v>64</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(N$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(N$2/5)),0)</f>
         <v>68</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(O$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(O$2/5)),0)</f>
         <v>71</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(P$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(P$2/5)),0)</f>
         <v>74</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f>ROUND((($B$1/100)*$F33*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(Q$2/5)),0)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <f>ROUND((($B$1/100)*$F34*(G$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(G$2/5)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <f>ROUND((($B$1/100)*$F34*(H$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(H$2/5)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="I34">
+        <f>ROUND((($B$1/100)*$F34*(I$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(I$2/5)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="J34">
+        <f>ROUND((($B$1/100)*$F34*(J$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(J$2/5)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <f>ROUND((($B$1/100)*$F34*(K$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(K$2/5)),0)</f>
+        <v>56</v>
+      </c>
+      <c r="L34">
+        <f>ROUND((($B$1/100)*$F34*(L$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(L$2/5)),0)</f>
+        <v>62</v>
+      </c>
+      <c r="M34">
+        <f>ROUND((($B$1/100)*$F34*(M$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(M$2/5)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="N34">
+        <f>ROUND((($B$1/100)*$F34*(N$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(N$2/5)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="O34">
+        <f>ROUND((($B$1/100)*$F34*(O$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(O$2/5)),0)</f>
+        <v>73</v>
+      </c>
+      <c r="P34">
+        <f>ROUND((($B$1/100)*$F34*(P$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(P$2/5)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="Q34">
+        <f>ROUND((($B$1/100)*$F34*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(Q$2/5)),0)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <f>ROUND((($B$1/100)*$F35*(G$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(G$2/5)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <f>ROUND((($B$1/100)*$F35*(H$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(H$2/5)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <f>ROUND((($B$1/100)*$F35*(I$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(I$2/5)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="J35">
+        <f>ROUND((($B$1/100)*$F35*(J$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(J$2/5)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="K35">
+        <f>ROUND((($B$1/100)*$F35*(K$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(K$2/5)),0)</f>
+        <v>58</v>
+      </c>
+      <c r="L35">
+        <f>ROUND((($B$1/100)*$F35*(L$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(L$2/5)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="M35">
+        <f>ROUND((($B$1/100)*$F35*(M$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(M$2/5)),0)</f>
+        <v>68</v>
+      </c>
+      <c r="N35">
+        <f>ROUND((($B$1/100)*$F35*(N$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(N$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="O35">
+        <f>ROUND((($B$1/100)*$F35*(O$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(O$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="P35">
+        <f>ROUND((($B$1/100)*$F35*(P$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(P$2/5)),0)</f>
+        <v>78</v>
+      </c>
+      <c r="Q35">
+        <f>ROUND((($B$1/100)*$F35*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(Q$2/5)),0)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <f>ROUND((($B$1/100)*$F36*(G$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(G$2/5)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <f>ROUND((($B$1/100)*$F36*(H$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(H$2/5)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="I36">
+        <f>ROUND((($B$1/100)*$F36*(I$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(I$2/5)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="J36">
+        <f>ROUND((($B$1/100)*$F36*(J$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(J$2/5)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="K36">
+        <f>ROUND((($B$1/100)*$F36*(K$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(K$2/5)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="L36">
+        <f>ROUND((($B$1/100)*$F36*(L$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(L$2/5)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <f>ROUND((($B$1/100)*$F36*(M$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(M$2/5)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <f>ROUND((($B$1/100)*$F36*(N$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(N$2/5)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="O36">
+        <f>ROUND((($B$1/100)*$F36*(O$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(O$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="P36">
+        <f>ROUND((($B$1/100)*$F36*(P$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(P$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="Q36">
+        <f>ROUND((($B$1/100)*$F36*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(Q$2/5)),0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <f>ROUND((($B$1/100)*$F37*(G$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(G$2/5)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <f>ROUND((($B$1/100)*$F37*(H$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(H$2/5)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="I37">
+        <f>ROUND((($B$1/100)*$F37*(I$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(I$2/5)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="J37">
+        <f>ROUND((($B$1/100)*$F37*(J$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(J$2/5)),0)</f>
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <f>ROUND((($B$1/100)*$F37*(K$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(K$2/5)),0)</f>
+        <v>61</v>
+      </c>
+      <c r="L37">
+        <f>ROUND((($B$1/100)*$F37*(L$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(L$2/5)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="M37">
+        <f>ROUND((($B$1/100)*$F37*(M$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(M$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <f>ROUND((($B$1/100)*$F37*(N$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(N$2/5)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="O37">
+        <f>ROUND((($B$1/100)*$F37*(O$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(O$2/5)),0)</f>
+        <v>80</v>
+      </c>
+      <c r="P37">
+        <f>ROUND((($B$1/100)*$F37*(P$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(P$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="Q37">
+        <f>ROUND((($B$1/100)*$F37*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(Q$2/5)),0)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <f>ROUND((($B$1/100)*$F38*(G$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(G$2/5)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <f>ROUND((($B$1/100)*$F38*(H$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(H$2/5)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="I38">
+        <f>ROUND((($B$1/100)*$F38*(I$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(I$2/5)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="J38">
+        <f>ROUND((($B$1/100)*$F38*(J$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(J$2/5)),0)</f>
+        <v>56</v>
+      </c>
+      <c r="K38">
+        <f>ROUND((($B$1/100)*$F38*(K$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(K$2/5)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="L38">
+        <f>ROUND((($B$1/100)*$F38*(L$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(L$2/5)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="M38">
+        <f>ROUND((($B$1/100)*$F38*(M$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(M$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <f>ROUND((($B$1/100)*$F38*(N$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(N$2/5)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="O38">
+        <f>ROUND((($B$1/100)*$F38*(O$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(O$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="P38">
+        <f>ROUND((($B$1/100)*$F38*(P$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(P$2/5)),0)</f>
+        <v>86</v>
+      </c>
+      <c r="Q38">
+        <f>ROUND((($B$1/100)*$F38*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(Q$2/5)),0)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <f>ROUND((($B$1/100)*$F39*(G$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(G$2/5)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <f>ROUND((($B$1/100)*$F39*(H$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(H$2/5)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <f>ROUND((($B$1/100)*$F39*(I$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(I$2/5)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="J39">
+        <f>ROUND((($B$1/100)*$F39*(J$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(J$2/5)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="K39">
+        <f>ROUND((($B$1/100)*$F39*(K$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(K$2/5)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="L39">
+        <f>ROUND((($B$1/100)*$F39*(L$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(L$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="M39">
+        <f>ROUND((($B$1/100)*$F39*(M$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(M$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="N39">
+        <f>ROUND((($B$1/100)*$F39*(N$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(N$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="O39">
+        <f>ROUND((($B$1/100)*$F39*(O$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(O$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="P39">
+        <f>ROUND((($B$1/100)*$F39*(P$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(P$2/5)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="Q39">
+        <f>ROUND((($B$1/100)*$F39*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(Q$2/5)),0)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <f>ROUND((($B$1/100)*$F40*(G$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(G$2/5)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <f>ROUND((($B$1/100)*$F40*(H$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(H$2/5)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="I40">
+        <f>ROUND((($B$1/100)*$F40*(I$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(I$2/5)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="J40">
+        <f>ROUND((($B$1/100)*$F40*(J$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(J$2/5)),0)</f>
+        <v>59</v>
+      </c>
+      <c r="K40">
+        <f>ROUND((($B$1/100)*$F40*(K$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(K$2/5)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="L40">
+        <f>ROUND((($B$1/100)*$F40*(L$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(L$2/5)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="M40">
+        <f>ROUND((($B$1/100)*$F40*(M$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(M$2/5)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="N40">
+        <f>ROUND((($B$1/100)*$F40*(N$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(N$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="O40">
+        <f>ROUND((($B$1/100)*$F40*(O$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(O$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="P40">
+        <f>ROUND((($B$1/100)*$F40*(P$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(P$2/5)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="Q40">
+        <f>ROUND((($B$1/100)*$F40*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(Q$2/5)),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <f>ROUND((($B$1/100)*$F41*(G$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(G$2/5)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <f>ROUND((($B$1/100)*$F41*(H$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(H$2/5)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="I41">
+        <f>ROUND((($B$1/100)*$F41*(I$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(I$2/5)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="J41">
+        <f>ROUND((($B$1/100)*$F41*(J$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(J$2/5)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="K41">
+        <f>ROUND((($B$1/100)*$F41*(K$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(K$2/5)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="L41">
+        <f>ROUND((($B$1/100)*$F41*(L$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(L$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="M41">
+        <f>ROUND((($B$1/100)*$F41*(M$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(M$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <f>ROUND((($B$1/100)*$F41*(N$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(N$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="O41">
+        <f>ROUND((($B$1/100)*$F41*(O$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(O$2/5)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="P41">
+        <f>ROUND((($B$1/100)*$F41*(P$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(P$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="Q41">
+        <f>ROUND((($B$1/100)*$F41*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(Q$2/5)),0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <f>ROUND((($B$1/100)*$F42*(G$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(G$2/5)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f>ROUND((($B$1/100)*$F42*(H$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(H$2/5)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <f>ROUND((($B$1/100)*$F42*(I$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(I$2/5)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="J42">
+        <f>ROUND((($B$1/100)*$F42*(J$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(J$2/5)),0)</f>
+        <v>61</v>
+      </c>
+      <c r="K42">
+        <f>ROUND((($B$1/100)*$F42*(K$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(K$2/5)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="L42">
+        <f>ROUND((($B$1/100)*$F42*(L$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(L$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="M42">
+        <f>ROUND((($B$1/100)*$F42*(M$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(M$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="N42">
+        <f>ROUND((($B$1/100)*$F42*(N$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(N$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="O42">
+        <f>ROUND((($B$1/100)*$F42*(O$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(O$2/5)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="P42">
+        <f>ROUND((($B$1/100)*$F42*(P$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(P$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="Q42">
+        <f>ROUND((($B$1/100)*$F42*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(Q$2/5)),0)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <f>ROUND((($B$1/100)*$F43*(G$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(G$2/5)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <f>ROUND((($B$1/100)*$F43*(H$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(H$2/5)),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I43">
+        <f>ROUND((($B$1/100)*$F43*(I$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(I$2/5)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="J43">
+        <f>ROUND((($B$1/100)*$F43*(J$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(J$2/5)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="K43">
+        <f>ROUND((($B$1/100)*$F43*(K$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(K$2/5)),0)</f>
+        <v>73</v>
+      </c>
+      <c r="L43">
+        <f>ROUND((($B$1/100)*$F43*(L$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(L$2/5)),0)</f>
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <f>ROUND((($B$1/100)*$F43*(M$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(M$2/5)),0)</f>
+        <v>86</v>
+      </c>
+      <c r="N43">
+        <f>ROUND((($B$1/100)*$F43*(N$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(N$2/5)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="O43">
+        <f>ROUND((($B$1/100)*$F43*(O$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(O$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="P43">
+        <f>ROUND((($B$1/100)*$F43*(P$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(P$2/5)),0)</f>
+        <v>99</v>
+      </c>
+      <c r="Q43">
+        <f>ROUND((($B$1/100)*$F43*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(Q$2/5)),0)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <f>ROUND((($B$1/100)*$F44*(G$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(G$2/5)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <f>ROUND((($B$1/100)*$F44*(H$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(H$2/5)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="I44">
+        <f>ROUND((($B$1/100)*$F44*(I$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(I$2/5)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="J44">
+        <f>ROUND((($B$1/100)*$F44*(J$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(J$2/5)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <f>ROUND((($B$1/100)*$F44*(K$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(K$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="L44">
+        <f>ROUND((($B$1/100)*$F44*(L$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(L$2/5)),0)</f>
+        <v>82</v>
+      </c>
+      <c r="M44">
+        <f>ROUND((($B$1/100)*$F44*(M$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(M$2/5)),0)</f>
+        <v>88</v>
+      </c>
+      <c r="N44">
+        <f>ROUND((($B$1/100)*$F44*(N$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(N$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="O44">
+        <f>ROUND((($B$1/100)*$F44*(O$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(O$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="P44">
+        <f>ROUND((($B$1/100)*$F44*(P$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(P$2/5)),0)</f>
+        <v>101</v>
+      </c>
+      <c r="Q44">
+        <f>ROUND((($B$1/100)*$F44*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(Q$2/5)),0)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <f>ROUND((($B$1/100)*$F45*(G$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(G$2/5)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <f>ROUND((($B$1/100)*$F45*(H$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(H$2/5)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="I45">
+        <f>ROUND((($B$1/100)*$F45*(I$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(I$2/5)),0)</f>
+        <v>53</v>
+      </c>
+      <c r="J45">
+        <f>ROUND((($B$1/100)*$F45*(J$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(J$2/5)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="K45">
+        <f>ROUND((($B$1/100)*$F45*(K$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(K$2/5)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="L45">
+        <f>ROUND((($B$1/100)*$F45*(L$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(L$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="M45">
+        <f>ROUND((($B$1/100)*$F45*(M$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(M$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="N45">
+        <f>ROUND((($B$1/100)*$F45*(N$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(N$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="O45">
+        <f>ROUND((($B$1/100)*$F45*(O$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(O$2/5)),0)</f>
+        <v>99</v>
+      </c>
+      <c r="P45">
+        <f>ROUND((($B$1/100)*$F45*(P$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(P$2/5)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="Q45">
+        <f>ROUND((($B$1/100)*$F45*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(Q$2/5)),0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <f>ROUND((($B$1/100)*$F46*(G$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(G$2/5)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <f>ROUND((($B$1/100)*$F46*(H$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(H$2/5)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <f>ROUND((($B$1/100)*$F46*(I$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(I$2/5)),0)</f>
+        <v>54</v>
+      </c>
+      <c r="J46">
+        <f>ROUND((($B$1/100)*$F46*(J$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(J$2/5)),0)</f>
+        <v>68</v>
+      </c>
+      <c r="K46">
+        <f>ROUND((($B$1/100)*$F46*(K$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(K$2/5)),0)</f>
+        <v>78</v>
+      </c>
+      <c r="L46">
+        <f>ROUND((($B$1/100)*$F46*(L$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(L$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="M46">
+        <f>ROUND((($B$1/100)*$F46*(M$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(M$2/5)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="N46">
+        <f>ROUND((($B$1/100)*$F46*(N$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(N$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="O46">
+        <f>ROUND((($B$1/100)*$F46*(O$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(O$2/5)),0)</f>
+        <v>101</v>
+      </c>
+      <c r="P46">
+        <f>ROUND((($B$1/100)*$F46*(P$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(P$2/5)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="Q46">
+        <f>ROUND((($B$1/100)*$F46*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(Q$2/5)),0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <f>ROUND((($B$1/100)*$F47*(G$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(G$2/5)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <f>ROUND((($B$1/100)*$F47*(H$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(H$2/5)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <f>ROUND((($B$1/100)*$F47*(I$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(I$2/5)),0)</f>
+        <v>56</v>
+      </c>
+      <c r="J47">
+        <f>ROUND((($B$1/100)*$F47*(J$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(J$2/5)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="K47">
+        <f>ROUND((($B$1/100)*$F47*(K$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(K$2/5)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="L47">
+        <f>ROUND((($B$1/100)*$F47*(L$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(L$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="M47">
+        <f>ROUND((($B$1/100)*$F47*(M$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(M$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="N47">
+        <f>ROUND((($B$1/100)*$F47*(N$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(N$2/5)),0)</f>
+        <v>99</v>
+      </c>
+      <c r="O47">
+        <f>ROUND((($B$1/100)*$F47*(O$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(O$2/5)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="P47">
+        <f>ROUND((($B$1/100)*$F47*(P$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(P$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="Q47">
+        <f>ROUND((($B$1/100)*$F47*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(Q$2/5)),0)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <f>ROUND((($B$1/100)*$F48*(G$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(G$2/5)),0)</f>
+        <v>23</v>
+      </c>
+      <c r="H48">
+        <f>ROUND((($B$1/100)*$F48*(H$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(H$2/5)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <f>ROUND((($B$1/100)*$F48*(I$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(I$2/5)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="J48">
+        <f>ROUND((($B$1/100)*$F48*(J$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(J$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <f>ROUND((($B$1/100)*$F48*(K$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(K$2/5)),0)</f>
+        <v>82</v>
+      </c>
+      <c r="L48">
+        <f>ROUND((($B$1/100)*$F48*(L$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(L$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="M48">
+        <f>ROUND((($B$1/100)*$F48*(M$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(M$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="N48">
+        <f>ROUND((($B$1/100)*$F48*(N$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(N$2/5)),0)</f>
+        <v>102</v>
+      </c>
+      <c r="O48">
+        <f>ROUND((($B$1/100)*$F48*(O$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(O$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="P48">
+        <f>ROUND((($B$1/100)*$F48*(P$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(P$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="Q48">
+        <f>ROUND((($B$1/100)*$F48*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(Q$2/5)),0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <f>ROUND((($B$1/100)*$F49*(G$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(G$2/5)),0)</f>
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <f>ROUND((($B$1/100)*$F49*(H$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(H$2/5)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="I49">
+        <f>ROUND((($B$1/100)*$F49*(I$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(I$2/5)),0)</f>
+        <v>59</v>
+      </c>
+      <c r="J49">
+        <f>ROUND((($B$1/100)*$F49*(J$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(J$2/5)),0)</f>
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <f>ROUND((($B$1/100)*$F49*(K$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(K$2/5)),0)</f>
+        <v>84</v>
+      </c>
+      <c r="L49">
+        <f>ROUND((($B$1/100)*$F49*(L$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(L$2/5)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="M49">
+        <f>ROUND((($B$1/100)*$F49*(M$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(M$2/5)),0)</f>
+        <v>99</v>
+      </c>
+      <c r="N49">
+        <f>ROUND((($B$1/100)*$F49*(N$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(N$2/5)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="O49">
+        <f>ROUND((($B$1/100)*$F49*(O$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(O$2/5)),0)</f>
+        <v>109</v>
+      </c>
+      <c r="P49">
+        <f>ROUND((($B$1/100)*$F49*(P$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(P$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="Q49">
+        <f>ROUND((($B$1/100)*$F49*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(Q$2/5)),0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <f>ROUND((($B$1/100)*$F50*(G$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(G$2/5)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="H50">
+        <f>ROUND((($B$1/100)*$F50*(H$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(H$2/5)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <f>ROUND((($B$1/100)*$F50*(I$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(I$2/5)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <f>ROUND((($B$1/100)*$F50*(J$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(J$2/5)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="K50">
+        <f>ROUND((($B$1/100)*$F50*(K$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(K$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="L50">
+        <f>ROUND((($B$1/100)*$F50*(L$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(L$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="M50">
+        <f>ROUND((($B$1/100)*$F50*(M$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(M$2/5)),0)</f>
         <v>100</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
+      <c r="N50">
+        <f>ROUND((($B$1/100)*$F50*(N$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(N$2/5)),0)</f>
+        <v>106</v>
+      </c>
+      <c r="O50">
+        <f>ROUND((($B$1/100)*$F50*(O$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(O$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="P50">
+        <f>ROUND((($B$1/100)*$F50*(P$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(P$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="Q50">
+        <f>ROUND((($B$1/100)*$F50*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(Q$2/5)),0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <f>ROUND((($B$1/100)*$F51*(G$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(G$2/5)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <f>ROUND((($B$1/100)*$F51*(H$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(H$2/5)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <f>ROUND((($B$1/100)*$F51*(I$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(I$2/5)),0)</f>
+        <v>61</v>
+      </c>
+      <c r="J51">
+        <f>ROUND((($B$1/100)*$F51*(J$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(J$2/5)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="K51">
+        <f>ROUND((($B$1/100)*$F51*(K$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(K$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="L51">
+        <f>ROUND((($B$1/100)*$F51*(L$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(L$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="M51">
+        <f>ROUND((($B$1/100)*$F51*(M$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(M$2/5)),0)</f>
+        <v>102</v>
+      </c>
+      <c r="N51">
+        <f>ROUND((($B$1/100)*$F51*(N$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(N$2/5)),0)</f>
+        <v>108</v>
+      </c>
+      <c r="O51">
+        <f>ROUND((($B$1/100)*$F51*(O$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(O$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="P51">
+        <f>ROUND((($B$1/100)*$F51*(P$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(P$2/5)),0)</f>
+        <v>118</v>
+      </c>
+      <c r="Q51">
+        <f>ROUND((($B$1/100)*$F51*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(Q$2/5)),0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <f>ROUND((($B$1/100)*$F52*(G$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(G$2/5)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <f>ROUND((($B$1/100)*$F52*(H$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(H$2/5)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="I52">
+        <f>ROUND((($B$1/100)*$F52*(I$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(I$2/5)),0)</f>
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <f>ROUND((($B$1/100)*$F52*(J$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(J$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="K52">
+        <f>ROUND((($B$1/100)*$F52*(K$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(K$2/5)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="L52">
+        <f>ROUND((($B$1/100)*$F52*(L$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(L$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="M52">
+        <f>ROUND((($B$1/100)*$F52*(M$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(M$2/5)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="N52">
+        <f>ROUND((($B$1/100)*$F52*(N$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(N$2/5)),0)</f>
+        <v>110</v>
+      </c>
+      <c r="O52">
+        <f>ROUND((($B$1/100)*$F52*(O$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(O$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="P52">
+        <f>ROUND((($B$1/100)*$F52*(P$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(P$2/5)),0)</f>
+        <v>120</v>
+      </c>
+      <c r="Q52">
+        <f>ROUND((($B$1/100)*$F52*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(Q$2/5)),0)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <f>ROUND((($B$1/100)*$F53*(G$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(G$2/5)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <f>ROUND((($B$1/100)*$F53*(H$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(H$2/5)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="I53">
+        <f>ROUND((($B$1/100)*$F53*(I$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(I$2/5)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="J53">
+        <f>ROUND((($B$1/100)*$F53*(J$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(J$2/5)),0)</f>
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <f>ROUND((($B$1/100)*$F53*(K$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(K$2/5)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="L53">
+        <f>ROUND((($B$1/100)*$F53*(L$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(L$2/5)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <f>ROUND((($B$1/100)*$F53*(M$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(M$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="N53">
+        <f>ROUND((($B$1/100)*$F53*(N$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(N$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="O53">
+        <f>ROUND((($B$1/100)*$F53*(O$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(O$2/5)),0)</f>
+        <v>119</v>
+      </c>
+      <c r="P53">
+        <f>ROUND((($B$1/100)*$F53*(P$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(P$2/5)),0)</f>
+        <v>123</v>
+      </c>
+      <c r="Q53">
+        <f>ROUND((($B$1/100)*$F53*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(Q$2/5)),0)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F54">
         <v>51</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
+      <c r="G54">
+        <f>ROUND((($B$1/100)*$F54*(G$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(G$2/5)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <f>ROUND((($B$1/100)*$F54*(H$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(H$2/5)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <f>ROUND((($B$1/100)*$F54*(I$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(I$2/5)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="J54">
+        <f>ROUND((($B$1/100)*$F54*(J$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(J$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <f>ROUND((($B$1/100)*$F54*(K$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(K$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="L54">
+        <f>ROUND((($B$1/100)*$F54*(L$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(L$2/5)),0)</f>
+        <v>102</v>
+      </c>
+      <c r="M54">
+        <f>ROUND((($B$1/100)*$F54*(M$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(M$2/5)),0)</f>
+        <v>109</v>
+      </c>
+      <c r="N54">
+        <f>ROUND((($B$1/100)*$F54*(N$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(N$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="O54">
+        <f>ROUND((($B$1/100)*$F54*(O$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(O$2/5)),0)</f>
+        <v>121</v>
+      </c>
+      <c r="P54">
+        <f>ROUND((($B$1/100)*$F54*(P$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(P$2/5)),0)</f>
+        <v>126</v>
+      </c>
+      <c r="Q54">
+        <f>ROUND((($B$1/100)*$F54*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(Q$2/5)),0)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <f>ROUND((($B$1/100)*$F55*(G$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(G$2/5)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <f>ROUND((($B$1/100)*$F55*(H$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(H$2/5)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <f>ROUND((($B$1/100)*$F55*(I$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(I$2/5)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="J55">
+        <f>ROUND((($B$1/100)*$F55*(J$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(J$2/5)),0)</f>
+        <v>82</v>
+      </c>
+      <c r="K55">
+        <f>ROUND((($B$1/100)*$F55*(K$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(K$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="L55">
+        <f>ROUND((($B$1/100)*$F55*(L$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(L$2/5)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="M55">
+        <f>ROUND((($B$1/100)*$F55*(M$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(M$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="N55">
+        <f>ROUND((($B$1/100)*$F55*(N$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(N$2/5)),0)</f>
+        <v>117</v>
+      </c>
+      <c r="O55">
+        <f>ROUND((($B$1/100)*$F55*(O$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(O$2/5)),0)</f>
+        <v>123</v>
+      </c>
+      <c r="P55">
+        <f>ROUND((($B$1/100)*$F55*(P$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(P$2/5)),0)</f>
+        <v>128</v>
+      </c>
+      <c r="Q55">
+        <f>ROUND((($B$1/100)*$F55*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(Q$2/5)),0)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <f>ROUND((($B$1/100)*$F56*(G$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(G$2/5)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="H56">
+        <f>ROUND((($B$1/100)*$F56*(H$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(H$2/5)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <f>ROUND((($B$1/100)*$F56*(I$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(I$2/5)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <f>ROUND((($B$1/100)*$F56*(J$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(J$2/5)),0)</f>
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <f>ROUND((($B$1/100)*$F56*(K$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(K$2/5)),0)</f>
+        <v>96</v>
+      </c>
+      <c r="L56">
+        <f>ROUND((($B$1/100)*$F56*(L$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(L$2/5)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="M56">
+        <f>ROUND((($B$1/100)*$F56*(M$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(M$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="N56">
+        <f>ROUND((($B$1/100)*$F56*(N$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(N$2/5)),0)</f>
+        <v>119</v>
+      </c>
+      <c r="O56">
+        <f>ROUND((($B$1/100)*$F56*(O$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(O$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="P56">
+        <f>ROUND((($B$1/100)*$F56*(P$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(P$2/5)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="Q56">
+        <f>ROUND((($B$1/100)*$F56*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(Q$2/5)),0)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <f>ROUND((($B$1/100)*$F57*(G$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(G$2/5)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="H57">
+        <f>ROUND((($B$1/100)*$F57*(H$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(H$2/5)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="I57">
+        <f>ROUND((($B$1/100)*$F57*(I$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(I$2/5)),0)</f>
+        <v>68</v>
+      </c>
+      <c r="J57">
+        <f>ROUND((($B$1/100)*$F57*(J$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(J$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="K57">
+        <f>ROUND((($B$1/100)*$F57*(K$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(K$2/5)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="L57">
+        <f>ROUND((($B$1/100)*$F57*(L$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(L$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="M57">
+        <f>ROUND((($B$1/100)*$F57*(M$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(M$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="N57">
+        <f>ROUND((($B$1/100)*$F57*(N$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(N$2/5)),0)</f>
+        <v>121</v>
+      </c>
+      <c r="O57">
+        <f>ROUND((($B$1/100)*$F57*(O$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(O$2/5)),0)</f>
+        <v>127</v>
+      </c>
+      <c r="P57">
+        <f>ROUND((($B$1/100)*$F57*(P$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(P$2/5)),0)</f>
+        <v>132</v>
+      </c>
+      <c r="Q57">
+        <f>ROUND((($B$1/100)*$F57*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(Q$2/5)),0)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <f>ROUND((($B$1/100)*$F58*(G$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(G$2/5)),0)</f>
+        <v>28</v>
+      </c>
+      <c r="H58">
+        <f>ROUND((($B$1/100)*$F58*(H$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(H$2/5)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="I58">
+        <f>ROUND((($B$1/100)*$F58*(I$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(I$2/5)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <f>ROUND((($B$1/100)*$F58*(J$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(J$2/5)),0)</f>
+        <v>88</v>
+      </c>
+      <c r="K58">
+        <f>ROUND((($B$1/100)*$F58*(K$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(K$2/5)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <f>ROUND((($B$1/100)*$F58*(L$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(L$2/5)),0)</f>
+        <v>110</v>
+      </c>
+      <c r="M58">
+        <f>ROUND((($B$1/100)*$F58*(M$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(M$2/5)),0)</f>
+        <v>118</v>
+      </c>
+      <c r="N58">
+        <f>ROUND((($B$1/100)*$F58*(N$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(N$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="O58">
+        <f>ROUND((($B$1/100)*$F58*(O$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(O$2/5)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="P58">
+        <f>ROUND((($B$1/100)*$F58*(P$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(P$2/5)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="Q58">
+        <f>ROUND((($B$1/100)*$F58*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(Q$2/5)),0)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <f>ROUND((($B$1/100)*$F59*(G$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(G$2/5)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="H59">
+        <f>ROUND((($B$1/100)*$F59*(H$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(H$2/5)),0)</f>
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <f>ROUND((($B$1/100)*$F59*(I$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(I$2/5)),0)</f>
+        <v>71</v>
+      </c>
+      <c r="J59">
+        <f>ROUND((($B$1/100)*$F59*(J$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(J$2/5)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="K59">
+        <f>ROUND((($B$1/100)*$F59*(K$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(K$2/5)),0)</f>
+        <v>102</v>
+      </c>
+      <c r="L59">
+        <f>ROUND((($B$1/100)*$F59*(L$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(L$2/5)),0)</f>
+        <v>112</v>
+      </c>
+      <c r="M59">
+        <f>ROUND((($B$1/100)*$F59*(M$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(M$2/5)),0)</f>
+        <v>120</v>
+      </c>
+      <c r="N59">
+        <f>ROUND((($B$1/100)*$F59*(N$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(N$2/5)),0)</f>
+        <v>127</v>
+      </c>
+      <c r="O59">
+        <f>ROUND((($B$1/100)*$F59*(O$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(O$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="P59">
+        <f>ROUND((($B$1/100)*$F59*(P$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(P$2/5)),0)</f>
+        <v>138</v>
+      </c>
+      <c r="Q59">
+        <f>ROUND((($B$1/100)*$F59*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(Q$2/5)),0)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <f>ROUND((($B$1/100)*$F60*(G$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(G$2/5)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <f>ROUND((($B$1/100)*$F60*(H$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(H$2/5)),0)</f>
+        <v>54</v>
+      </c>
+      <c r="I60">
+        <f>ROUND((($B$1/100)*$F60*(I$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(I$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="J60">
+        <f>ROUND((($B$1/100)*$F60*(J$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(J$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <f>ROUND((($B$1/100)*$F60*(K$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(K$2/5)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="L60">
+        <f>ROUND((($B$1/100)*$F60*(L$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(L$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="M60">
+        <f>ROUND((($B$1/100)*$F60*(M$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(M$2/5)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="N60">
+        <f>ROUND((($B$1/100)*$F60*(N$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(N$2/5)),0)</f>
+        <v>129</v>
+      </c>
+      <c r="O60">
+        <f>ROUND((($B$1/100)*$F60*(O$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(O$2/5)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="P60">
+        <f>ROUND((($B$1/100)*$F60*(P$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(P$2/5)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <f>ROUND((($B$1/100)*$F60*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(Q$2/5)),0)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>58</v>
+      </c>
+      <c r="G61">
+        <f>ROUND((($B$1/100)*$F61*(G$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(G$2/5)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="H61">
+        <f>ROUND((($B$1/100)*$F61*(H$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(H$2/5)),0)</f>
+        <v>54</v>
+      </c>
+      <c r="I61">
+        <f>ROUND((($B$1/100)*$F61*(I$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(I$2/5)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="J61">
+        <f>ROUND((($B$1/100)*$F61*(J$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(J$2/5)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="K61">
+        <f>ROUND((($B$1/100)*$F61*(K$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(K$2/5)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="L61">
+        <f>ROUND((($B$1/100)*$F61*(L$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(L$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="M61">
+        <f>ROUND((($B$1/100)*$F61*(M$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(M$2/5)),0)</f>
+        <v>124</v>
+      </c>
+      <c r="N61">
+        <f>ROUND((($B$1/100)*$F61*(N$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(N$2/5)),0)</f>
+        <v>131</v>
+      </c>
+      <c r="O61">
+        <f>ROUND((($B$1/100)*$F61*(O$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(O$2/5)),0)</f>
+        <v>137</v>
+      </c>
+      <c r="P61">
+        <f>ROUND((($B$1/100)*$F61*(P$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(P$2/5)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="Q61">
+        <f>ROUND((($B$1/100)*$F61*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(Q$2/5)),0)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <f>ROUND((($B$1/100)*$F62*(G$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(G$2/5)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <f>ROUND((($B$1/100)*$F62*(H$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(H$2/5)),0)</f>
+        <v>55</v>
+      </c>
+      <c r="I62">
+        <f>ROUND((($B$1/100)*$F62*(I$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(I$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J62">
+        <f>ROUND((($B$1/100)*$F62*(J$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(J$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="K62">
+        <f>ROUND((($B$1/100)*$F62*(K$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(K$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="L62">
+        <f>ROUND((($B$1/100)*$F62*(L$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(L$2/5)),0)</f>
+        <v>117</v>
+      </c>
+      <c r="M62">
+        <f>ROUND((($B$1/100)*$F62*(M$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(M$2/5)),0)</f>
+        <v>126</v>
+      </c>
+      <c r="N62">
+        <f>ROUND((($B$1/100)*$F62*(N$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(N$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="O62">
+        <f>ROUND((($B$1/100)*$F62*(O$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(O$2/5)),0)</f>
+        <v>139</v>
+      </c>
+      <c r="P62">
+        <f>ROUND((($B$1/100)*$F62*(P$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(P$2/5)),0)</f>
+        <v>144</v>
+      </c>
+      <c r="Q62">
+        <f>ROUND((($B$1/100)*$F62*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(Q$2/5)),0)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>60</v>
+      </c>
+      <c r="G63">
+        <f>ROUND((($B$1/100)*$F63*(G$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(G$2/5)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <f>ROUND((($B$1/100)*$F63*(H$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(H$2/5)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="I63">
+        <f>ROUND((($B$1/100)*$F63*(I$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(I$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="J63">
+        <f>ROUND((($B$1/100)*$F63*(J$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(J$2/5)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <f>ROUND((($B$1/100)*$F63*(K$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(K$2/5)),0)</f>
+        <v>110</v>
+      </c>
+      <c r="L63">
+        <f>ROUND((($B$1/100)*$F63*(L$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(L$2/5)),0)</f>
+        <v>120</v>
+      </c>
+      <c r="M63">
+        <f>ROUND((($B$1/100)*$F63*(M$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(M$2/5)),0)</f>
+        <v>129</v>
+      </c>
+      <c r="N63">
+        <f>ROUND((($B$1/100)*$F63*(N$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(N$2/5)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="O63">
+        <f>ROUND((($B$1/100)*$F63*(O$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(O$2/5)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="P63">
+        <f>ROUND((($B$1/100)*$F63*(P$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(P$2/5)),0)</f>
+        <v>148</v>
+      </c>
+      <c r="Q63">
+        <f>ROUND((($B$1/100)*$F63*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(Q$2/5)),0)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>61</v>
+      </c>
+      <c r="G64">
+        <f>ROUND((($B$1/100)*$F64*(G$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(G$2/5)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="H64">
+        <f>ROUND((($B$1/100)*$F64*(H$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(H$2/5)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="I64">
+        <f>ROUND((($B$1/100)*$F64*(I$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(I$2/5)),0)</f>
+        <v>78</v>
+      </c>
+      <c r="J64">
+        <f>ROUND((($B$1/100)*$F64*(J$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(J$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="K64">
+        <f>ROUND((($B$1/100)*$F64*(K$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(K$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="L64">
+        <f>ROUND((($B$1/100)*$F64*(L$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(L$2/5)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="M64">
+        <f>ROUND((($B$1/100)*$F64*(M$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(M$2/5)),0)</f>
+        <v>131</v>
+      </c>
+      <c r="N64">
+        <f>ROUND((($B$1/100)*$F64*(N$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(N$2/5)),0)</f>
+        <v>138</v>
+      </c>
+      <c r="O64">
+        <f>ROUND((($B$1/100)*$F64*(O$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(O$2/5)),0)</f>
+        <v>144</v>
+      </c>
+      <c r="P64">
+        <f>ROUND((($B$1/100)*$F64*(P$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(P$2/5)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="Q64">
+        <f>ROUND((($B$1/100)*$F64*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(Q$2/5)),0)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>62</v>
+      </c>
+      <c r="G65">
+        <f>ROUND((($B$1/100)*$F65*(G$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(G$2/5)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="H65">
+        <f>ROUND((($B$1/100)*$F65*(H$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(H$2/5)),0)</f>
+        <v>58</v>
+      </c>
+      <c r="I65">
+        <f>ROUND((($B$1/100)*$F65*(I$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(I$2/5)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="J65">
+        <f>ROUND((($B$1/100)*$F65*(J$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(J$2/5)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="K65">
+        <f>ROUND((($B$1/100)*$F65*(K$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(K$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="L65">
+        <f>ROUND((($B$1/100)*$F65*(L$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(L$2/5)),0)</f>
+        <v>123</v>
+      </c>
+      <c r="M65">
+        <f>ROUND((($B$1/100)*$F65*(M$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(M$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="N65">
+        <f>ROUND((($B$1/100)*$F65*(N$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(N$2/5)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="O65">
+        <f>ROUND((($B$1/100)*$F65*(O$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(O$2/5)),0)</f>
+        <v>146</v>
+      </c>
+      <c r="P65">
+        <f>ROUND((($B$1/100)*$F65*(P$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(P$2/5)),0)</f>
+        <v>152</v>
+      </c>
+      <c r="Q65">
+        <f>ROUND((($B$1/100)*$F65*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(Q$2/5)),0)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <f>ROUND((($B$1/100)*$F66*(G$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(G$2/5)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="H66">
+        <f>ROUND((($B$1/100)*$F66*(H$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(H$2/5)),0)</f>
+        <v>59</v>
+      </c>
+      <c r="I66">
+        <f>ROUND((($B$1/100)*$F66*(I$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(I$2/5)),0)</f>
+        <v>80</v>
+      </c>
+      <c r="J66">
+        <f>ROUND((($B$1/100)*$F66*(J$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(J$2/5)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <f>ROUND((($B$1/100)*$F66*(K$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(K$2/5)),0)</f>
+        <v>114</v>
+      </c>
+      <c r="L66">
+        <f>ROUND((($B$1/100)*$F66*(L$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(L$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="M66">
+        <f>ROUND((($B$1/100)*$F66*(M$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(M$2/5)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="N66">
+        <f>ROUND((($B$1/100)*$F66*(N$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(N$2/5)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="O66">
+        <f>ROUND((($B$1/100)*$F66*(O$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(O$2/5)),0)</f>
+        <v>149</v>
+      </c>
+      <c r="P66">
+        <f>ROUND((($B$1/100)*$F66*(P$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(P$2/5)),0)</f>
+        <v>155</v>
+      </c>
+      <c r="Q66">
+        <f>ROUND((($B$1/100)*$F66*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(Q$2/5)),0)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <f>ROUND((($B$1/100)*$F67*(G$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(G$2/5)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="H67">
+        <f>ROUND((($B$1/100)*$F67*(H$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(H$2/5)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="I67">
+        <f>ROUND((($B$1/100)*$F67*(I$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(I$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="J67">
+        <f>ROUND((($B$1/100)*$F67*(J$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(J$2/5)),0)</f>
+        <v>101</v>
+      </c>
+      <c r="K67">
+        <f>ROUND((($B$1/100)*$F67*(K$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(K$2/5)),0)</f>
+        <v>116</v>
+      </c>
+      <c r="L67">
+        <f>ROUND((($B$1/100)*$F67*(L$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(L$2/5)),0)</f>
+        <v>127</v>
+      </c>
+      <c r="M67">
+        <f>ROUND((($B$1/100)*$F67*(M$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(M$2/5)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="N67">
+        <f>ROUND((($B$1/100)*$F67*(N$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(N$2/5)),0)</f>
+        <v>144</v>
+      </c>
+      <c r="O67">
+        <f>ROUND((($B$1/100)*$F67*(O$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(O$2/5)),0)</f>
+        <v>151</v>
+      </c>
+      <c r="P67">
+        <f>ROUND((($B$1/100)*$F67*(P$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(P$2/5)),0)</f>
+        <v>157</v>
+      </c>
+      <c r="Q67">
+        <f>ROUND((($B$1/100)*$F67*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(Q$2/5)),0)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <f>ROUND((($B$1/100)*$F68*(G$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(G$2/5)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="H68">
+        <f>ROUND((($B$1/100)*$F68*(H$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(H$2/5)),0)</f>
+        <v>61</v>
+      </c>
+      <c r="I68">
+        <f>ROUND((($B$1/100)*$F68*(I$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(I$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="J68">
+        <f>ROUND((($B$1/100)*$F68*(J$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(J$2/5)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="K68">
+        <f>ROUND((($B$1/100)*$F68*(K$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(K$2/5)),0)</f>
+        <v>119</v>
+      </c>
+      <c r="L68">
+        <f>ROUND((($B$1/100)*$F68*(L$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(L$2/5)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="M68">
+        <f>ROUND((($B$1/100)*$F68*(M$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(M$2/5)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="N68">
+        <f>ROUND((($B$1/100)*$F68*(N$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(N$2/5)),0)</f>
+        <v>148</v>
+      </c>
+      <c r="O68">
+        <f>ROUND((($B$1/100)*$F68*(O$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(O$2/5)),0)</f>
+        <v>154</v>
+      </c>
+      <c r="P68">
+        <f>ROUND((($B$1/100)*$F68*(P$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(P$2/5)),0)</f>
+        <v>160</v>
+      </c>
+      <c r="Q68">
+        <f>ROUND((($B$1/100)*$F68*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(Q$2/5)),0)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <f>ROUND((($B$1/100)*$F69*(G$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(G$2/5)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <f>ROUND((($B$1/100)*$F69*(H$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(H$2/5)),0)</f>
+        <v>62</v>
+      </c>
+      <c r="I69">
+        <f>ROUND((($B$1/100)*$F69*(I$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(I$2/5)),0)</f>
+        <v>84</v>
+      </c>
+      <c r="J69">
+        <f>ROUND((($B$1/100)*$F69*(J$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(J$2/5)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="K69">
+        <f>ROUND((($B$1/100)*$F69*(K$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(K$2/5)),0)</f>
+        <v>120</v>
+      </c>
+      <c r="L69">
+        <f>ROUND((($B$1/100)*$F69*(L$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(L$2/5)),0)</f>
+        <v>132</v>
+      </c>
+      <c r="M69">
+        <f>ROUND((($B$1/100)*$F69*(M$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(M$2/5)),0)</f>
+        <v>141</v>
+      </c>
+      <c r="N69">
+        <f>ROUND((($B$1/100)*$F69*(N$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(N$2/5)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="O69">
+        <f>ROUND((($B$1/100)*$F69*(O$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(O$2/5)),0)</f>
+        <v>156</v>
+      </c>
+      <c r="P69">
+        <f>ROUND((($B$1/100)*$F69*(P$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(P$2/5)),0)</f>
+        <v>163</v>
+      </c>
+      <c r="Q69">
+        <f>ROUND((($B$1/100)*$F69*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(Q$2/5)),0)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <f>ROUND((($B$1/100)*$F70*(G$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(G$2/5)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <f>ROUND((($B$1/100)*$F70*(H$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(H$2/5)),0)</f>
+        <v>63</v>
+      </c>
+      <c r="I70">
+        <f>ROUND((($B$1/100)*$F70*(I$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(I$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="J70">
+        <f>ROUND((($B$1/100)*$F70*(J$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(J$2/5)),0)</f>
+        <v>106</v>
+      </c>
+      <c r="K70">
+        <f>ROUND((($B$1/100)*$F70*(K$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(K$2/5)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="L70">
+        <f>ROUND((($B$1/100)*$F70*(L$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(L$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="M70">
+        <f>ROUND((($B$1/100)*$F70*(M$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(M$2/5)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="N70">
+        <f>ROUND((($B$1/100)*$F70*(N$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(N$2/5)),0)</f>
+        <v>152</v>
+      </c>
+      <c r="O70">
+        <f>ROUND((($B$1/100)*$F70*(O$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(O$2/5)),0)</f>
+        <v>158</v>
+      </c>
+      <c r="P70">
+        <f>ROUND((($B$1/100)*$F70*(P$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(P$2/5)),0)</f>
+        <v>165</v>
+      </c>
+      <c r="Q70">
+        <f>ROUND((($B$1/100)*$F70*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(Q$2/5)),0)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>68</v>
+      </c>
+      <c r="G71">
+        <f>ROUND((($B$1/100)*$F71*(G$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(G$2/5)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <f>ROUND((($B$1/100)*$F71*(H$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(H$2/5)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="I71">
+        <f>ROUND((($B$1/100)*$F71*(I$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(I$2/5)),0)</f>
+        <v>86</v>
+      </c>
+      <c r="J71">
+        <f>ROUND((($B$1/100)*$F71*(J$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(J$2/5)),0)</f>
+        <v>108</v>
+      </c>
+      <c r="K71">
+        <f>ROUND((($B$1/100)*$F71*(K$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(K$2/5)),0)</f>
+        <v>124</v>
+      </c>
+      <c r="L71">
+        <f>ROUND((($B$1/100)*$F71*(L$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(L$2/5)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="M71">
+        <f>ROUND((($B$1/100)*$F71*(M$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(M$2/5)),0)</f>
+        <v>145</v>
+      </c>
+      <c r="N71">
+        <f>ROUND((($B$1/100)*$F71*(N$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(N$2/5)),0)</f>
+        <v>154</v>
+      </c>
+      <c r="O71">
+        <f>ROUND((($B$1/100)*$F71*(O$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(O$2/5)),0)</f>
+        <v>160</v>
+      </c>
+      <c r="P71">
+        <f>ROUND((($B$1/100)*$F71*(P$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(P$2/5)),0)</f>
+        <v>167</v>
+      </c>
+      <c r="Q71">
+        <f>ROUND((($B$1/100)*$F71*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(Q$2/5)),0)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>69</v>
+      </c>
+      <c r="G72">
+        <f>ROUND((($B$1/100)*$F72*(G$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(G$2/5)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="H72">
+        <f>ROUND((($B$1/100)*$F72*(H$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(H$2/5)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="I72">
+        <f>ROUND((($B$1/100)*$F72*(I$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(I$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="J72">
+        <f>ROUND((($B$1/100)*$F72*(J$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(J$2/5)),0)</f>
+        <v>109</v>
+      </c>
+      <c r="K72">
+        <f>ROUND((($B$1/100)*$F72*(K$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(K$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="L72">
+        <f>ROUND((($B$1/100)*$F72*(L$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(L$2/5)),0)</f>
+        <v>137</v>
+      </c>
+      <c r="M72">
+        <f>ROUND((($B$1/100)*$F72*(M$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(M$2/5)),0)</f>
+        <v>147</v>
+      </c>
+      <c r="N72">
+        <f>ROUND((($B$1/100)*$F72*(N$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(N$2/5)),0)</f>
+        <v>156</v>
+      </c>
+      <c r="O72">
+        <f>ROUND((($B$1/100)*$F72*(O$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(O$2/5)),0)</f>
+        <v>163</v>
+      </c>
+      <c r="P72">
+        <f>ROUND((($B$1/100)*$F72*(P$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(P$2/5)),0)</f>
+        <v>169</v>
+      </c>
+      <c r="Q72">
+        <f>ROUND((($B$1/100)*$F72*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(Q$2/5)),0)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <f>ROUND((($B$1/100)*$F73*(G$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(G$2/5)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="H73">
+        <f>ROUND((($B$1/100)*$F73*(H$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(H$2/5)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="I73">
+        <f>ROUND((($B$1/100)*$F73*(I$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(I$2/5)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="J73">
+        <f>ROUND((($B$1/100)*$F73*(J$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(J$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="K73">
+        <f>ROUND((($B$1/100)*$F73*(K$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(K$2/5)),0)</f>
+        <v>128</v>
+      </c>
+      <c r="L73">
+        <f>ROUND((($B$1/100)*$F73*(L$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(L$2/5)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="M73">
+        <f>ROUND((($B$1/100)*$F73*(M$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(M$2/5)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="N73">
+        <f>ROUND((($B$1/100)*$F73*(N$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(N$2/5)),0)</f>
+        <v>159</v>
+      </c>
+      <c r="O73">
+        <f>ROUND((($B$1/100)*$F73*(O$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(O$2/5)),0)</f>
+        <v>166</v>
+      </c>
+      <c r="P73">
+        <f>ROUND((($B$1/100)*$F73*(P$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(P$2/5)),0)</f>
+        <v>173</v>
+      </c>
+      <c r="Q73">
+        <f>ROUND((($B$1/100)*$F73*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(Q$2/5)),0)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>71</v>
+      </c>
+      <c r="G74">
+        <f>ROUND((($B$1/100)*$F74*(G$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(G$2/5)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="H74">
+        <f>ROUND((($B$1/100)*$F74*(H$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(H$2/5)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="I74">
+        <f>ROUND((($B$1/100)*$F74*(I$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(I$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="J74">
+        <f>ROUND((($B$1/100)*$F74*(J$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(J$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="K74">
+        <f>ROUND((($B$1/100)*$F74*(K$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(K$2/5)),0)</f>
+        <v>129</v>
+      </c>
+      <c r="L74">
+        <f>ROUND((($B$1/100)*$F74*(L$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(L$2/5)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="M74">
+        <f>ROUND((($B$1/100)*$F74*(M$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(M$2/5)),0)</f>
+        <v>152</v>
+      </c>
+      <c r="N74">
+        <f>ROUND((($B$1/100)*$F74*(N$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(N$2/5)),0)</f>
+        <v>161</v>
+      </c>
+      <c r="O74">
+        <f>ROUND((($B$1/100)*$F74*(O$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(O$2/5)),0)</f>
+        <v>168</v>
+      </c>
+      <c r="P74">
+        <f>ROUND((($B$1/100)*$F74*(P$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(P$2/5)),0)</f>
+        <v>175</v>
+      </c>
+      <c r="Q74">
+        <f>ROUND((($B$1/100)*$F74*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(Q$2/5)),0)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>72</v>
+      </c>
+      <c r="G75">
+        <f>ROUND((($B$1/100)*$F75*(G$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(G$2/5)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="H75">
+        <f>ROUND((($B$1/100)*$F75*(H$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(H$2/5)),0)</f>
+        <v>68</v>
+      </c>
+      <c r="I75">
+        <f>ROUND((($B$1/100)*$F75*(I$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(I$2/5)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="J75">
+        <f>ROUND((($B$1/100)*$F75*(J$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(J$2/5)),0)</f>
+        <v>114</v>
+      </c>
+      <c r="K75">
+        <f>ROUND((($B$1/100)*$F75*(K$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(K$2/5)),0)</f>
+        <v>131</v>
+      </c>
+      <c r="L75">
+        <f>ROUND((($B$1/100)*$F75*(L$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(L$2/5)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="M75">
+        <f>ROUND((($B$1/100)*$F75*(M$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(M$2/5)),0)</f>
+        <v>154</v>
+      </c>
+      <c r="N75">
+        <f>ROUND((($B$1/100)*$F75*(N$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(N$2/5)),0)</f>
+        <v>163</v>
+      </c>
+      <c r="O75">
+        <f>ROUND((($B$1/100)*$F75*(O$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(O$2/5)),0)</f>
+        <v>170</v>
+      </c>
+      <c r="P75">
+        <f>ROUND((($B$1/100)*$F75*(P$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(P$2/5)),0)</f>
+        <v>177</v>
+      </c>
+      <c r="Q75">
+        <f>ROUND((($B$1/100)*$F75*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(Q$2/5)),0)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <f>ROUND((($B$1/100)*$F76*(G$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(G$2/5)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="H76">
+        <f>ROUND((($B$1/100)*$F76*(H$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(H$2/5)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="I76">
+        <f>ROUND((($B$1/100)*$F76*(I$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(I$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="J76">
+        <f>ROUND((($B$1/100)*$F76*(J$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(J$2/5)),0)</f>
+        <v>116</v>
+      </c>
+      <c r="K76">
+        <f>ROUND((($B$1/100)*$F76*(K$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(K$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="L76">
+        <f>ROUND((($B$1/100)*$F76*(L$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(L$2/5)),0)</f>
+        <v>145</v>
+      </c>
+      <c r="M76">
+        <f>ROUND((($B$1/100)*$F76*(M$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(M$2/5)),0)</f>
+        <v>156</v>
+      </c>
+      <c r="N76">
+        <f>ROUND((($B$1/100)*$F76*(N$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(N$2/5)),0)</f>
+        <v>165</v>
+      </c>
+      <c r="O76">
+        <f>ROUND((($B$1/100)*$F76*(O$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(O$2/5)),0)</f>
+        <v>172</v>
+      </c>
+      <c r="P76">
+        <f>ROUND((($B$1/100)*$F76*(P$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(P$2/5)),0)</f>
+        <v>179</v>
+      </c>
+      <c r="Q76">
+        <f>ROUND((($B$1/100)*$F76*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(Q$2/5)),0)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>74</v>
+      </c>
+      <c r="G77">
+        <f>ROUND((($B$1/100)*$F77*(G$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(G$2/5)),0)</f>
+        <v>38</v>
+      </c>
+      <c r="H77">
+        <f>ROUND((($B$1/100)*$F77*(H$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(H$2/5)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="I77">
+        <f>ROUND((($B$1/100)*$F77*(I$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(I$2/5)),0)</f>
         <v>94</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
+      <c r="J77">
+        <f>ROUND((($B$1/100)*$F77*(J$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(J$2/5)),0)</f>
+        <v>117</v>
+      </c>
+      <c r="K77">
+        <f>ROUND((($B$1/100)*$F77*(K$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(K$2/5)),0)</f>
+        <v>134</v>
+      </c>
+      <c r="L77">
+        <f>ROUND((($B$1/100)*$F77*(L$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(L$2/5)),0)</f>
+        <v>147</v>
+      </c>
+      <c r="M77">
+        <f>ROUND((($B$1/100)*$F77*(M$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(M$2/5)),0)</f>
+        <v>158</v>
+      </c>
+      <c r="N77">
+        <f>ROUND((($B$1/100)*$F77*(N$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(N$2/5)),0)</f>
+        <v>167</v>
+      </c>
+      <c r="O77">
+        <f>ROUND((($B$1/100)*$F77*(O$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(O$2/5)),0)</f>
+        <v>174</v>
+      </c>
+      <c r="P77">
+        <f>ROUND((($B$1/100)*$F77*(P$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(P$2/5)),0)</f>
+        <v>182</v>
+      </c>
+      <c r="Q77">
+        <f>ROUND((($B$1/100)*$F77*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(Q$2/5)),0)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>75</v>
+      </c>
+      <c r="G78">
+        <f>ROUND((($B$1/100)*$F78*(G$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(G$2/5)),0)</f>
+        <v>38</v>
+      </c>
+      <c r="H78">
+        <f>ROUND((($B$1/100)*$F78*(H$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(H$2/5)),0)</f>
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <f>ROUND((($B$1/100)*$F78*(I$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(I$2/5)),0)</f>
+        <v>96</v>
+      </c>
+      <c r="J78">
+        <f>ROUND((($B$1/100)*$F78*(J$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(J$2/5)),0)</f>
+        <v>119</v>
+      </c>
+      <c r="K78">
+        <f>ROUND((($B$1/100)*$F78*(K$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(K$2/5)),0)</f>
+        <v>137</v>
+      </c>
+      <c r="L78">
+        <f>ROUND((($B$1/100)*$F78*(L$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(L$2/5)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="M78">
+        <f>ROUND((($B$1/100)*$F78*(M$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(M$2/5)),0)</f>
+        <v>161</v>
+      </c>
+      <c r="N78">
+        <f>ROUND((($B$1/100)*$F78*(N$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(N$2/5)),0)</f>
+        <v>170</v>
+      </c>
+      <c r="O78">
+        <f>ROUND((($B$1/100)*$F78*(O$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(O$2/5)),0)</f>
+        <v>178</v>
+      </c>
+      <c r="P78">
+        <f>ROUND((($B$1/100)*$F78*(P$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(P$2/5)),0)</f>
+        <v>185</v>
+      </c>
+      <c r="Q78">
+        <f>ROUND((($B$1/100)*$F78*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(Q$2/5)),0)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>76</v>
+      </c>
+      <c r="G79">
+        <f>ROUND((($B$1/100)*$F79*(G$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(G$2/5)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="H79">
+        <f>ROUND((($B$1/100)*$F79*(H$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(H$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <f>ROUND((($B$1/100)*$F79*(I$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(I$2/5)),0)</f>
+        <v>97</v>
+      </c>
+      <c r="J79">
+        <f>ROUND((($B$1/100)*$F79*(J$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(J$2/5)),0)</f>
+        <v>121</v>
+      </c>
+      <c r="K79">
+        <f>ROUND((($B$1/100)*$F79*(K$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(K$2/5)),0)</f>
+        <v>139</v>
+      </c>
+      <c r="L79">
+        <f>ROUND((($B$1/100)*$F79*(L$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(L$2/5)),0)</f>
+        <v>152</v>
+      </c>
+      <c r="M79">
+        <f>ROUND((($B$1/100)*$F79*(M$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(M$2/5)),0)</f>
+        <v>163</v>
+      </c>
+      <c r="N79">
+        <f>ROUND((($B$1/100)*$F79*(N$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(N$2/5)),0)</f>
+        <v>172</v>
+      </c>
+      <c r="O79">
+        <f>ROUND((($B$1/100)*$F79*(O$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(O$2/5)),0)</f>
+        <v>180</v>
+      </c>
+      <c r="P79">
+        <f>ROUND((($B$1/100)*$F79*(P$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(P$2/5)),0)</f>
+        <v>187</v>
+      </c>
+      <c r="Q79">
+        <f>ROUND((($B$1/100)*$F79*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(Q$2/5)),0)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>77</v>
+      </c>
+      <c r="G80">
+        <f>ROUND((($B$1/100)*$F80*(G$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(G$2/5)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="H80">
+        <f>ROUND((($B$1/100)*$F80*(H$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(H$2/5)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <f>ROUND((($B$1/100)*$F80*(I$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(I$2/5)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="J80">
+        <f>ROUND((($B$1/100)*$F80*(J$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(J$2/5)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="K80">
+        <f>ROUND((($B$1/100)*$F80*(K$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(K$2/5)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="L80">
+        <f>ROUND((($B$1/100)*$F80*(L$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(L$2/5)),0)</f>
+        <v>153</v>
+      </c>
+      <c r="M80">
+        <f>ROUND((($B$1/100)*$F80*(M$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(M$2/5)),0)</f>
+        <v>165</v>
+      </c>
+      <c r="N80">
+        <f>ROUND((($B$1/100)*$F80*(N$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(N$2/5)),0)</f>
+        <v>174</v>
+      </c>
+      <c r="O80">
+        <f>ROUND((($B$1/100)*$F80*(O$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(O$2/5)),0)</f>
+        <v>182</v>
+      </c>
+      <c r="P80">
+        <f>ROUND((($B$1/100)*$F80*(P$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(P$2/5)),0)</f>
+        <v>189</v>
+      </c>
+      <c r="Q80">
+        <f>ROUND((($B$1/100)*$F80*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(Q$2/5)),0)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>78</v>
+      </c>
+      <c r="G81">
+        <f>ROUND((($B$1/100)*$F81*(G$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(G$2/5)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <f>ROUND((($B$1/100)*$F81*(H$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(H$2/5)),0)</f>
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <f>ROUND((($B$1/100)*$F81*(I$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(I$2/5)),0)</f>
+        <v>99</v>
+      </c>
+      <c r="J81">
+        <f>ROUND((($B$1/100)*$F81*(J$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(J$2/5)),0)</f>
+        <v>124</v>
+      </c>
+      <c r="K81">
+        <f>ROUND((($B$1/100)*$F81*(K$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(K$2/5)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="L81">
+        <f>ROUND((($B$1/100)*$F81*(L$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(L$2/5)),0)</f>
+        <v>155</v>
+      </c>
+      <c r="M81">
+        <f>ROUND((($B$1/100)*$F81*(M$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(M$2/5)),0)</f>
+        <v>167</v>
+      </c>
+      <c r="N81">
+        <f>ROUND((($B$1/100)*$F81*(N$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(N$2/5)),0)</f>
+        <v>176</v>
+      </c>
+      <c r="O81">
+        <f>ROUND((($B$1/100)*$F81*(O$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(O$2/5)),0)</f>
+        <v>184</v>
+      </c>
+      <c r="P81">
+        <f>ROUND((($B$1/100)*$F81*(P$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(P$2/5)),0)</f>
+        <v>192</v>
+      </c>
+      <c r="Q81">
+        <f>ROUND((($B$1/100)*$F81*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(Q$2/5)),0)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>79</v>
+      </c>
+      <c r="G82">
+        <f>ROUND((($B$1/100)*$F82*(G$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(G$2/5)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <f>ROUND((($B$1/100)*$F82*(H$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(H$2/5)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="I82">
+        <f>ROUND((($B$1/100)*$F82*(I$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(I$2/5)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <f>ROUND((($B$1/100)*$F82*(J$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(J$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="K82">
+        <f>ROUND((($B$1/100)*$F82*(K$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(K$2/5)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="L82">
+        <f>ROUND((($B$1/100)*$F82*(L$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(L$2/5)),0)</f>
+        <v>157</v>
+      </c>
+      <c r="M82">
+        <f>ROUND((($B$1/100)*$F82*(M$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(M$2/5)),0)</f>
+        <v>169</v>
+      </c>
+      <c r="N82">
+        <f>ROUND((($B$1/100)*$F82*(N$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(N$2/5)),0)</f>
+        <v>178</v>
+      </c>
+      <c r="O82">
+        <f>ROUND((($B$1/100)*$F82*(O$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(O$2/5)),0)</f>
+        <v>186</v>
+      </c>
+      <c r="P82">
+        <f>ROUND((($B$1/100)*$F82*(P$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(P$2/5)),0)</f>
+        <v>194</v>
+      </c>
+      <c r="Q82">
+        <f>ROUND((($B$1/100)*$F82*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(Q$2/5)),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83">
+        <f>ROUND((($B$1/100)*$F83*(G$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(G$2/5)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="H83">
+        <f>ROUND((($B$1/100)*$F83*(H$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(H$2/5)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <f>ROUND((($B$1/100)*$F83*(I$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(I$2/5)),0)</f>
+        <v>102</v>
+      </c>
+      <c r="J83">
+        <f>ROUND((($B$1/100)*$F83*(J$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(J$2/5)),0)</f>
+        <v>127</v>
+      </c>
+      <c r="K83">
+        <f>ROUND((($B$1/100)*$F83*(K$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(K$2/5)),0)</f>
+        <v>146</v>
+      </c>
+      <c r="L83">
+        <f>ROUND((($B$1/100)*$F83*(L$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(L$2/5)),0)</f>
+        <v>160</v>
+      </c>
+      <c r="M83">
+        <f>ROUND((($B$1/100)*$F83*(M$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(M$2/5)),0)</f>
+        <v>172</v>
+      </c>
+      <c r="N83">
+        <f>ROUND((($B$1/100)*$F83*(N$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(N$2/5)),0)</f>
+        <v>182</v>
+      </c>
+      <c r="O83">
+        <f>ROUND((($B$1/100)*$F83*(O$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(O$2/5)),0)</f>
+        <v>190</v>
+      </c>
+      <c r="P83">
+        <f>ROUND((($B$1/100)*$F83*(P$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(P$2/5)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="Q83">
+        <f>ROUND((($B$1/100)*$F83*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(Q$2/5)),0)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <f>ROUND((($B$1/100)*$F84*(G$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(G$2/5)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="H84">
+        <f>ROUND((($B$1/100)*$F84*(H$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(H$2/5)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="I84">
+        <f>ROUND((($B$1/100)*$F84*(I$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(I$2/5)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="J84">
+        <f>ROUND((($B$1/100)*$F84*(J$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(J$2/5)),0)</f>
+        <v>129</v>
+      </c>
+      <c r="K84">
+        <f>ROUND((($B$1/100)*$F84*(K$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(K$2/5)),0)</f>
+        <v>148</v>
+      </c>
+      <c r="L84">
+        <f>ROUND((($B$1/100)*$F84*(L$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(L$2/5)),0)</f>
+        <v>162</v>
+      </c>
+      <c r="M84">
+        <f>ROUND((($B$1/100)*$F84*(M$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(M$2/5)),0)</f>
+        <v>174</v>
+      </c>
+      <c r="N84">
+        <f>ROUND((($B$1/100)*$F84*(N$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(N$2/5)),0)</f>
+        <v>184</v>
+      </c>
+      <c r="O84">
+        <f>ROUND((($B$1/100)*$F84*(O$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(O$2/5)),0)</f>
+        <v>192</v>
+      </c>
+      <c r="P84">
+        <f>ROUND((($B$1/100)*$F84*(P$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(P$2/5)),0)</f>
+        <v>200</v>
+      </c>
+      <c r="Q84">
+        <f>ROUND((($B$1/100)*$F84*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(Q$2/5)),0)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>82</v>
+      </c>
+      <c r="G85">
+        <f>ROUND((($B$1/100)*$F85*(G$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(G$2/5)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="H85">
+        <f>ROUND((($B$1/100)*$F85*(H$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(H$2/5)),0)</f>
+        <v>77</v>
+      </c>
+      <c r="I85">
+        <f>ROUND((($B$1/100)*$F85*(I$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(I$2/5)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="J85">
+        <f>ROUND((($B$1/100)*$F85*(J$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(J$2/5)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="K85">
+        <f>ROUND((($B$1/100)*$F85*(K$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(K$2/5)),0)</f>
+        <v>149</v>
+      </c>
+      <c r="L85">
+        <f>ROUND((($B$1/100)*$F85*(L$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(L$2/5)),0)</f>
+        <v>163</v>
+      </c>
+      <c r="M85">
+        <f>ROUND((($B$1/100)*$F85*(M$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(M$2/5)),0)</f>
+        <v>176</v>
+      </c>
+      <c r="N85">
+        <f>ROUND((($B$1/100)*$F85*(N$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(N$2/5)),0)</f>
+        <v>186</v>
+      </c>
+      <c r="O85">
+        <f>ROUND((($B$1/100)*$F85*(O$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(O$2/5)),0)</f>
+        <v>194</v>
+      </c>
+      <c r="P85">
+        <f>ROUND((($B$1/100)*$F85*(P$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(P$2/5)),0)</f>
+        <v>202</v>
+      </c>
+      <c r="Q85">
+        <f>ROUND((($B$1/100)*$F85*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(Q$2/5)),0)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>83</v>
+      </c>
+      <c r="G86">
+        <f>ROUND((($B$1/100)*$F86*(G$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(G$2/5)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="H86">
+        <f>ROUND((($B$1/100)*$F86*(H$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(H$2/5)),0)</f>
+        <v>78</v>
+      </c>
+      <c r="I86">
+        <f>ROUND((($B$1/100)*$F86*(I$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(I$2/5)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="J86">
+        <f>ROUND((($B$1/100)*$F86*(J$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(J$2/5)),0)</f>
+        <v>132</v>
+      </c>
+      <c r="K86">
+        <f>ROUND((($B$1/100)*$F86*(K$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(K$2/5)),0)</f>
+        <v>151</v>
+      </c>
+      <c r="L86">
+        <f>ROUND((($B$1/100)*$F86*(L$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(L$2/5)),0)</f>
+        <v>165</v>
+      </c>
+      <c r="M86">
+        <f>ROUND((($B$1/100)*$F86*(M$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(M$2/5)),0)</f>
+        <v>177</v>
+      </c>
+      <c r="N86">
+        <f>ROUND((($B$1/100)*$F86*(N$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(N$2/5)),0)</f>
+        <v>188</v>
+      </c>
+      <c r="O86">
+        <f>ROUND((($B$1/100)*$F86*(O$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(O$2/5)),0)</f>
+        <v>196</v>
+      </c>
+      <c r="P86">
+        <f>ROUND((($B$1/100)*$F86*(P$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(P$2/5)),0)</f>
+        <v>204</v>
+      </c>
+      <c r="Q86">
+        <f>ROUND((($B$1/100)*$F86*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(Q$2/5)),0)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <f>ROUND((($B$1/100)*$F87*(G$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(G$2/5)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="H87">
+        <f>ROUND((($B$1/100)*$F87*(H$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(H$2/5)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <f>ROUND((($B$1/100)*$F87*(I$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(I$2/5)),0)</f>
+        <v>107</v>
+      </c>
+      <c r="J87">
+        <f>ROUND((($B$1/100)*$F87*(J$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(J$2/5)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="K87">
+        <f>ROUND((($B$1/100)*$F87*(K$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(K$2/5)),0)</f>
+        <v>153</v>
+      </c>
+      <c r="L87">
+        <f>ROUND((($B$1/100)*$F87*(L$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(L$2/5)),0)</f>
+        <v>167</v>
+      </c>
+      <c r="M87">
+        <f>ROUND((($B$1/100)*$F87*(M$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(M$2/5)),0)</f>
+        <v>179</v>
+      </c>
+      <c r="N87">
+        <f>ROUND((($B$1/100)*$F87*(N$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(N$2/5)),0)</f>
+        <v>190</v>
+      </c>
+      <c r="O87">
+        <f>ROUND((($B$1/100)*$F87*(O$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(O$2/5)),0)</f>
+        <v>198</v>
+      </c>
+      <c r="P87">
+        <f>ROUND((($B$1/100)*$F87*(P$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(P$2/5)),0)</f>
+        <v>206</v>
+      </c>
+      <c r="Q87">
+        <f>ROUND((($B$1/100)*$F87*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(Q$2/5)),0)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>85</v>
+      </c>
+      <c r="G88">
+        <f>ROUND((($B$1/100)*$F88*(G$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(G$2/5)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="H88">
+        <f>ROUND((($B$1/100)*$F88*(H$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(H$2/5)),0)</f>
+        <v>80</v>
+      </c>
+      <c r="I88">
+        <f>ROUND((($B$1/100)*$F88*(I$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(I$2/5)),0)</f>
+        <v>108</v>
+      </c>
+      <c r="J88">
+        <f>ROUND((($B$1/100)*$F88*(J$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(J$2/5)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="K88">
+        <f>ROUND((($B$1/100)*$F88*(K$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(K$2/5)),0)</f>
+        <v>155</v>
+      </c>
+      <c r="L88">
+        <f>ROUND((($B$1/100)*$F88*(L$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(L$2/5)),0)</f>
+        <v>170</v>
+      </c>
+      <c r="M88">
+        <f>ROUND((($B$1/100)*$F88*(M$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(M$2/5)),0)</f>
+        <v>183</v>
+      </c>
+      <c r="N88">
+        <f>ROUND((($B$1/100)*$F88*(N$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(N$2/5)),0)</f>
+        <v>193</v>
+      </c>
+      <c r="O88">
+        <f>ROUND((($B$1/100)*$F88*(O$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(O$2/5)),0)</f>
+        <v>202</v>
+      </c>
+      <c r="P88">
+        <f>ROUND((($B$1/100)*$F88*(P$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(P$2/5)),0)</f>
+        <v>210</v>
+      </c>
+      <c r="Q88">
+        <f>ROUND((($B$1/100)*$F88*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(Q$2/5)),0)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>86</v>
+      </c>
+      <c r="G89">
+        <f>ROUND((($B$1/100)*$F89*(G$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(G$2/5)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="H89">
+        <f>ROUND((($B$1/100)*$F89*(H$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(H$2/5)),0)</f>
+        <v>81</v>
+      </c>
+      <c r="I89">
+        <f>ROUND((($B$1/100)*$F89*(I$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(I$2/5)),0)</f>
+        <v>110</v>
+      </c>
+      <c r="J89">
+        <f>ROUND((($B$1/100)*$F89*(J$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(J$2/5)),0)</f>
+        <v>137</v>
+      </c>
+      <c r="K89">
+        <f>ROUND((($B$1/100)*$F89*(K$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(K$2/5)),0)</f>
+        <v>157</v>
+      </c>
+      <c r="L89">
+        <f>ROUND((($B$1/100)*$F89*(L$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(L$2/5)),0)</f>
+        <v>172</v>
+      </c>
+      <c r="M89">
+        <f>ROUND((($B$1/100)*$F89*(M$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(M$2/5)),0)</f>
+        <v>184</v>
+      </c>
+      <c r="N89">
+        <f>ROUND((($B$1/100)*$F89*(N$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(N$2/5)),0)</f>
+        <v>195</v>
+      </c>
+      <c r="O89">
+        <f>ROUND((($B$1/100)*$F89*(O$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(O$2/5)),0)</f>
+        <v>204</v>
+      </c>
+      <c r="P89">
+        <f>ROUND((($B$1/100)*$F89*(P$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(P$2/5)),0)</f>
+        <v>212</v>
+      </c>
+      <c r="Q89">
+        <f>ROUND((($B$1/100)*$F89*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(Q$2/5)),0)</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>87</v>
+      </c>
+      <c r="G90">
+        <f>ROUND((($B$1/100)*$F90*(G$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(G$2/5)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="H90">
+        <f>ROUND((($B$1/100)*$F90*(H$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(H$2/5)),0)</f>
+        <v>82</v>
+      </c>
+      <c r="I90">
+        <f>ROUND((($B$1/100)*$F90*(I$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(I$2/5)),0)</f>
+        <v>111</v>
+      </c>
+      <c r="J90">
+        <f>ROUND((($B$1/100)*$F90*(J$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(J$2/5)),0)</f>
+        <v>138</v>
+      </c>
+      <c r="K90">
+        <f>ROUND((($B$1/100)*$F90*(K$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(K$2/5)),0)</f>
+        <v>158</v>
+      </c>
+      <c r="L90">
+        <f>ROUND((($B$1/100)*$F90*(L$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(L$2/5)),0)</f>
+        <v>173</v>
+      </c>
+      <c r="M90">
+        <f>ROUND((($B$1/100)*$F90*(M$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(M$2/5)),0)</f>
+        <v>186</v>
+      </c>
+      <c r="N90">
+        <f>ROUND((($B$1/100)*$F90*(N$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(N$2/5)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="O90">
+        <f>ROUND((($B$1/100)*$F90*(O$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(O$2/5)),0)</f>
+        <v>206</v>
+      </c>
+      <c r="P90">
+        <f>ROUND((($B$1/100)*$F90*(P$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(P$2/5)),0)</f>
+        <v>214</v>
+      </c>
+      <c r="Q90">
+        <f>ROUND((($B$1/100)*$F90*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(Q$2/5)),0)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <f>ROUND((($B$1/100)*$F91*(G$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(G$2/5)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="H91">
+        <f>ROUND((($B$1/100)*$F91*(H$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(H$2/5)),0)</f>
+        <v>83</v>
+      </c>
+      <c r="I91">
+        <f>ROUND((($B$1/100)*$F91*(I$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(I$2/5)),0)</f>
+        <v>112</v>
+      </c>
+      <c r="J91">
+        <f>ROUND((($B$1/100)*$F91*(J$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(J$2/5)),0)</f>
+        <v>139</v>
+      </c>
+      <c r="K91">
+        <f>ROUND((($B$1/100)*$F91*(K$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(K$2/5)),0)</f>
+        <v>160</v>
+      </c>
+      <c r="L91">
+        <f>ROUND((($B$1/100)*$F91*(L$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(L$2/5)),0)</f>
+        <v>175</v>
+      </c>
+      <c r="M91">
+        <f>ROUND((($B$1/100)*$F91*(M$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(M$2/5)),0)</f>
+        <v>188</v>
+      </c>
+      <c r="N91">
+        <f>ROUND((($B$1/100)*$F91*(N$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(N$2/5)),0)</f>
+        <v>199</v>
+      </c>
+      <c r="O91">
+        <f>ROUND((($B$1/100)*$F91*(O$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(O$2/5)),0)</f>
+        <v>208</v>
+      </c>
+      <c r="P91">
+        <f>ROUND((($B$1/100)*$F91*(P$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(P$2/5)),0)</f>
+        <v>216</v>
+      </c>
+      <c r="Q91">
+        <f>ROUND((($B$1/100)*$F91*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(Q$2/5)),0)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>89</v>
+      </c>
+      <c r="G92">
+        <f>ROUND((($B$1/100)*$F92*(G$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(G$2/5)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="H92">
+        <f>ROUND((($B$1/100)*$F92*(H$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(H$2/5)),0)</f>
+        <v>84</v>
+      </c>
+      <c r="I92">
+        <f>ROUND((($B$1/100)*$F92*(I$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(I$2/5)),0)</f>
+        <v>113</v>
+      </c>
+      <c r="J92">
+        <f>ROUND((($B$1/100)*$F92*(J$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(J$2/5)),0)</f>
+        <v>141</v>
+      </c>
+      <c r="K92">
+        <f>ROUND((($B$1/100)*$F92*(K$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(K$2/5)),0)</f>
+        <v>162</v>
+      </c>
+      <c r="L92">
+        <f>ROUND((($B$1/100)*$F92*(L$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(L$2/5)),0)</f>
+        <v>177</v>
+      </c>
+      <c r="M92">
+        <f>ROUND((($B$1/100)*$F92*(M$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(M$2/5)),0)</f>
+        <v>190</v>
+      </c>
+      <c r="N92">
+        <f>ROUND((($B$1/100)*$F92*(N$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(N$2/5)),0)</f>
+        <v>201</v>
+      </c>
+      <c r="O92">
+        <f>ROUND((($B$1/100)*$F92*(O$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(O$2/5)),0)</f>
+        <v>210</v>
+      </c>
+      <c r="P92">
+        <f>ROUND((($B$1/100)*$F92*(P$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(P$2/5)),0)</f>
+        <v>219</v>
+      </c>
+      <c r="Q92">
+        <f>ROUND((($B$1/100)*$F92*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(Q$2/5)),0)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <f>ROUND((($B$1/100)*$F93*(G$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(G$2/5)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="H93">
+        <f>ROUND((($B$1/100)*$F93*(H$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(H$2/5)),0)</f>
+        <v>85</v>
+      </c>
+      <c r="I93">
+        <f>ROUND((($B$1/100)*$F93*(I$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(I$2/5)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="J93">
+        <f>ROUND((($B$1/100)*$F93*(J$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(J$2/5)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="K93">
+        <f>ROUND((($B$1/100)*$F93*(K$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(K$2/5)),0)</f>
+        <v>164</v>
+      </c>
+      <c r="L93">
+        <f>ROUND((($B$1/100)*$F93*(L$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(L$2/5)),0)</f>
+        <v>180</v>
+      </c>
+      <c r="M93">
+        <f>ROUND((($B$1/100)*$F93*(M$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(M$2/5)),0)</f>
+        <v>193</v>
+      </c>
+      <c r="N93">
+        <f>ROUND((($B$1/100)*$F93*(N$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(N$2/5)),0)</f>
+        <v>204</v>
+      </c>
+      <c r="O93">
+        <f>ROUND((($B$1/100)*$F93*(O$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(O$2/5)),0)</f>
+        <v>213</v>
+      </c>
+      <c r="P93">
+        <f>ROUND((($B$1/100)*$F93*(P$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(P$2/5)),0)</f>
+        <v>222</v>
+      </c>
+      <c r="Q93">
+        <f>ROUND((($B$1/100)*$F93*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(Q$2/5)),0)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <f>ROUND((($B$1/100)*$F94*(G$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(G$2/5)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="H94">
+        <f>ROUND((($B$1/100)*$F94*(H$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(H$2/5)),0)</f>
+        <v>86</v>
+      </c>
+      <c r="I94">
+        <f>ROUND((($B$1/100)*$F94*(I$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(I$2/5)),0)</f>
+        <v>116</v>
+      </c>
+      <c r="J94">
+        <f>ROUND((($B$1/100)*$F94*(J$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(J$2/5)),0)</f>
+        <v>145</v>
+      </c>
+      <c r="K94">
+        <f>ROUND((($B$1/100)*$F94*(K$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(K$2/5)),0)</f>
+        <v>166</v>
+      </c>
+      <c r="L94">
+        <f>ROUND((($B$1/100)*$F94*(L$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(L$2/5)),0)</f>
+        <v>182</v>
+      </c>
+      <c r="M94">
+        <f>ROUND((($B$1/100)*$F94*(M$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(M$2/5)),0)</f>
+        <v>195</v>
+      </c>
+      <c r="N94">
+        <f>ROUND((($B$1/100)*$F94*(N$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(N$2/5)),0)</f>
+        <v>206</v>
+      </c>
+      <c r="O94">
+        <f>ROUND((($B$1/100)*$F94*(O$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(O$2/5)),0)</f>
+        <v>216</v>
+      </c>
+      <c r="P94">
+        <f>ROUND((($B$1/100)*$F94*(P$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(P$2/5)),0)</f>
+        <v>224</v>
+      </c>
+      <c r="Q94">
+        <f>ROUND((($B$1/100)*$F94*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(Q$2/5)),0)</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>92</v>
+      </c>
+      <c r="G95">
+        <f>ROUND((($B$1/100)*$F95*(G$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(G$2/5)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="H95">
+        <f>ROUND((($B$1/100)*$F95*(H$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(H$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="I95">
+        <f>ROUND((($B$1/100)*$F95*(I$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(I$2/5)),0)</f>
+        <v>117</v>
+      </c>
+      <c r="J95">
+        <f>ROUND((($B$1/100)*$F95*(J$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(J$2/5)),0)</f>
+        <v>146</v>
+      </c>
+      <c r="K95">
+        <f>ROUND((($B$1/100)*$F95*(K$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(K$2/5)),0)</f>
+        <v>168</v>
+      </c>
+      <c r="L95">
+        <f>ROUND((($B$1/100)*$F95*(L$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(L$2/5)),0)</f>
+        <v>183</v>
+      </c>
+      <c r="M95">
+        <f>ROUND((($B$1/100)*$F95*(M$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(M$2/5)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="N95">
+        <f>ROUND((($B$1/100)*$F95*(N$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(N$2/5)),0)</f>
+        <v>208</v>
+      </c>
+      <c r="O95">
+        <f>ROUND((($B$1/100)*$F95*(O$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(O$2/5)),0)</f>
+        <v>218</v>
+      </c>
+      <c r="P95">
+        <f>ROUND((($B$1/100)*$F95*(P$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(P$2/5)),0)</f>
+        <v>227</v>
+      </c>
+      <c r="Q95">
+        <f>ROUND((($B$1/100)*$F95*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(Q$2/5)),0)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>93</v>
+      </c>
+      <c r="G96">
+        <f>ROUND((($B$1/100)*$F96*(G$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(G$2/5)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="H96">
+        <f>ROUND((($B$1/100)*$F96*(H$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(H$2/5)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="I96">
+        <f>ROUND((($B$1/100)*$F96*(I$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(I$2/5)),0)</f>
+        <v>118</v>
+      </c>
+      <c r="J96">
+        <f>ROUND((($B$1/100)*$F96*(J$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(J$2/5)),0)</f>
+        <v>147</v>
+      </c>
+      <c r="K96">
+        <f>ROUND((($B$1/100)*$F96*(K$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(K$2/5)),0)</f>
+        <v>169</v>
+      </c>
+      <c r="L96">
+        <f>ROUND((($B$1/100)*$F96*(L$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(L$2/5)),0)</f>
+        <v>185</v>
+      </c>
+      <c r="M96">
+        <f>ROUND((($B$1/100)*$F96*(M$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(M$2/5)),0)</f>
+        <v>199</v>
+      </c>
+      <c r="N96">
+        <f>ROUND((($B$1/100)*$F96*(N$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(N$2/5)),0)</f>
+        <v>210</v>
+      </c>
+      <c r="O96">
+        <f>ROUND((($B$1/100)*$F96*(O$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(O$2/5)),0)</f>
+        <v>220</v>
+      </c>
+      <c r="P96">
+        <f>ROUND((($B$1/100)*$F96*(P$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(P$2/5)),0)</f>
+        <v>229</v>
+      </c>
+      <c r="Q96">
+        <f>ROUND((($B$1/100)*$F96*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(Q$2/5)),0)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>94</v>
+      </c>
+      <c r="G97">
+        <f>ROUND((($B$1/100)*$F97*(G$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(G$2/5)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="H97">
+        <f>ROUND((($B$1/100)*$F97*(H$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(H$2/5)),0)</f>
+        <v>88</v>
+      </c>
+      <c r="I97">
+        <f>ROUND((($B$1/100)*$F97*(I$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(I$2/5)),0)</f>
+        <v>119</v>
+      </c>
+      <c r="J97">
+        <f>ROUND((($B$1/100)*$F97*(J$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(J$2/5)),0)</f>
+        <v>149</v>
+      </c>
+      <c r="K97">
+        <f>ROUND((($B$1/100)*$F97*(K$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(K$2/5)),0)</f>
+        <v>171</v>
+      </c>
+      <c r="L97">
+        <f>ROUND((($B$1/100)*$F97*(L$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(L$2/5)),0)</f>
+        <v>187</v>
+      </c>
+      <c r="M97">
+        <f>ROUND((($B$1/100)*$F97*(M$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(M$2/5)),0)</f>
+        <v>201</v>
+      </c>
+      <c r="N97">
+        <f>ROUND((($B$1/100)*$F97*(N$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(N$2/5)),0)</f>
+        <v>212</v>
+      </c>
+      <c r="O97">
+        <f>ROUND((($B$1/100)*$F97*(O$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(O$2/5)),0)</f>
+        <v>222</v>
+      </c>
+      <c r="P97">
+        <f>ROUND((($B$1/100)*$F97*(P$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(P$2/5)),0)</f>
+        <v>231</v>
+      </c>
+      <c r="Q97">
+        <f>ROUND((($B$1/100)*$F97*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(Q$2/5)),0)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>95</v>
+      </c>
+      <c r="G98">
+        <f>ROUND((($B$1/100)*$F98*(G$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(G$2/5)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="H98">
+        <f>ROUND((($B$1/100)*$F98*(H$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(H$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I98">
+        <f>ROUND((($B$1/100)*$F98*(I$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(I$2/5)),0)</f>
+        <v>121</v>
+      </c>
+      <c r="J98">
+        <f>ROUND((($B$1/100)*$F98*(J$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(J$2/5)),0)</f>
+        <v>151</v>
+      </c>
+      <c r="K98">
+        <f>ROUND((($B$1/100)*$F98*(K$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(K$2/5)),0)</f>
+        <v>173</v>
+      </c>
+      <c r="L98">
+        <f>ROUND((($B$1/100)*$F98*(L$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(L$2/5)),0)</f>
+        <v>190</v>
+      </c>
+      <c r="M98">
+        <f>ROUND((($B$1/100)*$F98*(M$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(M$2/5)),0)</f>
+        <v>204</v>
+      </c>
+      <c r="N98">
+        <f>ROUND((($B$1/100)*$F98*(N$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(N$2/5)),0)</f>
+        <v>216</v>
+      </c>
+      <c r="O98">
+        <f>ROUND((($B$1/100)*$F98*(O$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(O$2/5)),0)</f>
+        <v>225</v>
+      </c>
+      <c r="P98">
+        <f>ROUND((($B$1/100)*$F98*(P$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(P$2/5)),0)</f>
+        <v>234</v>
+      </c>
+      <c r="Q98">
+        <f>ROUND((($B$1/100)*$F98*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(Q$2/5)),0)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>96</v>
+      </c>
+      <c r="G99">
+        <f>ROUND((($B$1/100)*$F99*(G$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(G$2/5)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="H99">
+        <f>ROUND((($B$1/100)*$F99*(H$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(H$2/5)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I99">
+        <f>ROUND((($B$1/100)*$F99*(I$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(I$2/5)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="J99">
+        <f>ROUND((($B$1/100)*$F99*(J$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(J$2/5)),0)</f>
+        <v>153</v>
+      </c>
+      <c r="K99">
+        <f>ROUND((($B$1/100)*$F99*(K$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(K$2/5)),0)</f>
+        <v>175</v>
+      </c>
+      <c r="L99">
+        <f>ROUND((($B$1/100)*$F99*(L$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(L$2/5)),0)</f>
+        <v>192</v>
+      </c>
+      <c r="M99">
+        <f>ROUND((($B$1/100)*$F99*(M$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(M$2/5)),0)</f>
+        <v>206</v>
+      </c>
+      <c r="N99">
+        <f>ROUND((($B$1/100)*$F99*(N$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(N$2/5)),0)</f>
+        <v>218</v>
+      </c>
+      <c r="O99">
+        <f>ROUND((($B$1/100)*$F99*(O$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(O$2/5)),0)</f>
+        <v>227</v>
+      </c>
+      <c r="P99">
+        <f>ROUND((($B$1/100)*$F99*(P$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(P$2/5)),0)</f>
+        <v>237</v>
+      </c>
+      <c r="Q99">
+        <f>ROUND((($B$1/100)*$F99*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(Q$2/5)),0)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>97</v>
+      </c>
+      <c r="G100">
+        <f>ROUND((($B$1/100)*$F100*(G$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(G$2/5)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="H100">
+        <f>ROUND((($B$1/100)*$F100*(H$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(H$2/5)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="I100">
+        <f>ROUND((($B$1/100)*$F100*(I$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(I$2/5)),0)</f>
+        <v>123</v>
+      </c>
+      <c r="J100">
+        <f>ROUND((($B$1/100)*$F100*(J$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(J$2/5)),0)</f>
+        <v>154</v>
+      </c>
+      <c r="K100">
+        <f>ROUND((($B$1/100)*$F100*(K$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(K$2/5)),0)</f>
+        <v>177</v>
+      </c>
+      <c r="L100">
+        <f>ROUND((($B$1/100)*$F100*(L$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(L$2/5)),0)</f>
+        <v>193</v>
+      </c>
+      <c r="M100">
+        <f>ROUND((($B$1/100)*$F100*(M$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(M$2/5)),0)</f>
+        <v>208</v>
+      </c>
+      <c r="N100">
+        <f>ROUND((($B$1/100)*$F100*(N$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(N$2/5)),0)</f>
+        <v>220</v>
+      </c>
+      <c r="O100">
+        <f>ROUND((($B$1/100)*$F100*(O$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(O$2/5)),0)</f>
+        <v>229</v>
+      </c>
+      <c r="P100">
+        <f>ROUND((($B$1/100)*$F100*(P$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(P$2/5)),0)</f>
+        <v>239</v>
+      </c>
+      <c r="Q100">
+        <f>ROUND((($B$1/100)*$F100*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(Q$2/5)),0)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>98</v>
+      </c>
+      <c r="G101">
+        <f>ROUND((($B$1/100)*$F101*(G$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(G$2/5)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <f>ROUND((($B$1/100)*$F101*(H$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(H$2/5)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="I101">
+        <f>ROUND((($B$1/100)*$F101*(I$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(I$2/5)),0)</f>
+        <v>125</v>
+      </c>
+      <c r="J101">
+        <f>ROUND((($B$1/100)*$F101*(J$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(J$2/5)),0)</f>
+        <v>155</v>
+      </c>
+      <c r="K101">
+        <f>ROUND((($B$1/100)*$F101*(K$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(K$2/5)),0)</f>
+        <v>178</v>
+      </c>
+      <c r="L101">
+        <f>ROUND((($B$1/100)*$F101*(L$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(L$2/5)),0)</f>
+        <v>195</v>
+      </c>
+      <c r="M101">
+        <f>ROUND((($B$1/100)*$F101*(M$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(M$2/5)),0)</f>
+        <v>210</v>
+      </c>
+      <c r="N101">
+        <f>ROUND((($B$1/100)*$F101*(N$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(N$2/5)),0)</f>
+        <v>222</v>
+      </c>
+      <c r="O101">
+        <f>ROUND((($B$1/100)*$F101*(O$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(O$2/5)),0)</f>
+        <v>232</v>
+      </c>
+      <c r="P101">
+        <f>ROUND((($B$1/100)*$F101*(P$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(P$2/5)),0)</f>
+        <v>241</v>
+      </c>
+      <c r="Q101">
+        <f>ROUND((($B$1/100)*$F101*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(Q$2/5)),0)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>99</v>
+      </c>
+      <c r="G102">
+        <f>ROUND((($B$1/100)*$F102*(G$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(G$2/5)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <f>ROUND((($B$1/100)*$F102*(H$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(H$2/5)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="I102">
+        <f>ROUND((($B$1/100)*$F102*(I$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(I$2/5)),0)</f>
+        <v>126</v>
+      </c>
+      <c r="J102">
+        <f>ROUND((($B$1/100)*$F102*(J$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(J$2/5)),0)</f>
+        <v>157</v>
+      </c>
+      <c r="K102">
+        <f>ROUND((($B$1/100)*$F102*(K$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(K$2/5)),0)</f>
+        <v>180</v>
+      </c>
+      <c r="L102">
+        <f>ROUND((($B$1/100)*$F102*(L$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(L$2/5)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="M102">
+        <f>ROUND((($B$1/100)*$F102*(M$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(M$2/5)),0)</f>
+        <v>212</v>
+      </c>
+      <c r="N102">
+        <f>ROUND((($B$1/100)*$F102*(N$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(N$2/5)),0)</f>
+        <v>224</v>
+      </c>
+      <c r="O102">
+        <f>ROUND((($B$1/100)*$F102*(O$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(O$2/5)),0)</f>
+        <v>234</v>
+      </c>
+      <c r="P102">
+        <f>ROUND((($B$1/100)*$F102*(P$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(P$2/5)),0)</f>
+        <v>243</v>
+      </c>
+      <c r="Q102">
+        <f>ROUND((($B$1/100)*$F102*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(Q$2/5)),0)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <f>ROUND((($B$1/100)*$F103*(G$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(G$2/5)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="H103">
+        <f>ROUND((($B$1/100)*$F103*(H$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(H$2/5)),0)</f>
+        <v>94</v>
+      </c>
+      <c r="I103">
+        <f>ROUND((($B$1/100)*$F103*(I$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(I$2/5)),0)</f>
         <v>128</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
+      <c r="J103">
+        <f>ROUND((($B$1/100)*$F103*(J$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(J$2/5)),0)</f>
         <v>159</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
+      <c r="K103">
+        <f>ROUND((($B$1/100)*$F103*(K$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(K$2/5)),0)</f>
         <v>183</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
+      <c r="L103">
+        <f>ROUND((($B$1/100)*$F103*(L$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(L$2/5)),0)</f>
         <v>200</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
+      <c r="M103">
+        <f>ROUND((($B$1/100)*$F103*(M$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(M$2/5)),0)</f>
         <v>215</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
+      <c r="N103">
+        <f>ROUND((($B$1/100)*$F103*(N$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(N$2/5)),0)</f>
         <v>227</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
+      <c r="O103">
+        <f>ROUND((($B$1/100)*$F103*(O$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(O$2/5)),0)</f>
         <v>237</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="1"/>
+      <c r="P103">
+        <f>ROUND((($B$1/100)*$F103*(P$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(P$2/5)),0)</f>
         <v>247</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="1"/>
+      <c r="Q103">
+        <f>ROUND((($B$1/100)*$F103*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(Q$2/5)),0)</f>
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="G39" t="e">
-        <f>3.576*LOG(G$2)+2.5</f>
+    <row r="113" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G113" t="e">
+        <f>3.576*LOG(G$3)+2.5</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39:Q39" si="3">3.576*LOG(H$2)+2.5</f>
+      <c r="H113">
+        <f>3.576*LOG(H$3)+2.5</f>
         <v>1.4235167355056033</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
+      <c r="I113">
+        <f>3.576*LOG(I$3)+2.5</f>
         <v>2.5</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
+      <c r="J113">
+        <f>3.576*LOG(J$3)+2.5</f>
         <v>3.1297023423831161</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="3"/>
+      <c r="K113">
+        <f>3.576*LOG(K$3)+2.5</f>
         <v>3.5764832644943967</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
+      <c r="L113">
+        <f>3.576*LOG(L$3)+2.5</f>
         <v>3.9230334710112063</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="3"/>
+      <c r="M113">
+        <f>3.576*LOG(M$3)+2.5</f>
         <v>4.2061856068775132</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="3"/>
+      <c r="N113">
+        <f>3.576*LOG(N$3)+2.5</f>
         <v>4.445587326596586</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="3"/>
+      <c r="O113">
+        <f>3.576*LOG(O$3)+2.5</f>
         <v>4.6529665289887934</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
+      <c r="P113">
+        <f>3.576*LOG(P$3)+2.5</f>
         <v>4.8358879492606288</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="3"/>
+      <c r="Q113">
+        <f>3.576*LOG(Q$3)+2.5</f>
         <v>4.9995167355056029</v>
       </c>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="G40">
+    <row r="114" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G114">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="H114">
         <v>1.42</v>
       </c>
-      <c r="I40">
+      <c r="I114">
         <v>2.5</v>
       </c>
-      <c r="J40">
+      <c r="J114">
         <v>3.12</v>
       </c>
-      <c r="K40">
+      <c r="K114">
         <v>3.58</v>
       </c>
-      <c r="L40">
+      <c r="L114">
         <v>3.92</v>
       </c>
-      <c r="M40">
+      <c r="M114">
         <v>4.21</v>
       </c>
-      <c r="N40">
+      <c r="N114">
         <v>4.45</v>
       </c>
-      <c r="O40">
+      <c r="O114">
         <v>4.6500000000000004</v>
       </c>
-      <c r="P40">
+      <c r="P114">
         <v>4.84</v>
       </c>
-      <c r="Q40">
+      <c r="Q114">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G4:Q34">
+  <conditionalFormatting sqref="G4:Q103">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9940,27 +13393,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1003504F-087A-4F5F-8D46-DC05F28FB8F0}">
   <dimension ref="D3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -9978,7 +13431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -9996,7 +13449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -10014,7 +13467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +13485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -10050,7 +13503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>38</v>
       </c>
@@ -10068,7 +13521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -10086,7 +13539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -10104,7 +13557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -10122,7 +13575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -10140,7 +13593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>26</v>
       </c>
@@ -10158,27 +13611,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
@@ -10195,7 +13648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
@@ -10215,7 +13668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10235,28 +13688,338 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G5:G15 H10">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5234A45-9045-4438-9498-5D3A4A622F57}">
+  <dimension ref="D3:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>E5&amp;F5</f>
+        <v>DefenseAccuracy</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" ref="G6:G15" si="0">E6&amp;F6</f>
+        <v>OffenseSocial</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseMagical</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseAccuracy</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseStatus</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OffenseStatus</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseSocial</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OffensePhysical</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DefensePhysical</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DefenseMagical</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP(D37,'Stat Progression &amp; Growth Rates'!F4:Q103,MATCH(E37,'Stat Progression &amp; Growth Rates'!F3:Q3,0))</f>
+        <v>94</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>(29+((D37/1.5)*(F37/1.5)))*(1+G37)</f>
+        <v>4206.7777777777783</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G5 H10 G9:H9 G8 G6:H7 G10:G15">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10264,7 +14027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EB0E4-D9D7-4D2E-96C4-1C88BE71FF97}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -10272,13 +14035,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -10292,7 +14055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10306,7 +14069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -10320,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -10334,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10348,7 +14111,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -10362,7 +14125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -10376,7 +14139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -10390,7 +14153,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -10404,7 +14167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10418,7 +14181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -10432,7 +14195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -10446,7 +14209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>

--- a/design documents/jRPG balance scratchsheet.xlsx
+++ b/design documents/jRPG balance scratchsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\jRPG-Attempt\design documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB6F1A-1F58-4125-8B06-ACE6831BD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16A535-4ECC-4E30-92CD-22244D912A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" state="hidden" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
     <t xml:space="preserve">LOG of </t>
   </si>
@@ -226,9 +226,6 @@
     <t>Effect, Causing</t>
   </si>
   <si>
-    <t>So let's play with HP.</t>
-  </si>
-  <si>
     <t>It involves your Level, your Vitality, and maybe Passives from the Archetypes.</t>
   </si>
   <si>
@@ -243,12 +240,61 @@
   <si>
     <t>Stat for Level</t>
   </si>
+  <si>
+    <t>ORIG MATH NUMBERS</t>
+  </si>
+  <si>
+    <t>(Change from Higher Math)</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>And let's play with MP.</t>
+  </si>
+  <si>
+    <t>It involves your Level, your Willpower, and maybe Passives from the Archetypes.</t>
+  </si>
+  <si>
+    <t>Total MP</t>
+  </si>
+  <si>
+    <t>And that's how many…</t>
+  </si>
+  <si>
+    <t>…MP spells</t>
+  </si>
+  <si>
+    <t>Level Power</t>
+  </si>
+  <si>
+    <t>Stat Power</t>
+  </si>
+  <si>
+    <t>Level Multiplier</t>
+  </si>
+  <si>
+    <t>Stat Multiplier</t>
+  </si>
+  <si>
+    <t>damage hits.</t>
+  </si>
+  <si>
+    <t>Let's play with HP.</t>
+  </si>
+  <si>
+    <t>White Mage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +318,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +346,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -315,19 +405,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -369,13 +524,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowCount="1">
-  <autoFilter ref="A1:D12" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowCount="1">
+  <autoFilter ref="A1:E6" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{486137BA-44D5-40FB-89BE-88D888F85C59}" name="ARCHETYPE" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3C66E523-A125-4DFA-AFF7-0FDFA1E549B3}" name="Barbarian" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{28418343-CB19-4C77-A015-C8A25697DBB5}" name="Fighter" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{65BE661D-3CBD-4918-9156-F6B9DE1C8EB9}" name="Black Mage" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{5379A794-E875-4A4D-8C1F-59547D6CD2E9}" name="White Mage" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8268,8 +8424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230097ED-BEB9-4A73-B915-440E74A5CD6B}">
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:Q103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8281,6 +8437,49 @@
       <c r="B1">
         <v>225</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:O1" si="0">H2-G2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000053</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="P1">
+        <f>Q2-P2</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8293,34 +8492,34 @@
         <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H2" s="3">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="I2" s="3">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="J2" s="3">
-        <v>3.12</v>
+        <v>2.25</v>
       </c>
       <c r="K2" s="3">
-        <v>3.58</v>
+        <v>2.75</v>
       </c>
       <c r="L2" s="3">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="M2" s="3">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="N2" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O2" s="3">
         <v>4.45</v>
       </c>
-      <c r="O2" s="3">
-        <v>4.6500000000000004</v>
-      </c>
       <c r="P2" s="3">
-        <v>4.84</v>
+        <v>4.75</v>
       </c>
       <c r="Q2" s="3">
         <v>5</v>
@@ -8372,47 +8571,47 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>ROUND((($B$1/100)*$F4*(G$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(G$2/5)),0)</f>
+        <f t="shared" ref="G4:Q13" si="1">ROUND((($B$1/100)*$F4*(G$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(G$2/5)),0)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>ROUND((($B$1/100)*$F4*(H$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f>ROUND((($B$1/100)*$F4*(I$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(I$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f>ROUND((($B$1/100)*$F4*(J$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(J$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K4">
-        <f>ROUND((($B$1/100)*$F4*(K$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(K$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L4">
-        <f>ROUND((($B$1/100)*$F4*(L$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(L$2/5)),0)</f>
+      <c r="N4">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M4">
-        <f>ROUND((($B$1/100)*$F4*(M$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(M$2/5)),0)</f>
+      <c r="O4">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N4">
-        <f>ROUND((($B$1/100)*$F4*(N$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(N$2/5)),0)</f>
+      <c r="P4">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O4">
-        <f>ROUND((($B$1/100)*$F4*(O$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(O$2/5)),0)</f>
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <f>ROUND((($B$1/100)*$F4*(P$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(P$2/5)),0)</f>
-        <v>2</v>
-      </c>
       <c r="Q4">
-        <f>ROUND((($B$1/100)*$F4*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F4/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U4" t="s">
@@ -8424,47 +8623,47 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>ROUND((($B$1/100)*$F5*(G$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(G$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>ROUND((($B$1/100)*$F5*(H$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I5">
-        <f>ROUND((($B$1/100)*$F5*(I$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(I$2/5)),0)</f>
+      <c r="J5">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J5">
-        <f>ROUND((($B$1/100)*$F5*(J$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(J$2/5)),0)</f>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K5">
-        <f>ROUND((($B$1/100)*$F5*(K$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(K$2/5)),0)</f>
+      <c r="M5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L5">
-        <f>ROUND((($B$1/100)*$F5*(L$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(L$2/5)),0)</f>
+      <c r="N5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M5">
-        <f>ROUND((($B$1/100)*$F5*(M$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(M$2/5)),0)</f>
+      <c r="O5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N5">
-        <f>ROUND((($B$1/100)*$F5*(N$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(N$2/5)),0)</f>
+      <c r="P5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O5">
-        <f>ROUND((($B$1/100)*$F5*(O$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(O$2/5)),0)</f>
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <f>ROUND((($B$1/100)*$F5*(P$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(P$2/5)),0)</f>
-        <v>4</v>
-      </c>
       <c r="Q5">
-        <f>ROUND((($B$1/100)*$F5*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F5/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="U5" t="s">
@@ -8476,47 +8675,47 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <f>ROUND((($B$1/100)*$F6*(G$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(G$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>ROUND((($B$1/100)*$F6*(H$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I6">
-        <f>ROUND((($B$1/100)*$F6*(I$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(I$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6">
-        <f>ROUND((($B$1/100)*$F6*(J$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(J$2/5)),0)</f>
+      <c r="K6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6">
-        <f>ROUND((($B$1/100)*$F6*(K$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(K$2/5)),0)</f>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L6">
-        <f>ROUND((($B$1/100)*$F6*(L$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(L$2/5)),0)</f>
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <f>ROUND((($B$1/100)*$F6*(M$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(M$2/5)),0)</f>
+      <c r="N6">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N6">
-        <f>ROUND((($B$1/100)*$F6*(N$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(N$2/5)),0)</f>
+      <c r="O6">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O6">
-        <f>ROUND((($B$1/100)*$F6*(O$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(O$2/5)),0)</f>
+      <c r="P6">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P6">
-        <f>ROUND((($B$1/100)*$F6*(P$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(P$2/5)),0)</f>
-        <v>7</v>
-      </c>
       <c r="Q6">
-        <f>ROUND((($B$1/100)*$F6*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F6/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -8525,47 +8724,47 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f>ROUND((($B$1/100)*$F7*(G$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(G$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H7">
-        <f>ROUND((($B$1/100)*$F7*(H$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(H$2/5)),0)</f>
+      <c r="I7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I7">
-        <f>ROUND((($B$1/100)*$F7*(I$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(I$2/5)),0)</f>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J7">
-        <f>ROUND((($B$1/100)*$F7*(J$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(J$2/5)),0)</f>
+      <c r="L7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K7">
-        <f>ROUND((($B$1/100)*$F7*(K$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(K$2/5)),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <f>ROUND((($B$1/100)*$F7*(L$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(L$2/5)),0)</f>
+      <c r="M7">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M7">
-        <f>ROUND((($B$1/100)*$F7*(M$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(M$2/5)),0)</f>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N7">
-        <f>ROUND((($B$1/100)*$F7*(N$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(N$2/5)),0)</f>
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <f>ROUND((($B$1/100)*$F7*(O$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(O$2/5)),0)</f>
-        <v>8</v>
-      </c>
       <c r="P7">
-        <f>ROUND((($B$1/100)*$F7*(P$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q7">
-        <f>ROUND((($B$1/100)*$F7*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F7/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U7" t="s">
@@ -8577,47 +8776,47 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <f>ROUND((($B$1/100)*$F8*(G$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(G$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H8">
-        <f>ROUND((($B$1/100)*$F8*(H$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(H$2/5)),0)</f>
-        <v>5</v>
-      </c>
       <c r="I8">
-        <f>ROUND((($B$1/100)*$F8*(I$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(I$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J8">
-        <f>ROUND((($B$1/100)*$F8*(J$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(J$2/5)),0)</f>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K8">
-        <f>ROUND((($B$1/100)*$F8*(K$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(K$2/5)),0)</f>
+      <c r="M8">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L8">
-        <f>ROUND((($B$1/100)*$F8*(L$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(L$2/5)),0)</f>
+      <c r="N8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M8">
-        <f>ROUND((($B$1/100)*$F8*(M$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(M$2/5)),0)</f>
+      <c r="O8">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N8">
-        <f>ROUND((($B$1/100)*$F8*(N$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(N$2/5)),0)</f>
-        <v>11</v>
-      </c>
-      <c r="O8">
-        <f>ROUND((($B$1/100)*$F8*(O$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(O$2/5)),0)</f>
+      <c r="P8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P8">
-        <f>ROUND((($B$1/100)*$F8*(P$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(P$2/5)),0)</f>
-        <v>12</v>
-      </c>
       <c r="Q8">
-        <f>ROUND((($B$1/100)*$F8*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F8/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="U8" t="s">
@@ -8629,47 +8828,47 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <f>ROUND((($B$1/100)*$F9*(G$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(G$2/5)),0)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H9">
-        <f>ROUND((($B$1/100)*$F9*(H$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(H$2/5)),0)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I9">
-        <f>ROUND((($B$1/100)*$F9*(I$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(I$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J9">
-        <f>ROUND((($B$1/100)*$F9*(J$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(J$2/5)),0)</f>
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <f>ROUND((($B$1/100)*$F9*(K$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(K$2/5)),0)</f>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L9">
-        <f>ROUND((($B$1/100)*$F9*(L$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(L$2/5)),0)</f>
+      <c r="N9">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="M9">
-        <f>ROUND((($B$1/100)*$F9*(M$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(M$2/5)),0)</f>
+      <c r="O9">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N9">
-        <f>ROUND((($B$1/100)*$F9*(N$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(N$2/5)),0)</f>
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <f>ROUND((($B$1/100)*$F9*(O$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(O$2/5)),0)</f>
+      <c r="P9">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P9">
-        <f>ROUND((($B$1/100)*$F9*(P$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(P$2/5)),0)</f>
-        <v>15</v>
-      </c>
       <c r="Q9">
-        <f>ROUND((($B$1/100)*$F9*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F9/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="U9" t="s">
@@ -8681,47 +8880,47 @@
         <v>7</v>
       </c>
       <c r="G10">
-        <f>ROUND((($B$1/100)*$F10*(G$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(G$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H10">
-        <f>ROUND((($B$1/100)*$F10*(H$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I10">
-        <f>ROUND((($B$1/100)*$F10*(I$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(I$2/5)),0)</f>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J10">
-        <f>ROUND((($B$1/100)*$F10*(J$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(J$2/5)),0)</f>
+      <c r="L10">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K10">
-        <f>ROUND((($B$1/100)*$F10*(K$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(K$2/5)),0)</f>
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <f>ROUND((($B$1/100)*$F10*(L$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(L$2/5)),0)</f>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M10">
-        <f>ROUND((($B$1/100)*$F10*(M$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(M$2/5)),0)</f>
+      <c r="O10">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N10">
-        <f>ROUND((($B$1/100)*$F10*(N$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(N$2/5)),0)</f>
-        <v>15</v>
-      </c>
-      <c r="O10">
-        <f>ROUND((($B$1/100)*$F10*(O$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(O$2/5)),0)</f>
+      <c r="P10">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P10">
-        <f>ROUND((($B$1/100)*$F10*(P$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(P$2/5)),0)</f>
-        <v>17</v>
-      </c>
       <c r="Q10">
-        <f>ROUND((($B$1/100)*$F10*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F10/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="U10" t="s">
@@ -8733,47 +8932,47 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <f>ROUND((($B$1/100)*$F11*(G$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(G$2/5)),0)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H11">
-        <f>ROUND((($B$1/100)*$F11*(H$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I11">
-        <f>ROUND((($B$1/100)*$F11*(I$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(I$2/5)),0)</f>
-        <v>10</v>
-      </c>
       <c r="J11">
-        <f>ROUND((($B$1/100)*$F11*(J$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(J$2/5)),0)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K11">
-        <f>ROUND((($B$1/100)*$F11*(K$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(K$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L11">
-        <f>ROUND((($B$1/100)*$F11*(L$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(L$2/5)),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <f>ROUND((($B$1/100)*$F11*(M$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(M$2/5)),0)</f>
+      <c r="N11">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N11">
-        <f>ROUND((($B$1/100)*$F11*(N$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(N$2/5)),0)</f>
+      <c r="O11">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O11">
-        <f>ROUND((($B$1/100)*$F11*(O$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(O$2/5)),0)</f>
-        <v>18</v>
-      </c>
       <c r="P11">
-        <f>ROUND((($B$1/100)*$F11*(P$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Q11">
-        <f>ROUND((($B$1/100)*$F11*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F11/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="U11" t="s">
@@ -8785,47 +8984,47 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <f>ROUND((($B$1/100)*$F12*(G$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(G$2/5)),0)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H12">
-        <f>ROUND((($B$1/100)*$F12*(H$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I12">
-        <f>ROUND((($B$1/100)*$F12*(I$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(I$2/5)),0)</f>
-        <v>11</v>
-      </c>
       <c r="J12">
-        <f>ROUND((($B$1/100)*$F12*(J$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(J$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K12">
-        <f>ROUND((($B$1/100)*$F12*(K$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(K$2/5)),0)</f>
+      <c r="M12">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L12">
-        <f>ROUND((($B$1/100)*$F12*(L$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(L$2/5)),0)</f>
-        <v>17</v>
-      </c>
-      <c r="M12">
-        <f>ROUND((($B$1/100)*$F12*(M$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(M$2/5)),0)</f>
+      <c r="N12">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N12">
-        <f>ROUND((($B$1/100)*$F12*(N$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(N$2/5)),0)</f>
+      <c r="O12">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="O12">
-        <f>ROUND((($B$1/100)*$F12*(O$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(O$2/5)),0)</f>
-        <v>20</v>
-      </c>
       <c r="P12">
-        <f>ROUND((($B$1/100)*$F12*(P$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="Q12">
-        <f>ROUND((($B$1/100)*$F12*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F12/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="U12" t="s">
@@ -8837,47 +9036,47 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <f>ROUND((($B$1/100)*$F13*(G$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(G$2/5)),0)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H13">
-        <f>ROUND((($B$1/100)*$F13*(H$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I13">
-        <f>ROUND((($B$1/100)*$F13*(I$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(I$2/5)),0)</f>
-        <v>13</v>
-      </c>
       <c r="J13">
-        <f>ROUND((($B$1/100)*$F13*(J$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(J$2/5)),0)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="K13">
-        <f>ROUND((($B$1/100)*$F13*(K$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(K$2/5)),0)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="L13">
-        <f>ROUND((($B$1/100)*$F13*(L$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(L$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="M13">
-        <f>ROUND((($B$1/100)*$F13*(M$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(M$2/5)),0)</f>
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="N13">
-        <f>ROUND((($B$1/100)*$F13*(N$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(N$2/5)),0)</f>
+      <c r="O13">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="O13">
-        <f>ROUND((($B$1/100)*$F13*(O$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(O$2/5)),0)</f>
+      <c r="P13">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="P13">
-        <f>ROUND((($B$1/100)*$F13*(P$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(P$2/5)),0)</f>
-        <v>25</v>
-      </c>
       <c r="Q13">
-        <f>ROUND((($B$1/100)*$F13*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F13/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -8886,47 +9085,47 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <f>ROUND((($B$1/100)*$F14*(G$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(G$2/5)),0)</f>
-        <v>6</v>
+        <f t="shared" ref="G14:Q23" si="2">ROUND((($B$1/100)*$F14*(G$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(G$2/5)),0)</f>
+        <v>4</v>
       </c>
       <c r="H14">
-        <f>ROUND((($B$1/100)*$F14*(H$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I14">
-        <f>ROUND((($B$1/100)*$F14*(I$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(I$2/5)),0)</f>
-        <v>14</v>
-      </c>
       <c r="J14">
-        <f>ROUND((($B$1/100)*$F14*(J$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(J$2/5)),0)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="K14">
-        <f>ROUND((($B$1/100)*$F14*(K$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(K$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="L14">
-        <f>ROUND((($B$1/100)*$F14*(L$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(L$2/5)),0)</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="M14">
-        <f>ROUND((($B$1/100)*$F14*(M$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(M$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N14">
-        <f>ROUND((($B$1/100)*$F14*(N$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(N$2/5)),0)</f>
+      <c r="O14">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O14">
-        <f>ROUND((($B$1/100)*$F14*(O$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(O$2/5)),0)</f>
+      <c r="P14">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="P14">
-        <f>ROUND((($B$1/100)*$F14*(P$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(P$2/5)),0)</f>
-        <v>27</v>
-      </c>
       <c r="Q14">
-        <f>ROUND((($B$1/100)*$F14*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F14/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -8935,47 +9134,47 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <f>ROUND((($B$1/100)*$F15*(G$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(G$2/5)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="H15">
-        <f>ROUND((($B$1/100)*$F15*(H$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I15">
-        <f>ROUND((($B$1/100)*$F15*(I$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(I$2/5)),0)</f>
-        <v>15</v>
-      </c>
       <c r="J15">
-        <f>ROUND((($B$1/100)*$F15*(J$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(J$2/5)),0)</f>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="K15">
-        <f>ROUND((($B$1/100)*$F15*(K$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(K$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="L15">
-        <f>ROUND((($B$1/100)*$F15*(L$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(L$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M15">
-        <f>ROUND((($B$1/100)*$F15*(M$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(M$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N15">
-        <f>ROUND((($B$1/100)*$F15*(N$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(N$2/5)),0)</f>
+      <c r="O15">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O15">
-        <f>ROUND((($B$1/100)*$F15*(O$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(O$2/5)),0)</f>
-        <v>28</v>
-      </c>
       <c r="P15">
-        <f>ROUND((($B$1/100)*$F15*(P$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="Q15">
-        <f>ROUND((($B$1/100)*$F15*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F15/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -8984,47 +9183,47 @@
         <v>13</v>
       </c>
       <c r="G16">
-        <f>ROUND((($B$1/100)*$F16*(G$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(G$2/5)),0)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="H16">
-        <f>ROUND((($B$1/100)*$F16*(H$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(H$2/5)),0)</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="I16">
-        <f>ROUND((($B$1/100)*$F16*(I$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(I$2/5)),0)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="J16">
-        <f>ROUND((($B$1/100)*$F16*(J$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(J$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="K16">
-        <f>ROUND((($B$1/100)*$F16*(K$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(K$2/5)),0)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="L16">
-        <f>ROUND((($B$1/100)*$F16*(L$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(L$2/5)),0)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="M16">
-        <f>ROUND((($B$1/100)*$F16*(M$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(M$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="N16">
-        <f>ROUND((($B$1/100)*$F16*(N$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O16">
-        <f>ROUND((($B$1/100)*$F16*(O$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(O$2/5)),0)</f>
-        <v>30</v>
-      </c>
       <c r="P16">
-        <f>ROUND((($B$1/100)*$F16*(P$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="Q16">
-        <f>ROUND((($B$1/100)*$F16*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F16/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -9033,47 +9232,47 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <f>ROUND((($B$1/100)*$F17*(G$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(G$2/5)),0)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="H17">
-        <f>ROUND((($B$1/100)*$F17*(H$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(H$2/5)),0)</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="I17">
-        <f>ROUND((($B$1/100)*$F17*(I$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(I$2/5)),0)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J17">
-        <f>ROUND((($B$1/100)*$F17*(J$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(J$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K17">
-        <f>ROUND((($B$1/100)*$F17*(K$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(K$2/5)),0)</f>
-        <v>25</v>
-      </c>
-      <c r="L17">
-        <f>ROUND((($B$1/100)*$F17*(L$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(L$2/5)),0)</f>
-        <v>27</v>
-      </c>
       <c r="M17">
-        <f>ROUND((($B$1/100)*$F17*(M$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(M$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="N17">
-        <f>ROUND((($B$1/100)*$F17*(N$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O17">
-        <f>ROUND((($B$1/100)*$F17*(O$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(O$2/5)),0)</f>
-        <v>32</v>
-      </c>
       <c r="P17">
-        <f>ROUND((($B$1/100)*$F17*(P$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="Q17">
-        <f>ROUND((($B$1/100)*$F17*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F17/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9082,47 +9281,47 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <f>ROUND((($B$1/100)*$F18*(G$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(G$2/5)),0)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="H18">
-        <f>ROUND((($B$1/100)*$F18*(H$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(H$2/5)),0)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I18">
-        <f>ROUND((($B$1/100)*$F18*(I$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(I$2/5)),0)</f>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="J18">
-        <f>ROUND((($B$1/100)*$F18*(J$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(J$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="K18">
-        <f>ROUND((($B$1/100)*$F18*(K$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(K$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="L18">
-        <f>ROUND((($B$1/100)*$F18*(L$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(L$2/5)),0)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="M18">
-        <f>ROUND((($B$1/100)*$F18*(M$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(M$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="N18">
-        <f>ROUND((($B$1/100)*$F18*(N$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="O18">
-        <f>ROUND((($B$1/100)*$F18*(O$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(O$2/5)),0)</f>
+      <c r="P18">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="P18">
-        <f>ROUND((($B$1/100)*$F18*(P$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(P$2/5)),0)</f>
-        <v>37</v>
-      </c>
       <c r="Q18">
-        <f>ROUND((($B$1/100)*$F18*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F18/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -9131,47 +9330,47 @@
         <v>16</v>
       </c>
       <c r="G19">
-        <f>ROUND((($B$1/100)*$F19*(G$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(G$2/5)),0)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="H19">
-        <f>ROUND((($B$1/100)*$F19*(H$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(H$2/5)),0)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I19">
-        <f>ROUND((($B$1/100)*$F19*(I$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(I$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="J19">
-        <f>ROUND((($B$1/100)*$F19*(J$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(J$2/5)),0)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="K19">
-        <f>ROUND((($B$1/100)*$F19*(K$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(K$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="L19">
-        <f>ROUND((($B$1/100)*$F19*(L$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(L$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="M19">
-        <f>ROUND((($B$1/100)*$F19*(M$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(M$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="N19">
-        <f>ROUND((($B$1/100)*$F19*(N$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="O19">
-        <f>ROUND((($B$1/100)*$F19*(O$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(O$2/5)),0)</f>
+      <c r="P19">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="P19">
-        <f>ROUND((($B$1/100)*$F19*(P$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(P$2/5)),0)</f>
-        <v>39</v>
-      </c>
       <c r="Q19">
-        <f>ROUND((($B$1/100)*$F19*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F19/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -9180,47 +9379,47 @@
         <v>17</v>
       </c>
       <c r="G20">
-        <f>ROUND((($B$1/100)*$F20*(G$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(G$2/5)),0)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="H20">
-        <f>ROUND((($B$1/100)*$F20*(H$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(H$2/5)),0)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="I20">
-        <f>ROUND((($B$1/100)*$F20*(I$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(I$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J20">
-        <f>ROUND((($B$1/100)*$F20*(J$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(J$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="K20">
-        <f>ROUND((($B$1/100)*$F20*(K$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(K$2/5)),0)</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="L20">
-        <f>ROUND((($B$1/100)*$F20*(L$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(L$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="M20">
-        <f>ROUND((($B$1/100)*$F20*(M$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(M$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="N20">
-        <f>ROUND((($B$1/100)*$F20*(N$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="O20">
-        <f>ROUND((($B$1/100)*$F20*(O$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(O$2/5)),0)</f>
-        <v>40</v>
-      </c>
       <c r="P20">
-        <f>ROUND((($B$1/100)*$F20*(P$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(P$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="Q20">
-        <f>ROUND((($B$1/100)*$F20*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F20/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -9229,47 +9428,47 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <f>ROUND((($B$1/100)*$F21*(G$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(G$2/5)),0)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H21">
-        <f>ROUND((($B$1/100)*$F21*(H$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(H$2/5)),0)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="I21">
-        <f>ROUND((($B$1/100)*$F21*(I$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(I$2/5)),0)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J21">
-        <f>ROUND((($B$1/100)*$F21*(J$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(J$2/5)),0)</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K21">
-        <f>ROUND((($B$1/100)*$F21*(K$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(K$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="L21">
-        <f>ROUND((($B$1/100)*$F21*(L$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(L$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="M21">
-        <f>ROUND((($B$1/100)*$F21*(M$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(M$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="N21">
-        <f>ROUND((($B$1/100)*$F21*(N$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="O21">
-        <f>ROUND((($B$1/100)*$F21*(O$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(O$2/5)),0)</f>
-        <v>42</v>
-      </c>
       <c r="P21">
-        <f>ROUND((($B$1/100)*$F21*(P$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(P$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="Q21">
-        <f>ROUND((($B$1/100)*$F21*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F21/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -9278,47 +9477,47 @@
         <v>19</v>
       </c>
       <c r="G22">
-        <f>ROUND((($B$1/100)*$F22*(G$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(G$2/5)),0)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H22">
-        <f>ROUND((($B$1/100)*$F22*(H$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(H$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I22">
-        <f>ROUND((($B$1/100)*$F22*(I$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(I$2/5)),0)</f>
-        <v>24</v>
-      </c>
       <c r="J22">
-        <f>ROUND((($B$1/100)*$F22*(J$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(J$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="K22">
-        <f>ROUND((($B$1/100)*$F22*(K$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(K$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="L22">
-        <f>ROUND((($B$1/100)*$F22*(L$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(L$2/5)),0)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="M22">
-        <f>ROUND((($B$1/100)*$F22*(M$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(M$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="N22">
-        <f>ROUND((($B$1/100)*$F22*(N$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="O22">
-        <f>ROUND((($B$1/100)*$F22*(O$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(O$2/5)),0)</f>
-        <v>44</v>
-      </c>
       <c r="P22">
-        <f>ROUND((($B$1/100)*$F22*(P$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(P$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="Q22">
-        <f>ROUND((($B$1/100)*$F22*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F22/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -9327,47 +9526,47 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <f>ROUND((($B$1/100)*$F23*(G$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(G$2/5)),0)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="H23">
-        <f>ROUND((($B$1/100)*$F23*(H$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(H$2/5)),0)</f>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="I23">
-        <f>ROUND((($B$1/100)*$F23*(I$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(I$2/5)),0)</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J23">
-        <f>ROUND((($B$1/100)*$F23*(J$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(J$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="K23">
-        <f>ROUND((($B$1/100)*$F23*(K$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(K$2/5)),0)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="L23">
-        <f>ROUND((($B$1/100)*$F23*(L$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(L$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="M23">
-        <f>ROUND((($B$1/100)*$F23*(M$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(M$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="N23">
-        <f>ROUND((($B$1/100)*$F23*(N$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O23">
-        <f>ROUND((($B$1/100)*$F23*(O$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(O$2/5)),0)</f>
-        <v>47</v>
-      </c>
       <c r="P23">
-        <f>ROUND((($B$1/100)*$F23*(P$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(P$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="Q23">
-        <f>ROUND((($B$1/100)*$F23*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F23/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
     </row>
@@ -9376,47 +9575,47 @@
         <v>21</v>
       </c>
       <c r="G24">
-        <f>ROUND((($B$1/100)*$F24*(G$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(G$2/5)),0)</f>
-        <v>11</v>
+        <f t="shared" ref="G24:Q33" si="3">ROUND((($B$1/100)*$F24*(G$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(G$2/5)),0)</f>
+        <v>8</v>
       </c>
       <c r="H24">
-        <f>ROUND((($B$1/100)*$F24*(H$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(H$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="I24">
-        <f>ROUND((($B$1/100)*$F24*(I$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(I$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J24">
-        <f>ROUND((($B$1/100)*$F24*(J$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(J$2/5)),0)</f>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="K24">
-        <f>ROUND((($B$1/100)*$F24*(K$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(K$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="L24">
-        <f>ROUND((($B$1/100)*$F24*(L$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(L$2/5)),0)</f>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="M24">
-        <f>ROUND((($B$1/100)*$F24*(M$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(M$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="N24">
-        <f>ROUND((($B$1/100)*$F24*(N$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="O24">
-        <f>ROUND((($B$1/100)*$F24*(O$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(O$2/5)),0)</f>
-        <v>50</v>
-      </c>
       <c r="P24">
-        <f>ROUND((($B$1/100)*$F24*(P$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(P$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="Q24">
-        <f>ROUND((($B$1/100)*$F24*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F24/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
@@ -9425,47 +9624,47 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <f>ROUND((($B$1/100)*$F25*(G$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(G$2/5)),0)</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H25">
-        <f>ROUND((($B$1/100)*$F25*(H$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(H$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="I25">
-        <f>ROUND((($B$1/100)*$F25*(I$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(I$2/5)),0)</f>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J25">
-        <f>ROUND((($B$1/100)*$F25*(J$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(J$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K25">
-        <f>ROUND((($B$1/100)*$F25*(K$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(K$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="L25">
-        <f>ROUND((($B$1/100)*$F25*(L$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(L$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="M25">
-        <f>ROUND((($B$1/100)*$F25*(M$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(M$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="N25">
-        <f>ROUND((($B$1/100)*$F25*(N$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="O25">
-        <f>ROUND((($B$1/100)*$F25*(O$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(O$2/5)),0)</f>
-        <v>52</v>
-      </c>
       <c r="P25">
-        <f>ROUND((($B$1/100)*$F25*(P$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(P$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="Q25">
-        <f>ROUND((($B$1/100)*$F25*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F25/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -9474,47 +9673,47 @@
         <v>23</v>
       </c>
       <c r="G26">
-        <f>ROUND((($B$1/100)*$F26*(G$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(G$2/5)),0)</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="H26">
-        <f>ROUND((($B$1/100)*$F26*(H$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(H$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="I26">
-        <f>ROUND((($B$1/100)*$F26*(I$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(I$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J26">
-        <f>ROUND((($B$1/100)*$F26*(J$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(J$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="K26">
-        <f>ROUND((($B$1/100)*$F26*(K$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(K$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="L26">
-        <f>ROUND((($B$1/100)*$F26*(L$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(L$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="M26">
-        <f>ROUND((($B$1/100)*$F26*(M$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(M$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="N26">
-        <f>ROUND((($B$1/100)*$F26*(N$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="O26">
-        <f>ROUND((($B$1/100)*$F26*(O$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(O$2/5)),0)</f>
-        <v>54</v>
-      </c>
       <c r="P26">
-        <f>ROUND((($B$1/100)*$F26*(P$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(P$2/5)),0)</f>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="Q26">
-        <f>ROUND((($B$1/100)*$F26*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F26/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -9523,47 +9722,47 @@
         <v>24</v>
       </c>
       <c r="G27">
-        <f>ROUND((($B$1/100)*$F27*(G$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(G$2/5)),0)</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="H27">
-        <f>ROUND((($B$1/100)*$F27*(H$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(H$2/5)),0)</f>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="I27">
-        <f>ROUND((($B$1/100)*$F27*(I$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(I$2/5)),0)</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="J27">
-        <f>ROUND((($B$1/100)*$F27*(J$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(J$2/5)),0)</f>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="K27">
-        <f>ROUND((($B$1/100)*$F27*(K$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(K$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="L27">
-        <f>ROUND((($B$1/100)*$F27*(L$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(L$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="M27">
-        <f>ROUND((($B$1/100)*$F27*(M$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(M$2/5)),0)</f>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="N27">
-        <f>ROUND((($B$1/100)*$F27*(N$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="O27">
-        <f>ROUND((($B$1/100)*$F27*(O$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(O$2/5)),0)</f>
-        <v>56</v>
-      </c>
       <c r="P27">
-        <f>ROUND((($B$1/100)*$F27*(P$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(P$2/5)),0)</f>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="Q27">
-        <f>ROUND((($B$1/100)*$F27*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F27/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -9572,47 +9771,47 @@
         <v>25</v>
       </c>
       <c r="G28">
-        <f>ROUND((($B$1/100)*$F28*(G$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(G$2/5)),0)</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H28">
-        <f>ROUND((($B$1/100)*$F28*(H$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(H$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="I28">
-        <f>ROUND((($B$1/100)*$F28*(I$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(I$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="J28">
-        <f>ROUND((($B$1/100)*$F28*(J$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(J$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="K28">
-        <f>ROUND((($B$1/100)*$F28*(K$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(K$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L28">
-        <f>ROUND((($B$1/100)*$F28*(L$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(L$2/5)),0)</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="M28">
-        <f>ROUND((($B$1/100)*$F28*(M$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(M$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="N28">
-        <f>ROUND((($B$1/100)*$F28*(N$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="O28">
-        <f>ROUND((($B$1/100)*$F28*(O$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(O$2/5)),0)</f>
-        <v>59</v>
-      </c>
       <c r="P28">
-        <f>ROUND((($B$1/100)*$F28*(P$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(P$2/5)),0)</f>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="Q28">
-        <f>ROUND((($B$1/100)*$F28*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F28/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
@@ -9621,47 +9820,47 @@
         <v>26</v>
       </c>
       <c r="G29">
-        <f>ROUND((($B$1/100)*$F29*(G$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(G$2/5)),0)</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H29">
-        <f>ROUND((($B$1/100)*$F29*(H$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(H$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="I29">
-        <f>ROUND((($B$1/100)*$F29*(I$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(I$2/5)),0)</f>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J29">
-        <f>ROUND((($B$1/100)*$F29*(J$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(J$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="K29">
-        <f>ROUND((($B$1/100)*$F29*(K$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(K$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="L29">
-        <f>ROUND((($B$1/100)*$F29*(L$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(L$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="M29">
-        <f>ROUND((($B$1/100)*$F29*(M$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(M$2/5)),0)</f>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="N29">
-        <f>ROUND((($B$1/100)*$F29*(N$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="O29">
-        <f>ROUND((($B$1/100)*$F29*(O$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(O$2/5)),0)</f>
-        <v>61</v>
-      </c>
       <c r="P29">
-        <f>ROUND((($B$1/100)*$F29*(P$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(P$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="Q29">
-        <f>ROUND((($B$1/100)*$F29*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F29/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -9670,47 +9869,47 @@
         <v>27</v>
       </c>
       <c r="G30">
-        <f>ROUND((($B$1/100)*$F30*(G$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(G$2/5)),0)</f>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H30">
-        <f>ROUND((($B$1/100)*$F30*(H$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(H$2/5)),0)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="I30">
-        <f>ROUND((($B$1/100)*$F30*(I$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(I$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="J30">
-        <f>ROUND((($B$1/100)*$F30*(J$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(J$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="K30">
-        <f>ROUND((($B$1/100)*$F30*(K$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(K$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="L30">
-        <f>ROUND((($B$1/100)*$F30*(L$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(L$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="M30">
-        <f>ROUND((($B$1/100)*$F30*(M$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(M$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="N30">
-        <f>ROUND((($B$1/100)*$F30*(N$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="O30">
-        <f>ROUND((($B$1/100)*$F30*(O$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(O$2/5)),0)</f>
-        <v>63</v>
-      </c>
       <c r="P30">
-        <f>ROUND((($B$1/100)*$F30*(P$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(P$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="Q30">
-        <f>ROUND((($B$1/100)*$F30*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F30/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
@@ -9719,47 +9918,47 @@
         <v>28</v>
       </c>
       <c r="G31">
-        <f>ROUND((($B$1/100)*$F31*(G$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(G$2/5)),0)</f>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="H31">
-        <f>ROUND((($B$1/100)*$F31*(H$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(H$2/5)),0)</f>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="I31">
-        <f>ROUND((($B$1/100)*$F31*(I$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(I$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J31">
-        <f>ROUND((($B$1/100)*$F31*(J$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(J$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="K31">
-        <f>ROUND((($B$1/100)*$F31*(K$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(K$2/5)),0)</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="L31">
-        <f>ROUND((($B$1/100)*$F31*(L$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(L$2/5)),0)</f>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="M31">
-        <f>ROUND((($B$1/100)*$F31*(M$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(M$2/5)),0)</f>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="N31">
-        <f>ROUND((($B$1/100)*$F31*(N$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="O31">
-        <f>ROUND((($B$1/100)*$F31*(O$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(O$2/5)),0)</f>
-        <v>66</v>
-      </c>
       <c r="P31">
-        <f>ROUND((($B$1/100)*$F31*(P$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(P$2/5)),0)</f>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="Q31">
-        <f>ROUND((($B$1/100)*$F31*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F31/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
@@ -9768,47 +9967,47 @@
         <v>29</v>
       </c>
       <c r="G32">
-        <f>ROUND((($B$1/100)*$F32*(G$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(G$2/5)),0)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="H32">
-        <f>ROUND((($B$1/100)*$F32*(H$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(H$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="I32">
-        <f>ROUND((($B$1/100)*$F32*(I$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(I$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J32">
-        <f>ROUND((($B$1/100)*$F32*(J$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(J$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="K32">
-        <f>ROUND((($B$1/100)*$F32*(K$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(K$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="L32">
-        <f>ROUND((($B$1/100)*$F32*(L$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(L$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="M32">
-        <f>ROUND((($B$1/100)*$F32*(M$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(M$2/5)),0)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="N32">
-        <f>ROUND((($B$1/100)*$F32*(N$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="O32">
-        <f>ROUND((($B$1/100)*$F32*(O$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(O$2/5)),0)</f>
-        <v>68</v>
-      </c>
       <c r="P32">
-        <f>ROUND((($B$1/100)*$F32*(P$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(P$2/5)),0)</f>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>69</v>
       </c>
       <c r="Q32">
-        <f>ROUND((($B$1/100)*$F32*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F32/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -9817,47 +10016,47 @@
         <v>30</v>
       </c>
       <c r="G33">
-        <f>ROUND((($B$1/100)*$F33*(G$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(G$2/5)),0)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="H33">
-        <f>ROUND((($B$1/100)*$F33*(H$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(H$2/5)),0)</f>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="I33">
-        <f>ROUND((($B$1/100)*$F33*(I$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(I$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="J33">
-        <f>ROUND((($B$1/100)*$F33*(J$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(J$2/5)),0)</f>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="K33">
-        <f>ROUND((($B$1/100)*$F33*(K$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(K$2/5)),0)</f>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="L33">
-        <f>ROUND((($B$1/100)*$F33*(L$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(L$2/5)),0)</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="M33">
-        <f>ROUND((($B$1/100)*$F33*(M$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(M$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="N33">
-        <f>ROUND((($B$1/100)*$F33*(N$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="O33">
-        <f>ROUND((($B$1/100)*$F33*(O$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(O$2/5)),0)</f>
-        <v>71</v>
-      </c>
       <c r="P33">
-        <f>ROUND((($B$1/100)*$F33*(P$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(P$2/5)),0)</f>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="Q33">
-        <f>ROUND((($B$1/100)*$F33*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F33/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -9866,47 +10065,47 @@
         <v>31</v>
       </c>
       <c r="G34">
-        <f>ROUND((($B$1/100)*$F34*(G$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(G$2/5)),0)</f>
-        <v>16</v>
+        <f t="shared" ref="G34:Q43" si="4">ROUND((($B$1/100)*$F34*(G$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(G$2/5)),0)</f>
+        <v>12</v>
       </c>
       <c r="H34">
-        <f>ROUND((($B$1/100)*$F34*(H$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(H$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="I34">
-        <f>ROUND((($B$1/100)*$F34*(I$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(I$2/5)),0)</f>
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="J34">
-        <f>ROUND((($B$1/100)*$F34*(J$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(J$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="K34">
-        <f>ROUND((($B$1/100)*$F34*(K$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(K$2/5)),0)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="L34">
-        <f>ROUND((($B$1/100)*$F34*(L$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(L$2/5)),0)</f>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="M34">
-        <f>ROUND((($B$1/100)*$F34*(M$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(M$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
       <c r="N34">
-        <f>ROUND((($B$1/100)*$F34*(N$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="O34">
-        <f>ROUND((($B$1/100)*$F34*(O$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(O$2/5)),0)</f>
-        <v>73</v>
-      </c>
       <c r="P34">
-        <f>ROUND((($B$1/100)*$F34*(P$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(P$2/5)),0)</f>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="Q34">
-        <f>ROUND((($B$1/100)*$F34*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F34/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
@@ -9915,47 +10114,47 @@
         <v>32</v>
       </c>
       <c r="G35">
-        <f>ROUND((($B$1/100)*$F35*(G$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(G$2/5)),0)</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H35">
-        <f>ROUND((($B$1/100)*$F35*(H$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(H$2/5)),0)</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="I35">
-        <f>ROUND((($B$1/100)*$F35*(I$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(I$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="J35">
-        <f>ROUND((($B$1/100)*$F35*(J$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(J$2/5)),0)</f>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="K35">
-        <f>ROUND((($B$1/100)*$F35*(K$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(K$2/5)),0)</f>
-        <v>58</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="L35">
-        <f>ROUND((($B$1/100)*$F35*(L$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(L$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="M35">
-        <f>ROUND((($B$1/100)*$F35*(M$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(M$2/5)),0)</f>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="N35">
-        <f>ROUND((($B$1/100)*$F35*(N$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="O35">
-        <f>ROUND((($B$1/100)*$F35*(O$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(O$2/5)),0)</f>
-        <v>75</v>
-      </c>
       <c r="P35">
-        <f>ROUND((($B$1/100)*$F35*(P$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(P$2/5)),0)</f>
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="Q35">
-        <f>ROUND((($B$1/100)*$F35*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F35/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
@@ -9964,47 +10163,47 @@
         <v>33</v>
       </c>
       <c r="G36">
-        <f>ROUND((($B$1/100)*$F36*(G$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(G$2/5)),0)</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H36">
-        <f>ROUND((($B$1/100)*$F36*(H$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(H$2/5)),0)</f>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="I36">
-        <f>ROUND((($B$1/100)*$F36*(I$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(I$2/5)),0)</f>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="J36">
-        <f>ROUND((($B$1/100)*$F36*(J$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(J$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="K36">
-        <f>ROUND((($B$1/100)*$F36*(K$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(K$2/5)),0)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="L36">
-        <f>ROUND((($B$1/100)*$F36*(L$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(L$2/5)),0)</f>
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="M36">
-        <f>ROUND((($B$1/100)*$F36*(M$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(M$2/5)),0)</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="N36">
-        <f>ROUND((($B$1/100)*$F36*(N$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="O36">
-        <f>ROUND((($B$1/100)*$F36*(O$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(O$2/5)),0)</f>
-        <v>77</v>
-      </c>
       <c r="P36">
-        <f>ROUND((($B$1/100)*$F36*(P$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(P$2/5)),0)</f>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="Q36">
-        <f>ROUND((($B$1/100)*$F36*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F36/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
@@ -10013,47 +10212,47 @@
         <v>34</v>
       </c>
       <c r="G37">
-        <f>ROUND((($B$1/100)*$F37*(G$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(G$2/5)),0)</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="H37">
-        <f>ROUND((($B$1/100)*$F37*(H$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(H$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="I37">
-        <f>ROUND((($B$1/100)*$F37*(I$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(I$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="J37">
-        <f>ROUND((($B$1/100)*$F37*(J$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(J$2/5)),0)</f>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="K37">
-        <f>ROUND((($B$1/100)*$F37*(K$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(K$2/5)),0)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="L37">
-        <f>ROUND((($B$1/100)*$F37*(L$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(L$2/5)),0)</f>
-        <v>67</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="M37">
-        <f>ROUND((($B$1/100)*$F37*(M$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(M$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>63</v>
       </c>
       <c r="N37">
-        <f>ROUND((($B$1/100)*$F37*(N$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="O37">
-        <f>ROUND((($B$1/100)*$F37*(O$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(O$2/5)),0)</f>
-        <v>80</v>
-      </c>
       <c r="P37">
-        <f>ROUND((($B$1/100)*$F37*(P$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(P$2/5)),0)</f>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="Q37">
-        <f>ROUND((($B$1/100)*$F37*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F37/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
@@ -10062,47 +10261,47 @@
         <v>35</v>
       </c>
       <c r="G38">
-        <f>ROUND((($B$1/100)*$F38*(G$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(G$2/5)),0)</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="H38">
-        <f>ROUND((($B$1/100)*$F38*(H$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(H$2/5)),0)</f>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="I38">
-        <f>ROUND((($B$1/100)*$F38*(I$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(I$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="J38">
-        <f>ROUND((($B$1/100)*$F38*(J$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(J$2/5)),0)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="K38">
-        <f>ROUND((($B$1/100)*$F38*(K$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(K$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="L38">
-        <f>ROUND((($B$1/100)*$F38*(L$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(L$2/5)),0)</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
       <c r="M38">
-        <f>ROUND((($B$1/100)*$F38*(M$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(M$2/5)),0)</f>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="N38">
-        <f>ROUND((($B$1/100)*$F38*(N$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="O38">
-        <f>ROUND((($B$1/100)*$F38*(O$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(O$2/5)),0)</f>
-        <v>83</v>
-      </c>
       <c r="P38">
-        <f>ROUND((($B$1/100)*$F38*(P$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(P$2/5)),0)</f>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="Q38">
-        <f>ROUND((($B$1/100)*$F38*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F38/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
@@ -10111,47 +10310,47 @@
         <v>36</v>
       </c>
       <c r="G39">
-        <f>ROUND((($B$1/100)*$F39*(G$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(G$2/5)),0)</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="H39">
-        <f>ROUND((($B$1/100)*$F39*(H$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(H$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="I39">
-        <f>ROUND((($B$1/100)*$F39*(I$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(I$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="J39">
-        <f>ROUND((($B$1/100)*$F39*(J$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(J$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="K39">
-        <f>ROUND((($B$1/100)*$F39*(K$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(K$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="L39">
-        <f>ROUND((($B$1/100)*$F39*(L$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(L$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
       <c r="M39">
-        <f>ROUND((($B$1/100)*$F39*(M$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(M$2/5)),0)</f>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="N39">
-        <f>ROUND((($B$1/100)*$F39*(N$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="O39">
-        <f>ROUND((($B$1/100)*$F39*(O$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(O$2/5)),0)</f>
-        <v>85</v>
-      </c>
       <c r="P39">
-        <f>ROUND((($B$1/100)*$F39*(P$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(P$2/5)),0)</f>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="Q39">
-        <f>ROUND((($B$1/100)*$F39*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F39/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -10160,47 +10359,47 @@
         <v>37</v>
       </c>
       <c r="G40">
-        <f>ROUND((($B$1/100)*$F40*(G$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(G$2/5)),0)</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="H40">
-        <f>ROUND((($B$1/100)*$F40*(H$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(H$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="I40">
-        <f>ROUND((($B$1/100)*$F40*(I$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(I$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="J40">
-        <f>ROUND((($B$1/100)*$F40*(J$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(J$2/5)),0)</f>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="K40">
-        <f>ROUND((($B$1/100)*$F40*(K$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(K$2/5)),0)</f>
-        <v>67</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="L40">
-        <f>ROUND((($B$1/100)*$F40*(L$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(L$2/5)),0)</f>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
       <c r="M40">
-        <f>ROUND((($B$1/100)*$F40*(M$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(M$2/5)),0)</f>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="N40">
-        <f>ROUND((($B$1/100)*$F40*(N$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="O40">
-        <f>ROUND((($B$1/100)*$F40*(O$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(O$2/5)),0)</f>
-        <v>87</v>
-      </c>
       <c r="P40">
-        <f>ROUND((($B$1/100)*$F40*(P$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(P$2/5)),0)</f>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
       <c r="Q40">
-        <f>ROUND((($B$1/100)*$F40*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F40/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
     </row>
@@ -10209,47 +10408,47 @@
         <v>38</v>
       </c>
       <c r="G41">
-        <f>ROUND((($B$1/100)*$F41*(G$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(G$2/5)),0)</f>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="H41">
-        <f>ROUND((($B$1/100)*$F41*(H$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(H$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="I41">
-        <f>ROUND((($B$1/100)*$F41*(I$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(I$2/5)),0)</f>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="J41">
-        <f>ROUND((($B$1/100)*$F41*(J$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(J$2/5)),0)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="K41">
-        <f>ROUND((($B$1/100)*$F41*(K$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(K$2/5)),0)</f>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="L41">
-        <f>ROUND((($B$1/100)*$F41*(L$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(L$2/5)),0)</f>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="M41">
-        <f>ROUND((($B$1/100)*$F41*(M$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(M$2/5)),0)</f>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="N41">
-        <f>ROUND((($B$1/100)*$F41*(N$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="O41">
-        <f>ROUND((($B$1/100)*$F41*(O$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(O$2/5)),0)</f>
-        <v>89</v>
-      </c>
       <c r="P41">
-        <f>ROUND((($B$1/100)*$F41*(P$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(P$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="Q41">
-        <f>ROUND((($B$1/100)*$F41*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F41/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
     </row>
@@ -10258,47 +10457,47 @@
         <v>39</v>
       </c>
       <c r="G42">
-        <f>ROUND((($B$1/100)*$F42*(G$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(G$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="H42">
-        <f>ROUND((($B$1/100)*$F42*(H$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(H$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="I42">
-        <f>ROUND((($B$1/100)*$F42*(I$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(I$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="J42">
-        <f>ROUND((($B$1/100)*$F42*(J$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(J$2/5)),0)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="K42">
-        <f>ROUND((($B$1/100)*$F42*(K$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(K$2/5)),0)</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="L42">
-        <f>ROUND((($B$1/100)*$F42*(L$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(L$2/5)),0)</f>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="M42">
-        <f>ROUND((($B$1/100)*$F42*(M$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(M$2/5)),0)</f>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="N42">
-        <f>ROUND((($B$1/100)*$F42*(N$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="O42">
-        <f>ROUND((($B$1/100)*$F42*(O$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(O$2/5)),0)</f>
-        <v>91</v>
-      </c>
       <c r="P42">
-        <f>ROUND((($B$1/100)*$F42*(P$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(P$2/5)),0)</f>
-        <v>95</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="Q42">
-        <f>ROUND((($B$1/100)*$F42*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F42/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
@@ -10307,47 +10506,47 @@
         <v>40</v>
       </c>
       <c r="G43">
-        <f>ROUND((($B$1/100)*$F43*(G$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(G$2/5)),0)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="H43">
-        <f>ROUND((($B$1/100)*$F43*(H$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(H$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="I43">
-        <f>ROUND((($B$1/100)*$F43*(I$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(I$2/5)),0)</f>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="J43">
-        <f>ROUND((($B$1/100)*$F43*(J$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(J$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="K43">
-        <f>ROUND((($B$1/100)*$F43*(K$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(K$2/5)),0)</f>
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="L43">
-        <f>ROUND((($B$1/100)*$F43*(L$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(L$2/5)),0)</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="M43">
-        <f>ROUND((($B$1/100)*$F43*(M$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(M$2/5)),0)</f>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="N43">
-        <f>ROUND((($B$1/100)*$F43*(N$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="O43">
-        <f>ROUND((($B$1/100)*$F43*(O$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(O$2/5)),0)</f>
-        <v>95</v>
-      </c>
       <c r="P43">
-        <f>ROUND((($B$1/100)*$F43*(P$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(P$2/5)),0)</f>
-        <v>99</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="Q43">
-        <f>ROUND((($B$1/100)*$F43*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F43/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
@@ -10356,47 +10555,47 @@
         <v>41</v>
       </c>
       <c r="G44">
-        <f>ROUND((($B$1/100)*$F44*(G$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(G$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" ref="G44:Q53" si="5">ROUND((($B$1/100)*$F44*(G$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(G$2/5)),0)</f>
+        <v>16</v>
       </c>
       <c r="H44">
-        <f>ROUND((($B$1/100)*$F44*(H$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(H$2/5)),0)</f>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="I44">
-        <f>ROUND((($B$1/100)*$F44*(I$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(I$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="J44">
-        <f>ROUND((($B$1/100)*$F44*(J$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(J$2/5)),0)</f>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
       <c r="K44">
-        <f>ROUND((($B$1/100)*$F44*(K$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(K$2/5)),0)</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="L44">
-        <f>ROUND((($B$1/100)*$F44*(L$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(L$2/5)),0)</f>
-        <v>82</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="M44">
-        <f>ROUND((($B$1/100)*$F44*(M$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(M$2/5)),0)</f>
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
       <c r="N44">
-        <f>ROUND((($B$1/100)*$F44*(N$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="O44">
-        <f>ROUND((($B$1/100)*$F44*(O$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(O$2/5)),0)</f>
-        <v>97</v>
-      </c>
       <c r="P44">
-        <f>ROUND((($B$1/100)*$F44*(P$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(P$2/5)),0)</f>
-        <v>101</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="Q44">
-        <f>ROUND((($B$1/100)*$F44*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F44/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
     </row>
@@ -10405,47 +10604,47 @@
         <v>42</v>
       </c>
       <c r="G45">
-        <f>ROUND((($B$1/100)*$F45*(G$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(G$2/5)),0)</f>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H45">
-        <f>ROUND((($B$1/100)*$F45*(H$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(H$2/5)),0)</f>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="I45">
-        <f>ROUND((($B$1/100)*$F45*(I$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(I$2/5)),0)</f>
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="J45">
-        <f>ROUND((($B$1/100)*$F45*(J$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(J$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="K45">
-        <f>ROUND((($B$1/100)*$F45*(K$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(K$2/5)),0)</f>
-        <v>76</v>
+        <f t="shared" si="5"/>
+        <v>59</v>
       </c>
       <c r="L45">
-        <f>ROUND((($B$1/100)*$F45*(L$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(L$2/5)),0)</f>
-        <v>83</v>
+        <f t="shared" si="5"/>
+        <v>69</v>
       </c>
       <c r="M45">
-        <f>ROUND((($B$1/100)*$F45*(M$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(M$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="N45">
-        <f>ROUND((($B$1/100)*$F45*(N$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="O45">
-        <f>ROUND((($B$1/100)*$F45*(O$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(O$2/5)),0)</f>
-        <v>99</v>
-      </c>
       <c r="P45">
-        <f>ROUND((($B$1/100)*$F45*(P$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(P$2/5)),0)</f>
-        <v>103</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
       <c r="Q45">
-        <f>ROUND((($B$1/100)*$F45*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F45/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
@@ -10454,47 +10653,47 @@
         <v>43</v>
       </c>
       <c r="G46">
-        <f>ROUND((($B$1/100)*$F46*(G$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(G$2/5)),0)</f>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H46">
-        <f>ROUND((($B$1/100)*$F46*(H$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(H$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="I46">
-        <f>ROUND((($B$1/100)*$F46*(I$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(I$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="J46">
-        <f>ROUND((($B$1/100)*$F46*(J$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(J$2/5)),0)</f>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="K46">
-        <f>ROUND((($B$1/100)*$F46*(K$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(K$2/5)),0)</f>
-        <v>78</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="L46">
-        <f>ROUND((($B$1/100)*$F46*(L$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(L$2/5)),0)</f>
-        <v>85</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
       <c r="M46">
-        <f>ROUND((($B$1/100)*$F46*(M$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(M$2/5)),0)</f>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="N46">
-        <f>ROUND((($B$1/100)*$F46*(N$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="O46">
-        <f>ROUND((($B$1/100)*$F46*(O$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(O$2/5)),0)</f>
-        <v>101</v>
-      </c>
       <c r="P46">
-        <f>ROUND((($B$1/100)*$F46*(P$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(P$2/5)),0)</f>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>103</v>
       </c>
       <c r="Q46">
-        <f>ROUND((($B$1/100)*$F46*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F46/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
     </row>
@@ -10503,47 +10702,47 @@
         <v>44</v>
       </c>
       <c r="G47">
-        <f>ROUND((($B$1/100)*$F47*(G$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(G$2/5)),0)</f>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="H47">
-        <f>ROUND((($B$1/100)*$F47*(H$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(H$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="I47">
-        <f>ROUND((($B$1/100)*$F47*(I$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(I$2/5)),0)</f>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="J47">
-        <f>ROUND((($B$1/100)*$F47*(J$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(J$2/5)),0)</f>
-        <v>69</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="K47">
-        <f>ROUND((($B$1/100)*$F47*(K$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(K$2/5)),0)</f>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
       <c r="L47">
-        <f>ROUND((($B$1/100)*$F47*(L$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(L$2/5)),0)</f>
-        <v>87</v>
+        <f t="shared" si="5"/>
+        <v>72</v>
       </c>
       <c r="M47">
-        <f>ROUND((($B$1/100)*$F47*(M$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(M$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>82</v>
       </c>
       <c r="N47">
-        <f>ROUND((($B$1/100)*$F47*(N$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="O47">
-        <f>ROUND((($B$1/100)*$F47*(O$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(O$2/5)),0)</f>
-        <v>103</v>
-      </c>
       <c r="P47">
-        <f>ROUND((($B$1/100)*$F47*(P$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(P$2/5)),0)</f>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
       <c r="Q47">
-        <f>ROUND((($B$1/100)*$F47*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F47/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
     </row>
@@ -10552,47 +10751,47 @@
         <v>45</v>
       </c>
       <c r="G48">
-        <f>ROUND((($B$1/100)*$F48*(G$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(G$2/5)),0)</f>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="H48">
-        <f>ROUND((($B$1/100)*$F48*(H$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(H$2/5)),0)</f>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="I48">
-        <f>ROUND((($B$1/100)*$F48*(I$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(I$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="J48">
-        <f>ROUND((($B$1/100)*$F48*(J$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(J$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="5"/>
+        <v>52</v>
       </c>
       <c r="K48">
-        <f>ROUND((($B$1/100)*$F48*(K$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(K$2/5)),0)</f>
-        <v>82</v>
+        <f t="shared" si="5"/>
+        <v>63</v>
       </c>
       <c r="L48">
-        <f>ROUND((($B$1/100)*$F48*(L$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(L$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="M48">
-        <f>ROUND((($B$1/100)*$F48*(M$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(M$2/5)),0)</f>
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>85</v>
       </c>
       <c r="N48">
-        <f>ROUND((($B$1/100)*$F48*(N$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="O48">
-        <f>ROUND((($B$1/100)*$F48*(O$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(O$2/5)),0)</f>
-        <v>107</v>
-      </c>
       <c r="P48">
-        <f>ROUND((($B$1/100)*$F48*(P$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(P$2/5)),0)</f>
-        <v>111</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
       <c r="Q48">
-        <f>ROUND((($B$1/100)*$F48*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F48/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
     </row>
@@ -10601,47 +10800,47 @@
         <v>46</v>
       </c>
       <c r="G49">
-        <f>ROUND((($B$1/100)*$F49*(G$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(G$2/5)),0)</f>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H49">
-        <f>ROUND((($B$1/100)*$F49*(H$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(H$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="I49">
-        <f>ROUND((($B$1/100)*$F49*(I$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(I$2/5)),0)</f>
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="J49">
-        <f>ROUND((($B$1/100)*$F49*(J$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(J$2/5)),0)</f>
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="K49">
-        <f>ROUND((($B$1/100)*$F49*(K$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(K$2/5)),0)</f>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>64</v>
       </c>
       <c r="L49">
-        <f>ROUND((($B$1/100)*$F49*(L$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(L$2/5)),0)</f>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
       <c r="M49">
-        <f>ROUND((($B$1/100)*$F49*(M$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(M$2/5)),0)</f>
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="N49">
-        <f>ROUND((($B$1/100)*$F49*(N$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="O49">
-        <f>ROUND((($B$1/100)*$F49*(O$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(O$2/5)),0)</f>
-        <v>109</v>
-      </c>
       <c r="P49">
-        <f>ROUND((($B$1/100)*$F49*(P$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(P$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="5"/>
+        <v>111</v>
       </c>
       <c r="Q49">
-        <f>ROUND((($B$1/100)*$F49*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F49/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
     </row>
@@ -10650,47 +10849,47 @@
         <v>47</v>
       </c>
       <c r="G50">
-        <f>ROUND((($B$1/100)*$F50*(G$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(G$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H50">
-        <f>ROUND((($B$1/100)*$F50*(H$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(H$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="I50">
-        <f>ROUND((($B$1/100)*$F50*(I$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(I$2/5)),0)</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="J50">
-        <f>ROUND((($B$1/100)*$F50*(J$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(J$2/5)),0)</f>
-        <v>74</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="K50">
-        <f>ROUND((($B$1/100)*$F50*(K$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(K$2/5)),0)</f>
-        <v>85</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="L50">
-        <f>ROUND((($B$1/100)*$F50*(L$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(L$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>78</v>
       </c>
       <c r="M50">
-        <f>ROUND((($B$1/100)*$F50*(M$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(M$2/5)),0)</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>88</v>
       </c>
       <c r="N50">
-        <f>ROUND((($B$1/100)*$F50*(N$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="O50">
-        <f>ROUND((($B$1/100)*$F50*(O$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(O$2/5)),0)</f>
-        <v>111</v>
-      </c>
       <c r="P50">
-        <f>ROUND((($B$1/100)*$F50*(P$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(P$2/5)),0)</f>
-        <v>115</v>
+        <f t="shared" si="5"/>
+        <v>113</v>
       </c>
       <c r="Q50">
-        <f>ROUND((($B$1/100)*$F50*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F50/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
     </row>
@@ -10699,47 +10898,47 @@
         <v>48</v>
       </c>
       <c r="G51">
-        <f>ROUND((($B$1/100)*$F51*(G$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(G$2/5)),0)</f>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H51">
-        <f>ROUND((($B$1/100)*$F51*(H$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(H$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="I51">
-        <f>ROUND((($B$1/100)*$F51*(I$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(I$2/5)),0)</f>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="J51">
-        <f>ROUND((($B$1/100)*$F51*(J$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(J$2/5)),0)</f>
-        <v>76</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="K51">
-        <f>ROUND((($B$1/100)*$F51*(K$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(K$2/5)),0)</f>
-        <v>87</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="L51">
-        <f>ROUND((($B$1/100)*$F51*(L$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(L$2/5)),0)</f>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="M51">
-        <f>ROUND((($B$1/100)*$F51*(M$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(M$2/5)),0)</f>
-        <v>102</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="N51">
-        <f>ROUND((($B$1/100)*$F51*(N$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="O51">
-        <f>ROUND((($B$1/100)*$F51*(O$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(O$2/5)),0)</f>
-        <v>113</v>
-      </c>
       <c r="P51">
-        <f>ROUND((($B$1/100)*$F51*(P$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(P$2/5)),0)</f>
-        <v>118</v>
+        <f t="shared" si="5"/>
+        <v>115</v>
       </c>
       <c r="Q51">
-        <f>ROUND((($B$1/100)*$F51*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F51/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
     </row>
@@ -10748,47 +10947,47 @@
         <v>49</v>
       </c>
       <c r="G52">
-        <f>ROUND((($B$1/100)*$F52*(G$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(G$2/5)),0)</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H52">
-        <f>ROUND((($B$1/100)*$F52*(H$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(H$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
       <c r="I52">
-        <f>ROUND((($B$1/100)*$F52*(I$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(I$2/5)),0)</f>
-        <v>62</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="J52">
-        <f>ROUND((($B$1/100)*$F52*(J$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(J$2/5)),0)</f>
-        <v>77</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="K52">
-        <f>ROUND((($B$1/100)*$F52*(K$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(K$2/5)),0)</f>
-        <v>89</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="L52">
-        <f>ROUND((($B$1/100)*$F52*(L$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(L$2/5)),0)</f>
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="M52">
-        <f>ROUND((($B$1/100)*$F52*(M$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(M$2/5)),0)</f>
-        <v>104</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="N52">
-        <f>ROUND((($B$1/100)*$F52*(N$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="O52">
-        <f>ROUND((($B$1/100)*$F52*(O$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(O$2/5)),0)</f>
-        <v>115</v>
-      </c>
       <c r="P52">
-        <f>ROUND((($B$1/100)*$F52*(P$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(P$2/5)),0)</f>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>118</v>
       </c>
       <c r="Q52">
-        <f>ROUND((($B$1/100)*$F52*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F52/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
     </row>
@@ -10797,47 +10996,47 @@
         <v>50</v>
       </c>
       <c r="G53">
-        <f>ROUND((($B$1/100)*$F53*(G$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(G$2/5)),0)</f>
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H53">
-        <f>ROUND((($B$1/100)*$F53*(H$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(H$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
       <c r="I53">
-        <f>ROUND((($B$1/100)*$F53*(I$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(I$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="J53">
-        <f>ROUND((($B$1/100)*$F53*(J$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(J$2/5)),0)</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="K53">
-        <f>ROUND((($B$1/100)*$F53*(K$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(K$2/5)),0)</f>
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="L53">
-        <f>ROUND((($B$1/100)*$F53*(L$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(L$2/5)),0)</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>83</v>
       </c>
       <c r="M53">
-        <f>ROUND((($B$1/100)*$F53*(M$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(M$2/5)),0)</f>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>94</v>
       </c>
       <c r="N53">
-        <f>ROUND((($B$1/100)*$F53*(N$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="O53">
-        <f>ROUND((($B$1/100)*$F53*(O$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(O$2/5)),0)</f>
-        <v>119</v>
-      </c>
       <c r="P53">
-        <f>ROUND((($B$1/100)*$F53*(P$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(P$2/5)),0)</f>
-        <v>123</v>
+        <f t="shared" si="5"/>
+        <v>121</v>
       </c>
       <c r="Q53">
-        <f>ROUND((($B$1/100)*$F53*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F53/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
     </row>
@@ -10846,47 +11045,47 @@
         <v>51</v>
       </c>
       <c r="G54">
-        <f>ROUND((($B$1/100)*$F54*(G$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(G$2/5)),0)</f>
-        <v>26</v>
+        <f t="shared" ref="G54:Q63" si="6">ROUND((($B$1/100)*$F54*(G$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(G$2/5)),0)</f>
+        <v>19</v>
       </c>
       <c r="H54">
-        <f>ROUND((($B$1/100)*$F54*(H$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(H$2/5)),0)</f>
-        <v>48</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="I54">
-        <f>ROUND((($B$1/100)*$F54*(I$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(I$2/5)),0)</f>
-        <v>65</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="J54">
-        <f>ROUND((($B$1/100)*$F54*(J$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(J$2/5)),0)</f>
-        <v>81</v>
+        <f t="shared" si="6"/>
+        <v>58</v>
       </c>
       <c r="K54">
-        <f>ROUND((($B$1/100)*$F54*(K$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(K$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>71</v>
       </c>
       <c r="L54">
-        <f>ROUND((($B$1/100)*$F54*(L$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(L$2/5)),0)</f>
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>84</v>
       </c>
       <c r="M54">
-        <f>ROUND((($B$1/100)*$F54*(M$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(M$2/5)),0)</f>
-        <v>109</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="N54">
-        <f>ROUND((($B$1/100)*$F54*(N$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="O54">
-        <f>ROUND((($B$1/100)*$F54*(O$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(O$2/5)),0)</f>
-        <v>121</v>
-      </c>
       <c r="P54">
-        <f>ROUND((($B$1/100)*$F54*(P$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(P$2/5)),0)</f>
-        <v>126</v>
+        <f t="shared" si="6"/>
+        <v>123</v>
       </c>
       <c r="Q54">
-        <f>ROUND((($B$1/100)*$F54*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F54/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
     </row>
@@ -10895,47 +11094,47 @@
         <v>52</v>
       </c>
       <c r="G55">
-        <f>ROUND((($B$1/100)*$F55*(G$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(G$2/5)),0)</f>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="H55">
-        <f>ROUND((($B$1/100)*$F55*(H$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(H$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="I55">
-        <f>ROUND((($B$1/100)*$F55*(I$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(I$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="J55">
-        <f>ROUND((($B$1/100)*$F55*(J$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(J$2/5)),0)</f>
-        <v>82</v>
+        <f t="shared" si="6"/>
+        <v>59</v>
       </c>
       <c r="K55">
-        <f>ROUND((($B$1/100)*$F55*(K$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(K$2/5)),0)</f>
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="L55">
-        <f>ROUND((($B$1/100)*$F55*(L$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(L$2/5)),0)</f>
-        <v>103</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
       <c r="M55">
-        <f>ROUND((($B$1/100)*$F55*(M$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(M$2/5)),0)</f>
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
       <c r="N55">
-        <f>ROUND((($B$1/100)*$F55*(N$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="O55">
-        <f>ROUND((($B$1/100)*$F55*(O$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(O$2/5)),0)</f>
-        <v>123</v>
-      </c>
       <c r="P55">
-        <f>ROUND((($B$1/100)*$F55*(P$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(P$2/5)),0)</f>
-        <v>128</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="Q55">
-        <f>ROUND((($B$1/100)*$F55*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F55/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
     </row>
@@ -10944,47 +11143,47 @@
         <v>53</v>
       </c>
       <c r="G56">
-        <f>ROUND((($B$1/100)*$F56*(G$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(G$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="H56">
-        <f>ROUND((($B$1/100)*$F56*(H$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(H$2/5)),0)</f>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="I56">
-        <f>ROUND((($B$1/100)*$F56*(I$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(I$2/5)),0)</f>
-        <v>67</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="J56">
-        <f>ROUND((($B$1/100)*$F56*(J$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(J$2/5)),0)</f>
-        <v>84</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="K56">
-        <f>ROUND((($B$1/100)*$F56*(K$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(K$2/5)),0)</f>
-        <v>96</v>
+        <f t="shared" si="6"/>
+        <v>74</v>
       </c>
       <c r="L56">
-        <f>ROUND((($B$1/100)*$F56*(L$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(L$2/5)),0)</f>
-        <v>105</v>
+        <f t="shared" si="6"/>
+        <v>87</v>
       </c>
       <c r="M56">
-        <f>ROUND((($B$1/100)*$F56*(M$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(M$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="N56">
-        <f>ROUND((($B$1/100)*$F56*(N$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="O56">
-        <f>ROUND((($B$1/100)*$F56*(O$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(O$2/5)),0)</f>
-        <v>125</v>
-      </c>
       <c r="P56">
-        <f>ROUND((($B$1/100)*$F56*(P$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(P$2/5)),0)</f>
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>128</v>
       </c>
       <c r="Q56">
-        <f>ROUND((($B$1/100)*$F56*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F56/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
     </row>
@@ -10993,47 +11192,47 @@
         <v>54</v>
       </c>
       <c r="G57">
-        <f>ROUND((($B$1/100)*$F57*(G$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(G$2/5)),0)</f>
-        <v>27</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="H57">
-        <f>ROUND((($B$1/100)*$F57*(H$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(H$2/5)),0)</f>
-        <v>51</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="I57">
-        <f>ROUND((($B$1/100)*$F57*(I$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(I$2/5)),0)</f>
-        <v>68</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
       <c r="J57">
-        <f>ROUND((($B$1/100)*$F57*(J$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(J$2/5)),0)</f>
-        <v>85</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
       <c r="K57">
-        <f>ROUND((($B$1/100)*$F57*(K$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(K$2/5)),0)</f>
-        <v>98</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="L57">
-        <f>ROUND((($B$1/100)*$F57*(L$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(L$2/5)),0)</f>
-        <v>107</v>
+        <f t="shared" si="6"/>
+        <v>89</v>
       </c>
       <c r="M57">
-        <f>ROUND((($B$1/100)*$F57*(M$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(M$2/5)),0)</f>
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>101</v>
       </c>
       <c r="N57">
-        <f>ROUND((($B$1/100)*$F57*(N$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="O57">
-        <f>ROUND((($B$1/100)*$F57*(O$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(O$2/5)),0)</f>
-        <v>127</v>
-      </c>
       <c r="P57">
-        <f>ROUND((($B$1/100)*$F57*(P$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(P$2/5)),0)</f>
-        <v>132</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="Q57">
-        <f>ROUND((($B$1/100)*$F57*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F57/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
     </row>
@@ -11042,47 +11241,47 @@
         <v>55</v>
       </c>
       <c r="G58">
-        <f>ROUND((($B$1/100)*$F58*(G$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(G$2/5)),0)</f>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="H58">
-        <f>ROUND((($B$1/100)*$F58*(H$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(H$2/5)),0)</f>
-        <v>52</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="I58">
-        <f>ROUND((($B$1/100)*$F58*(I$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(I$2/5)),0)</f>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="J58">
-        <f>ROUND((($B$1/100)*$F58*(J$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(J$2/5)),0)</f>
-        <v>88</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
       <c r="K58">
-        <f>ROUND((($B$1/100)*$F58*(K$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(K$2/5)),0)</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="L58">
-        <f>ROUND((($B$1/100)*$F58*(L$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(L$2/5)),0)</f>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
       <c r="M58">
-        <f>ROUND((($B$1/100)*$F58*(M$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(M$2/5)),0)</f>
-        <v>118</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="N58">
-        <f>ROUND((($B$1/100)*$F58*(N$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="O58">
-        <f>ROUND((($B$1/100)*$F58*(O$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(O$2/5)),0)</f>
-        <v>130</v>
-      </c>
       <c r="P58">
-        <f>ROUND((($B$1/100)*$F58*(P$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(P$2/5)),0)</f>
-        <v>136</v>
+        <f t="shared" si="6"/>
+        <v>133</v>
       </c>
       <c r="Q58">
-        <f>ROUND((($B$1/100)*$F58*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F58/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
@@ -11091,47 +11290,47 @@
         <v>56</v>
       </c>
       <c r="G59">
-        <f>ROUND((($B$1/100)*$F59*(G$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(G$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="H59">
-        <f>ROUND((($B$1/100)*$F59*(H$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(H$2/5)),0)</f>
-        <v>53</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="I59">
-        <f>ROUND((($B$1/100)*$F59*(I$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(I$2/5)),0)</f>
-        <v>71</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="J59">
-        <f>ROUND((($B$1/100)*$F59*(J$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(J$2/5)),0)</f>
-        <v>89</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
       <c r="K59">
-        <f>ROUND((($B$1/100)*$F59*(K$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(K$2/5)),0)</f>
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>78</v>
       </c>
       <c r="L59">
-        <f>ROUND((($B$1/100)*$F59*(L$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(L$2/5)),0)</f>
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="M59">
-        <f>ROUND((($B$1/100)*$F59*(M$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(M$2/5)),0)</f>
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="N59">
-        <f>ROUND((($B$1/100)*$F59*(N$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="O59">
-        <f>ROUND((($B$1/100)*$F59*(O$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(O$2/5)),0)</f>
-        <v>133</v>
-      </c>
       <c r="P59">
-        <f>ROUND((($B$1/100)*$F59*(P$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(P$2/5)),0)</f>
-        <v>138</v>
+        <f t="shared" si="6"/>
+        <v>135</v>
       </c>
       <c r="Q59">
-        <f>ROUND((($B$1/100)*$F59*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F59/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
     </row>
@@ -11140,47 +11339,47 @@
         <v>57</v>
       </c>
       <c r="G60">
-        <f>ROUND((($B$1/100)*$F60*(G$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(G$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="H60">
-        <f>ROUND((($B$1/100)*$F60*(H$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(H$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="I60">
-        <f>ROUND((($B$1/100)*$F60*(I$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(I$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="J60">
-        <f>ROUND((($B$1/100)*$F60*(J$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(J$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="K60">
-        <f>ROUND((($B$1/100)*$F60*(K$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(K$2/5)),0)</f>
-        <v>104</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="L60">
-        <f>ROUND((($B$1/100)*$F60*(L$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(L$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>94</v>
       </c>
       <c r="M60">
-        <f>ROUND((($B$1/100)*$F60*(M$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(M$2/5)),0)</f>
-        <v>122</v>
+        <f t="shared" si="6"/>
+        <v>107</v>
       </c>
       <c r="N60">
-        <f>ROUND((($B$1/100)*$F60*(N$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="O60">
-        <f>ROUND((($B$1/100)*$F60*(O$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(O$2/5)),0)</f>
-        <v>135</v>
-      </c>
       <c r="P60">
-        <f>ROUND((($B$1/100)*$F60*(P$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(P$2/5)),0)</f>
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>138</v>
       </c>
       <c r="Q60">
-        <f>ROUND((($B$1/100)*$F60*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F60/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
     </row>
@@ -11189,47 +11388,47 @@
         <v>58</v>
       </c>
       <c r="G61">
-        <f>ROUND((($B$1/100)*$F61*(G$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(G$2/5)),0)</f>
-        <v>29</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="H61">
-        <f>ROUND((($B$1/100)*$F61*(H$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(H$2/5)),0)</f>
-        <v>54</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="I61">
-        <f>ROUND((($B$1/100)*$F61*(I$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(I$2/5)),0)</f>
-        <v>74</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="J61">
-        <f>ROUND((($B$1/100)*$F61*(J$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(J$2/5)),0)</f>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>66</v>
       </c>
       <c r="K61">
-        <f>ROUND((($B$1/100)*$F61*(K$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(K$2/5)),0)</f>
-        <v>105</v>
+        <f t="shared" si="6"/>
+        <v>81</v>
       </c>
       <c r="L61">
-        <f>ROUND((($B$1/100)*$F61*(L$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(L$2/5)),0)</f>
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="M61">
-        <f>ROUND((($B$1/100)*$F61*(M$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(M$2/5)),0)</f>
-        <v>124</v>
+        <f t="shared" si="6"/>
+        <v>109</v>
       </c>
       <c r="N61">
-        <f>ROUND((($B$1/100)*$F61*(N$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="O61">
-        <f>ROUND((($B$1/100)*$F61*(O$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(O$2/5)),0)</f>
-        <v>137</v>
-      </c>
       <c r="P61">
-        <f>ROUND((($B$1/100)*$F61*(P$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(P$2/5)),0)</f>
-        <v>142</v>
+        <f t="shared" si="6"/>
+        <v>140</v>
       </c>
       <c r="Q61">
-        <f>ROUND((($B$1/100)*$F61*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F61/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
     </row>
@@ -11238,47 +11437,47 @@
         <v>59</v>
       </c>
       <c r="G62">
-        <f>ROUND((($B$1/100)*$F62*(G$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(G$2/5)),0)</f>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="H62">
-        <f>ROUND((($B$1/100)*$F62*(H$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(H$2/5)),0)</f>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="I62">
-        <f>ROUND((($B$1/100)*$F62*(I$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(I$2/5)),0)</f>
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>52</v>
       </c>
       <c r="J62">
-        <f>ROUND((($B$1/100)*$F62*(J$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(J$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
       </c>
       <c r="K62">
-        <f>ROUND((($B$1/100)*$F62*(K$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(K$2/5)),0)</f>
-        <v>107</v>
+        <f t="shared" si="6"/>
+        <v>82</v>
       </c>
       <c r="L62">
-        <f>ROUND((($B$1/100)*$F62*(L$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(L$2/5)),0)</f>
-        <v>117</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
       <c r="M62">
-        <f>ROUND((($B$1/100)*$F62*(M$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(M$2/5)),0)</f>
-        <v>126</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
       <c r="N62">
-        <f>ROUND((($B$1/100)*$F62*(N$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="O62">
-        <f>ROUND((($B$1/100)*$F62*(O$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(O$2/5)),0)</f>
-        <v>139</v>
-      </c>
       <c r="P62">
-        <f>ROUND((($B$1/100)*$F62*(P$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(P$2/5)),0)</f>
-        <v>144</v>
+        <f t="shared" si="6"/>
+        <v>142</v>
       </c>
       <c r="Q62">
-        <f>ROUND((($B$1/100)*$F62*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F62/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
     </row>
@@ -11287,47 +11486,47 @@
         <v>60</v>
       </c>
       <c r="G63">
-        <f>ROUND((($B$1/100)*$F63*(G$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(G$2/5)),0)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="H63">
-        <f>ROUND((($B$1/100)*$F63*(H$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(H$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="I63">
-        <f>ROUND((($B$1/100)*$F63*(I$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(I$2/5)),0)</f>
-        <v>77</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="J63">
-        <f>ROUND((($B$1/100)*$F63*(J$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(J$2/5)),0)</f>
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
       <c r="K63">
-        <f>ROUND((($B$1/100)*$F63*(K$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(K$2/5)),0)</f>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>84</v>
       </c>
       <c r="L63">
-        <f>ROUND((($B$1/100)*$F63*(L$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(L$2/5)),0)</f>
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="M63">
-        <f>ROUND((($B$1/100)*$F63*(M$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(M$2/5)),0)</f>
-        <v>129</v>
+        <f t="shared" si="6"/>
+        <v>113</v>
       </c>
       <c r="N63">
-        <f>ROUND((($B$1/100)*$F63*(N$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
-      <c r="O63">
-        <f>ROUND((($B$1/100)*$F63*(O$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(O$2/5)),0)</f>
-        <v>142</v>
-      </c>
       <c r="P63">
-        <f>ROUND((($B$1/100)*$F63*(P$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(P$2/5)),0)</f>
-        <v>148</v>
+        <f t="shared" si="6"/>
+        <v>145</v>
       </c>
       <c r="Q63">
-        <f>ROUND((($B$1/100)*$F63*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F63/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
     </row>
@@ -11336,47 +11535,47 @@
         <v>61</v>
       </c>
       <c r="G64">
-        <f>ROUND((($B$1/100)*$F64*(G$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(G$2/5)),0)</f>
-        <v>31</v>
+        <f t="shared" ref="G64:Q73" si="7">ROUND((($B$1/100)*$F64*(G$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(G$2/5)),0)</f>
+        <v>23</v>
       </c>
       <c r="H64">
-        <f>ROUND((($B$1/100)*$F64*(H$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(H$2/5)),0)</f>
-        <v>57</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="I64">
-        <f>ROUND((($B$1/100)*$F64*(I$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(I$2/5)),0)</f>
-        <v>78</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="J64">
-        <f>ROUND((($B$1/100)*$F64*(J$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(J$2/5)),0)</f>
-        <v>97</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
       <c r="K64">
-        <f>ROUND((($B$1/100)*$F64*(K$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(K$2/5)),0)</f>
-        <v>111</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
       <c r="L64">
-        <f>ROUND((($B$1/100)*$F64*(L$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(L$2/5)),0)</f>
-        <v>122</v>
+        <f t="shared" si="7"/>
+        <v>101</v>
       </c>
       <c r="M64">
-        <f>ROUND((($B$1/100)*$F64*(M$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(M$2/5)),0)</f>
-        <v>131</v>
+        <f t="shared" si="7"/>
+        <v>115</v>
       </c>
       <c r="N64">
-        <f>ROUND((($B$1/100)*$F64*(N$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="O64">
-        <f>ROUND((($B$1/100)*$F64*(O$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(O$2/5)),0)</f>
-        <v>144</v>
-      </c>
       <c r="P64">
-        <f>ROUND((($B$1/100)*$F64*(P$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(P$2/5)),0)</f>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>147</v>
       </c>
       <c r="Q64">
-        <f>ROUND((($B$1/100)*$F64*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F64/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
     </row>
@@ -11385,47 +11584,47 @@
         <v>62</v>
       </c>
       <c r="G65">
-        <f>ROUND((($B$1/100)*$F65*(G$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(G$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="H65">
-        <f>ROUND((($B$1/100)*$F65*(H$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(H$2/5)),0)</f>
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="I65">
-        <f>ROUND((($B$1/100)*$F65*(I$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(I$2/5)),0)</f>
-        <v>79</v>
+        <f t="shared" si="7"/>
+        <v>55</v>
       </c>
       <c r="J65">
-        <f>ROUND((($B$1/100)*$F65*(J$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(J$2/5)),0)</f>
-        <v>98</v>
+        <f t="shared" si="7"/>
+        <v>71</v>
       </c>
       <c r="K65">
-        <f>ROUND((($B$1/100)*$F65*(K$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(K$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="7"/>
+        <v>87</v>
       </c>
       <c r="L65">
-        <f>ROUND((($B$1/100)*$F65*(L$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(L$2/5)),0)</f>
-        <v>123</v>
+        <f t="shared" si="7"/>
+        <v>102</v>
       </c>
       <c r="M65">
-        <f>ROUND((($B$1/100)*$F65*(M$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(M$2/5)),0)</f>
-        <v>133</v>
+        <f t="shared" si="7"/>
+        <v>117</v>
       </c>
       <c r="N65">
-        <f>ROUND((($B$1/100)*$F65*(N$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="O65">
-        <f>ROUND((($B$1/100)*$F65*(O$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(O$2/5)),0)</f>
-        <v>146</v>
-      </c>
       <c r="P65">
-        <f>ROUND((($B$1/100)*$F65*(P$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(P$2/5)),0)</f>
-        <v>152</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="Q65">
-        <f>ROUND((($B$1/100)*$F65*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F65/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
     </row>
@@ -11434,47 +11633,47 @@
         <v>63</v>
       </c>
       <c r="G66">
-        <f>ROUND((($B$1/100)*$F66*(G$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(G$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="H66">
-        <f>ROUND((($B$1/100)*$F66*(H$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(H$2/5)),0)</f>
-        <v>59</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="I66">
-        <f>ROUND((($B$1/100)*$F66*(I$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(I$2/5)),0)</f>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="J66">
-        <f>ROUND((($B$1/100)*$F66*(J$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(J$2/5)),0)</f>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="K66">
-        <f>ROUND((($B$1/100)*$F66*(K$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(K$2/5)),0)</f>
-        <v>114</v>
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
       <c r="L66">
-        <f>ROUND((($B$1/100)*$F66*(L$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(L$2/5)),0)</f>
-        <v>125</v>
+        <f t="shared" si="7"/>
+        <v>104</v>
       </c>
       <c r="M66">
-        <f>ROUND((($B$1/100)*$F66*(M$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(M$2/5)),0)</f>
-        <v>135</v>
+        <f t="shared" si="7"/>
+        <v>118</v>
       </c>
       <c r="N66">
-        <f>ROUND((($B$1/100)*$F66*(N$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
-      <c r="O66">
-        <f>ROUND((($B$1/100)*$F66*(O$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(O$2/5)),0)</f>
-        <v>149</v>
-      </c>
       <c r="P66">
-        <f>ROUND((($B$1/100)*$F66*(P$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(P$2/5)),0)</f>
-        <v>155</v>
+        <f t="shared" si="7"/>
+        <v>152</v>
       </c>
       <c r="Q66">
-        <f>ROUND((($B$1/100)*$F66*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F66/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
     </row>
@@ -11483,47 +11682,47 @@
         <v>64</v>
       </c>
       <c r="G67">
-        <f>ROUND((($B$1/100)*$F67*(G$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(G$2/5)),0)</f>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="H67">
-        <f>ROUND((($B$1/100)*$F67*(H$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(H$2/5)),0)</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="I67">
-        <f>ROUND((($B$1/100)*$F67*(I$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(I$2/5)),0)</f>
-        <v>81</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="J67">
-        <f>ROUND((($B$1/100)*$F67*(J$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(J$2/5)),0)</f>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>73</v>
       </c>
       <c r="K67">
-        <f>ROUND((($B$1/100)*$F67*(K$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(K$2/5)),0)</f>
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>89</v>
       </c>
       <c r="L67">
-        <f>ROUND((($B$1/100)*$F67*(L$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(L$2/5)),0)</f>
-        <v>127</v>
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="M67">
-        <f>ROUND((($B$1/100)*$F67*(M$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(M$2/5)),0)</f>
-        <v>136</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="N67">
-        <f>ROUND((($B$1/100)*$F67*(N$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="O67">
-        <f>ROUND((($B$1/100)*$F67*(O$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(O$2/5)),0)</f>
-        <v>151</v>
-      </c>
       <c r="P67">
-        <f>ROUND((($B$1/100)*$F67*(P$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(P$2/5)),0)</f>
-        <v>157</v>
+        <f t="shared" si="7"/>
+        <v>154</v>
       </c>
       <c r="Q67">
-        <f>ROUND((($B$1/100)*$F67*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F67/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
     </row>
@@ -11532,47 +11731,47 @@
         <v>65</v>
       </c>
       <c r="G68">
-        <f>ROUND((($B$1/100)*$F68*(G$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(G$2/5)),0)</f>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="H68">
-        <f>ROUND((($B$1/100)*$F68*(H$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(H$2/5)),0)</f>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="I68">
-        <f>ROUND((($B$1/100)*$F68*(I$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(I$2/5)),0)</f>
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>58</v>
       </c>
       <c r="J68">
-        <f>ROUND((($B$1/100)*$F68*(J$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(J$2/5)),0)</f>
-        <v>103</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
       <c r="K68">
-        <f>ROUND((($B$1/100)*$F68*(K$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(K$2/5)),0)</f>
-        <v>119</v>
+        <f t="shared" si="7"/>
+        <v>91</v>
       </c>
       <c r="L68">
-        <f>ROUND((($B$1/100)*$F68*(L$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(L$2/5)),0)</f>
-        <v>130</v>
+        <f t="shared" si="7"/>
+        <v>108</v>
       </c>
       <c r="M68">
-        <f>ROUND((($B$1/100)*$F68*(M$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(M$2/5)),0)</f>
-        <v>140</v>
+        <f t="shared" si="7"/>
+        <v>123</v>
       </c>
       <c r="N68">
-        <f>ROUND((($B$1/100)*$F68*(N$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="O68">
-        <f>ROUND((($B$1/100)*$F68*(O$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(O$2/5)),0)</f>
-        <v>154</v>
-      </c>
       <c r="P68">
-        <f>ROUND((($B$1/100)*$F68*(P$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(P$2/5)),0)</f>
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>157</v>
       </c>
       <c r="Q68">
-        <f>ROUND((($B$1/100)*$F68*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F68/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
     </row>
@@ -11581,47 +11780,47 @@
         <v>66</v>
       </c>
       <c r="G69">
-        <f>ROUND((($B$1/100)*$F69*(G$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(G$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="H69">
-        <f>ROUND((($B$1/100)*$F69*(H$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(H$2/5)),0)</f>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="I69">
-        <f>ROUND((($B$1/100)*$F69*(I$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(I$2/5)),0)</f>
-        <v>84</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
       <c r="J69">
-        <f>ROUND((($B$1/100)*$F69*(J$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(J$2/5)),0)</f>
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>76</v>
       </c>
       <c r="K69">
-        <f>ROUND((($B$1/100)*$F69*(K$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(K$2/5)),0)</f>
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="L69">
-        <f>ROUND((($B$1/100)*$F69*(L$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(L$2/5)),0)</f>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>109</v>
       </c>
       <c r="M69">
-        <f>ROUND((($B$1/100)*$F69*(M$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(M$2/5)),0)</f>
-        <v>141</v>
+        <f t="shared" si="7"/>
+        <v>124</v>
       </c>
       <c r="N69">
-        <f>ROUND((($B$1/100)*$F69*(N$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="O69">
-        <f>ROUND((($B$1/100)*$F69*(O$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(O$2/5)),0)</f>
-        <v>156</v>
-      </c>
       <c r="P69">
-        <f>ROUND((($B$1/100)*$F69*(P$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(P$2/5)),0)</f>
-        <v>163</v>
+        <f t="shared" si="7"/>
+        <v>160</v>
       </c>
       <c r="Q69">
-        <f>ROUND((($B$1/100)*$F69*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F69/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
     </row>
@@ -11630,47 +11829,47 @@
         <v>67</v>
       </c>
       <c r="G70">
-        <f>ROUND((($B$1/100)*$F70*(G$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(G$2/5)),0)</f>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="H70">
-        <f>ROUND((($B$1/100)*$F70*(H$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(H$2/5)),0)</f>
-        <v>63</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="I70">
-        <f>ROUND((($B$1/100)*$F70*(I$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(I$2/5)),0)</f>
-        <v>85</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="J70">
-        <f>ROUND((($B$1/100)*$F70*(J$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(J$2/5)),0)</f>
-        <v>106</v>
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
       <c r="K70">
-        <f>ROUND((($B$1/100)*$F70*(K$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(K$2/5)),0)</f>
-        <v>122</v>
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="L70">
-        <f>ROUND((($B$1/100)*$F70*(L$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(L$2/5)),0)</f>
-        <v>133</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
       <c r="M70">
-        <f>ROUND((($B$1/100)*$F70*(M$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(M$2/5)),0)</f>
-        <v>143</v>
+        <f t="shared" si="7"/>
+        <v>126</v>
       </c>
       <c r="N70">
-        <f>ROUND((($B$1/100)*$F70*(N$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="O70">
-        <f>ROUND((($B$1/100)*$F70*(O$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(O$2/5)),0)</f>
-        <v>158</v>
-      </c>
       <c r="P70">
-        <f>ROUND((($B$1/100)*$F70*(P$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(P$2/5)),0)</f>
-        <v>165</v>
+        <f t="shared" si="7"/>
+        <v>162</v>
       </c>
       <c r="Q70">
-        <f>ROUND((($B$1/100)*$F70*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F70/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
     </row>
@@ -11679,47 +11878,47 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <f>ROUND((($B$1/100)*$F71*(G$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(G$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="H71">
-        <f>ROUND((($B$1/100)*$F71*(H$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(H$2/5)),0)</f>
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="I71">
-        <f>ROUND((($B$1/100)*$F71*(I$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(I$2/5)),0)</f>
-        <v>86</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="J71">
-        <f>ROUND((($B$1/100)*$F71*(J$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(J$2/5)),0)</f>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="K71">
-        <f>ROUND((($B$1/100)*$F71*(K$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(K$2/5)),0)</f>
-        <v>124</v>
+        <f t="shared" si="7"/>
+        <v>95</v>
       </c>
       <c r="L71">
-        <f>ROUND((($B$1/100)*$F71*(L$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(L$2/5)),0)</f>
-        <v>135</v>
+        <f t="shared" si="7"/>
+        <v>112</v>
       </c>
       <c r="M71">
-        <f>ROUND((($B$1/100)*$F71*(M$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(M$2/5)),0)</f>
-        <v>145</v>
+        <f t="shared" si="7"/>
+        <v>128</v>
       </c>
       <c r="N71">
-        <f>ROUND((($B$1/100)*$F71*(N$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="O71">
-        <f>ROUND((($B$1/100)*$F71*(O$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(O$2/5)),0)</f>
-        <v>160</v>
-      </c>
       <c r="P71">
-        <f>ROUND((($B$1/100)*$F71*(P$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(P$2/5)),0)</f>
-        <v>167</v>
+        <f t="shared" si="7"/>
+        <v>164</v>
       </c>
       <c r="Q71">
-        <f>ROUND((($B$1/100)*$F71*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F71/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
     </row>
@@ -11728,47 +11927,47 @@
         <v>69</v>
       </c>
       <c r="G72">
-        <f>ROUND((($B$1/100)*$F72*(G$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(G$2/5)),0)</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="H72">
-        <f>ROUND((($B$1/100)*$F72*(H$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(H$2/5)),0)</f>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="I72">
-        <f>ROUND((($B$1/100)*$F72*(I$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(I$2/5)),0)</f>
-        <v>87</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="J72">
-        <f>ROUND((($B$1/100)*$F72*(J$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(J$2/5)),0)</f>
-        <v>109</v>
+        <f t="shared" si="7"/>
+        <v>79</v>
       </c>
       <c r="K72">
-        <f>ROUND((($B$1/100)*$F72*(K$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(K$2/5)),0)</f>
-        <v>125</v>
+        <f t="shared" si="7"/>
+        <v>96</v>
       </c>
       <c r="L72">
-        <f>ROUND((($B$1/100)*$F72*(L$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(L$2/5)),0)</f>
-        <v>137</v>
+        <f t="shared" si="7"/>
+        <v>114</v>
       </c>
       <c r="M72">
-        <f>ROUND((($B$1/100)*$F72*(M$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(M$2/5)),0)</f>
-        <v>147</v>
+        <f t="shared" si="7"/>
+        <v>129</v>
       </c>
       <c r="N72">
-        <f>ROUND((($B$1/100)*$F72*(N$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="O72">
-        <f>ROUND((($B$1/100)*$F72*(O$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(O$2/5)),0)</f>
-        <v>163</v>
-      </c>
       <c r="P72">
-        <f>ROUND((($B$1/100)*$F72*(P$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(P$2/5)),0)</f>
-        <v>169</v>
+        <f t="shared" si="7"/>
+        <v>166</v>
       </c>
       <c r="Q72">
-        <f>ROUND((($B$1/100)*$F72*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F72/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
     </row>
@@ -11777,47 +11976,47 @@
         <v>70</v>
       </c>
       <c r="G73">
-        <f>ROUND((($B$1/100)*$F73*(G$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(G$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="H73">
-        <f>ROUND((($B$1/100)*$F73*(H$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(H$2/5)),0)</f>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="I73">
-        <f>ROUND((($B$1/100)*$F73*(I$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(I$2/5)),0)</f>
-        <v>89</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="J73">
-        <f>ROUND((($B$1/100)*$F73*(J$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(J$2/5)),0)</f>
-        <v>111</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="K73">
-        <f>ROUND((($B$1/100)*$F73*(K$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(K$2/5)),0)</f>
-        <v>128</v>
+        <f t="shared" si="7"/>
+        <v>98</v>
       </c>
       <c r="L73">
-        <f>ROUND((($B$1/100)*$F73*(L$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(L$2/5)),0)</f>
-        <v>140</v>
+        <f t="shared" si="7"/>
+        <v>116</v>
       </c>
       <c r="M73">
-        <f>ROUND((($B$1/100)*$F73*(M$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(M$2/5)),0)</f>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>132</v>
       </c>
       <c r="N73">
-        <f>ROUND((($B$1/100)*$F73*(N$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="O73">
-        <f>ROUND((($B$1/100)*$F73*(O$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(O$2/5)),0)</f>
-        <v>166</v>
-      </c>
       <c r="P73">
-        <f>ROUND((($B$1/100)*$F73*(P$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(P$2/5)),0)</f>
-        <v>173</v>
+        <f t="shared" si="7"/>
+        <v>170</v>
       </c>
       <c r="Q73">
-        <f>ROUND((($B$1/100)*$F73*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F73/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
     </row>
@@ -11826,47 +12025,47 @@
         <v>71</v>
       </c>
       <c r="G74">
-        <f>ROUND((($B$1/100)*$F74*(G$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(G$2/5)),0)</f>
-        <v>36</v>
+        <f t="shared" ref="G74:Q83" si="8">ROUND((($B$1/100)*$F74*(G$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(G$2/5)),0)</f>
+        <v>27</v>
       </c>
       <c r="H74">
-        <f>ROUND((($B$1/100)*$F74*(H$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(H$2/5)),0)</f>
-        <v>67</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="I74">
-        <f>ROUND((($B$1/100)*$F74*(I$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(I$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="8"/>
+        <v>63</v>
       </c>
       <c r="J74">
-        <f>ROUND((($B$1/100)*$F74*(J$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(J$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
       <c r="K74">
-        <f>ROUND((($B$1/100)*$F74*(K$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(K$2/5)),0)</f>
-        <v>129</v>
+        <f t="shared" si="8"/>
+        <v>99</v>
       </c>
       <c r="L74">
-        <f>ROUND((($B$1/100)*$F74*(L$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(L$2/5)),0)</f>
-        <v>142</v>
+        <f t="shared" si="8"/>
+        <v>117</v>
       </c>
       <c r="M74">
-        <f>ROUND((($B$1/100)*$F74*(M$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(M$2/5)),0)</f>
-        <v>152</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
       <c r="N74">
-        <f>ROUND((($B$1/100)*$F74*(N$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="O74">
-        <f>ROUND((($B$1/100)*$F74*(O$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(O$2/5)),0)</f>
-        <v>168</v>
-      </c>
       <c r="P74">
-        <f>ROUND((($B$1/100)*$F74*(P$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(P$2/5)),0)</f>
-        <v>175</v>
+        <f t="shared" si="8"/>
+        <v>172</v>
       </c>
       <c r="Q74">
-        <f>ROUND((($B$1/100)*$F74*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F74/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
     </row>
@@ -11875,47 +12074,47 @@
         <v>72</v>
       </c>
       <c r="G75">
-        <f>ROUND((($B$1/100)*$F75*(G$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(G$2/5)),0)</f>
-        <v>37</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="H75">
-        <f>ROUND((($B$1/100)*$F75*(H$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(H$2/5)),0)</f>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
       <c r="I75">
-        <f>ROUND((($B$1/100)*$F75*(I$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(I$2/5)),0)</f>
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
       <c r="J75">
-        <f>ROUND((($B$1/100)*$F75*(J$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(J$2/5)),0)</f>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>82</v>
       </c>
       <c r="K75">
-        <f>ROUND((($B$1/100)*$F75*(K$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(K$2/5)),0)</f>
-        <v>131</v>
+        <f t="shared" si="8"/>
+        <v>101</v>
       </c>
       <c r="L75">
-        <f>ROUND((($B$1/100)*$F75*(L$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(L$2/5)),0)</f>
-        <v>143</v>
+        <f t="shared" si="8"/>
+        <v>119</v>
       </c>
       <c r="M75">
-        <f>ROUND((($B$1/100)*$F75*(M$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(M$2/5)),0)</f>
-        <v>154</v>
+        <f t="shared" si="8"/>
+        <v>135</v>
       </c>
       <c r="N75">
-        <f>ROUND((($B$1/100)*$F75*(N$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="O75">
-        <f>ROUND((($B$1/100)*$F75*(O$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(O$2/5)),0)</f>
-        <v>170</v>
-      </c>
       <c r="P75">
-        <f>ROUND((($B$1/100)*$F75*(P$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(P$2/5)),0)</f>
-        <v>177</v>
+        <f t="shared" si="8"/>
+        <v>174</v>
       </c>
       <c r="Q75">
-        <f>ROUND((($B$1/100)*$F75*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F75/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
     </row>
@@ -11924,47 +12123,47 @@
         <v>73</v>
       </c>
       <c r="G76">
-        <f>ROUND((($B$1/100)*$F76*(G$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(G$2/5)),0)</f>
-        <v>37</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="H76">
-        <f>ROUND((($B$1/100)*$F76*(H$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(H$2/5)),0)</f>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
       <c r="I76">
-        <f>ROUND((($B$1/100)*$F76*(I$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(I$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="8"/>
+        <v>65</v>
       </c>
       <c r="J76">
-        <f>ROUND((($B$1/100)*$F76*(J$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(J$2/5)),0)</f>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>83</v>
       </c>
       <c r="K76">
-        <f>ROUND((($B$1/100)*$F76*(K$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(K$2/5)),0)</f>
-        <v>133</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="L76">
-        <f>ROUND((($B$1/100)*$F76*(L$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(L$2/5)),0)</f>
-        <v>145</v>
+        <f t="shared" si="8"/>
+        <v>120</v>
       </c>
       <c r="M76">
-        <f>ROUND((($B$1/100)*$F76*(M$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(M$2/5)),0)</f>
-        <v>156</v>
+        <f t="shared" si="8"/>
+        <v>137</v>
       </c>
       <c r="N76">
-        <f>ROUND((($B$1/100)*$F76*(N$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="O76">
-        <f>ROUND((($B$1/100)*$F76*(O$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(O$2/5)),0)</f>
-        <v>172</v>
-      </c>
       <c r="P76">
-        <f>ROUND((($B$1/100)*$F76*(P$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(P$2/5)),0)</f>
-        <v>179</v>
+        <f t="shared" si="8"/>
+        <v>176</v>
       </c>
       <c r="Q76">
-        <f>ROUND((($B$1/100)*$F76*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F76/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
     </row>
@@ -11973,47 +12172,47 @@
         <v>74</v>
       </c>
       <c r="G77">
-        <f>ROUND((($B$1/100)*$F77*(G$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(G$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="H77">
-        <f>ROUND((($B$1/100)*$F77*(H$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(H$2/5)),0)</f>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>47</v>
       </c>
       <c r="I77">
-        <f>ROUND((($B$1/100)*$F77*(I$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(I$2/5)),0)</f>
-        <v>94</v>
+        <f t="shared" si="8"/>
+        <v>66</v>
       </c>
       <c r="J77">
-        <f>ROUND((($B$1/100)*$F77*(J$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(J$2/5)),0)</f>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>84</v>
       </c>
       <c r="K77">
-        <f>ROUND((($B$1/100)*$F77*(K$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(K$2/5)),0)</f>
-        <v>134</v>
+        <f t="shared" si="8"/>
+        <v>103</v>
       </c>
       <c r="L77">
-        <f>ROUND((($B$1/100)*$F77*(L$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(L$2/5)),0)</f>
-        <v>147</v>
+        <f t="shared" si="8"/>
+        <v>122</v>
       </c>
       <c r="M77">
-        <f>ROUND((($B$1/100)*$F77*(M$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(M$2/5)),0)</f>
-        <v>158</v>
+        <f t="shared" si="8"/>
+        <v>139</v>
       </c>
       <c r="N77">
-        <f>ROUND((($B$1/100)*$F77*(N$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="O77">
-        <f>ROUND((($B$1/100)*$F77*(O$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(O$2/5)),0)</f>
-        <v>174</v>
-      </c>
       <c r="P77">
-        <f>ROUND((($B$1/100)*$F77*(P$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(P$2/5)),0)</f>
-        <v>182</v>
+        <f t="shared" si="8"/>
+        <v>178</v>
       </c>
       <c r="Q77">
-        <f>ROUND((($B$1/100)*$F77*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F77/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
     </row>
@@ -12022,47 +12221,47 @@
         <v>75</v>
       </c>
       <c r="G78">
-        <f>ROUND((($B$1/100)*$F78*(G$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(G$2/5)),0)</f>
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="H78">
-        <f>ROUND((($B$1/100)*$F78*(H$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(H$2/5)),0)</f>
-        <v>71</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
       <c r="I78">
-        <f>ROUND((($B$1/100)*$F78*(I$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(I$2/5)),0)</f>
-        <v>96</v>
+        <f t="shared" si="8"/>
+        <v>67</v>
       </c>
       <c r="J78">
-        <f>ROUND((($B$1/100)*$F78*(J$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(J$2/5)),0)</f>
-        <v>119</v>
+        <f t="shared" si="8"/>
+        <v>86</v>
       </c>
       <c r="K78">
-        <f>ROUND((($B$1/100)*$F78*(K$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(K$2/5)),0)</f>
-        <v>137</v>
+        <f t="shared" si="8"/>
+        <v>105</v>
       </c>
       <c r="L78">
-        <f>ROUND((($B$1/100)*$F78*(L$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(L$2/5)),0)</f>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
       <c r="M78">
-        <f>ROUND((($B$1/100)*$F78*(M$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(M$2/5)),0)</f>
-        <v>161</v>
+        <f t="shared" si="8"/>
+        <v>142</v>
       </c>
       <c r="N78">
-        <f>ROUND((($B$1/100)*$F78*(N$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="O78">
-        <f>ROUND((($B$1/100)*$F78*(O$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(O$2/5)),0)</f>
-        <v>178</v>
-      </c>
       <c r="P78">
-        <f>ROUND((($B$1/100)*$F78*(P$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(P$2/5)),0)</f>
-        <v>185</v>
+        <f t="shared" si="8"/>
+        <v>182</v>
       </c>
       <c r="Q78">
-        <f>ROUND((($B$1/100)*$F78*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F78/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
     </row>
@@ -12071,47 +12270,47 @@
         <v>76</v>
       </c>
       <c r="G79">
-        <f>ROUND((($B$1/100)*$F79*(G$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(G$2/5)),0)</f>
-        <v>39</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="H79">
-        <f>ROUND((($B$1/100)*$F79*(H$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(H$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
       <c r="I79">
-        <f>ROUND((($B$1/100)*$F79*(I$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(I$2/5)),0)</f>
-        <v>97</v>
+        <f t="shared" si="8"/>
+        <v>68</v>
       </c>
       <c r="J79">
-        <f>ROUND((($B$1/100)*$F79*(J$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(J$2/5)),0)</f>
-        <v>121</v>
+        <f t="shared" si="8"/>
+        <v>87</v>
       </c>
       <c r="K79">
-        <f>ROUND((($B$1/100)*$F79*(K$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(K$2/5)),0)</f>
-        <v>139</v>
+        <f t="shared" si="8"/>
+        <v>106</v>
       </c>
       <c r="L79">
-        <f>ROUND((($B$1/100)*$F79*(L$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(L$2/5)),0)</f>
-        <v>152</v>
+        <f t="shared" si="8"/>
+        <v>126</v>
       </c>
       <c r="M79">
-        <f>ROUND((($B$1/100)*$F79*(M$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(M$2/5)),0)</f>
-        <v>163</v>
+        <f t="shared" si="8"/>
+        <v>143</v>
       </c>
       <c r="N79">
-        <f>ROUND((($B$1/100)*$F79*(N$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="O79">
-        <f>ROUND((($B$1/100)*$F79*(O$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(O$2/5)),0)</f>
-        <v>180</v>
-      </c>
       <c r="P79">
-        <f>ROUND((($B$1/100)*$F79*(P$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(P$2/5)),0)</f>
-        <v>187</v>
+        <f t="shared" si="8"/>
+        <v>184</v>
       </c>
       <c r="Q79">
-        <f>ROUND((($B$1/100)*$F79*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F79/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
     </row>
@@ -12120,47 +12319,47 @@
         <v>77</v>
       </c>
       <c r="G80">
-        <f>ROUND((($B$1/100)*$F80*(G$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(G$2/5)),0)</f>
-        <v>39</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="H80">
-        <f>ROUND((($B$1/100)*$F80*(H$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(H$2/5)),0)</f>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>49</v>
       </c>
       <c r="I80">
-        <f>ROUND((($B$1/100)*$F80*(I$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(I$2/5)),0)</f>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
       <c r="J80">
-        <f>ROUND((($B$1/100)*$F80*(J$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(J$2/5)),0)</f>
-        <v>122</v>
+        <f t="shared" si="8"/>
+        <v>88</v>
       </c>
       <c r="K80">
-        <f>ROUND((($B$1/100)*$F80*(K$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(K$2/5)),0)</f>
-        <v>140</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
       <c r="L80">
-        <f>ROUND((($B$1/100)*$F80*(L$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(L$2/5)),0)</f>
-        <v>153</v>
+        <f t="shared" si="8"/>
+        <v>127</v>
       </c>
       <c r="M80">
-        <f>ROUND((($B$1/100)*$F80*(M$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(M$2/5)),0)</f>
-        <v>165</v>
+        <f t="shared" si="8"/>
+        <v>145</v>
       </c>
       <c r="N80">
-        <f>ROUND((($B$1/100)*$F80*(N$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
-      <c r="O80">
-        <f>ROUND((($B$1/100)*$F80*(O$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(O$2/5)),0)</f>
-        <v>182</v>
-      </c>
       <c r="P80">
-        <f>ROUND((($B$1/100)*$F80*(P$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(P$2/5)),0)</f>
-        <v>189</v>
+        <f t="shared" si="8"/>
+        <v>186</v>
       </c>
       <c r="Q80">
-        <f>ROUND((($B$1/100)*$F80*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F80/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
     </row>
@@ -12169,47 +12368,47 @@
         <v>78</v>
       </c>
       <c r="G81">
-        <f>ROUND((($B$1/100)*$F81*(G$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(G$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="H81">
-        <f>ROUND((($B$1/100)*$F81*(H$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(H$2/5)),0)</f>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
       <c r="I81">
-        <f>ROUND((($B$1/100)*$F81*(I$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(I$2/5)),0)</f>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
       <c r="J81">
-        <f>ROUND((($B$1/100)*$F81*(J$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(J$2/5)),0)</f>
-        <v>124</v>
+        <f t="shared" si="8"/>
+        <v>89</v>
       </c>
       <c r="K81">
-        <f>ROUND((($B$1/100)*$F81*(K$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(K$2/5)),0)</f>
-        <v>142</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
       </c>
       <c r="L81">
-        <f>ROUND((($B$1/100)*$F81*(L$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(L$2/5)),0)</f>
-        <v>155</v>
+        <f t="shared" si="8"/>
+        <v>129</v>
       </c>
       <c r="M81">
-        <f>ROUND((($B$1/100)*$F81*(M$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(M$2/5)),0)</f>
-        <v>167</v>
+        <f t="shared" si="8"/>
+        <v>147</v>
       </c>
       <c r="N81">
-        <f>ROUND((($B$1/100)*$F81*(N$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="O81">
-        <f>ROUND((($B$1/100)*$F81*(O$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(O$2/5)),0)</f>
-        <v>184</v>
-      </c>
       <c r="P81">
-        <f>ROUND((($B$1/100)*$F81*(P$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(P$2/5)),0)</f>
-        <v>192</v>
+        <f t="shared" si="8"/>
+        <v>188</v>
       </c>
       <c r="Q81">
-        <f>ROUND((($B$1/100)*$F81*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F81/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
     </row>
@@ -12218,47 +12417,47 @@
         <v>79</v>
       </c>
       <c r="G82">
-        <f>ROUND((($B$1/100)*$F82*(G$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(G$2/5)),0)</f>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="H82">
-        <f>ROUND((($B$1/100)*$F82*(H$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(H$2/5)),0)</f>
-        <v>74</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
       <c r="I82">
-        <f>ROUND((($B$1/100)*$F82*(I$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(I$2/5)),0)</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>70</v>
       </c>
       <c r="J82">
-        <f>ROUND((($B$1/100)*$F82*(J$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(J$2/5)),0)</f>
-        <v>125</v>
+        <f t="shared" si="8"/>
+        <v>90</v>
       </c>
       <c r="K82">
-        <f>ROUND((($B$1/100)*$F82*(K$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(K$2/5)),0)</f>
-        <v>143</v>
+        <f t="shared" si="8"/>
+        <v>110</v>
       </c>
       <c r="L82">
-        <f>ROUND((($B$1/100)*$F82*(L$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(L$2/5)),0)</f>
-        <v>157</v>
+        <f t="shared" si="8"/>
+        <v>130</v>
       </c>
       <c r="M82">
-        <f>ROUND((($B$1/100)*$F82*(M$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(M$2/5)),0)</f>
-        <v>169</v>
+        <f t="shared" si="8"/>
+        <v>148</v>
       </c>
       <c r="N82">
-        <f>ROUND((($B$1/100)*$F82*(N$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="O82">
-        <f>ROUND((($B$1/100)*$F82*(O$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(O$2/5)),0)</f>
-        <v>186</v>
-      </c>
       <c r="P82">
-        <f>ROUND((($B$1/100)*$F82*(P$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(P$2/5)),0)</f>
-        <v>194</v>
+        <f t="shared" si="8"/>
+        <v>190</v>
       </c>
       <c r="Q82">
-        <f>ROUND((($B$1/100)*$F82*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F82/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
     </row>
@@ -12267,47 +12466,47 @@
         <v>80</v>
       </c>
       <c r="G83">
-        <f>ROUND((($B$1/100)*$F83*(G$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(G$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
       <c r="H83">
-        <f>ROUND((($B$1/100)*$F83*(H$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(H$2/5)),0)</f>
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>51</v>
       </c>
       <c r="I83">
-        <f>ROUND((($B$1/100)*$F83*(I$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(I$2/5)),0)</f>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>71</v>
       </c>
       <c r="J83">
-        <f>ROUND((($B$1/100)*$F83*(J$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(J$2/5)),0)</f>
-        <v>127</v>
+        <f t="shared" si="8"/>
+        <v>92</v>
       </c>
       <c r="K83">
-        <f>ROUND((($B$1/100)*$F83*(K$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(K$2/5)),0)</f>
-        <v>146</v>
+        <f t="shared" si="8"/>
+        <v>112</v>
       </c>
       <c r="L83">
-        <f>ROUND((($B$1/100)*$F83*(L$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(L$2/5)),0)</f>
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>133</v>
       </c>
       <c r="M83">
-        <f>ROUND((($B$1/100)*$F83*(M$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(M$2/5)),0)</f>
-        <v>172</v>
+        <f t="shared" si="8"/>
+        <v>151</v>
       </c>
       <c r="N83">
-        <f>ROUND((($B$1/100)*$F83*(N$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
-      <c r="O83">
-        <f>ROUND((($B$1/100)*$F83*(O$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(O$2/5)),0)</f>
-        <v>190</v>
-      </c>
       <c r="P83">
-        <f>ROUND((($B$1/100)*$F83*(P$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(P$2/5)),0)</f>
-        <v>197</v>
+        <f t="shared" si="8"/>
+        <v>194</v>
       </c>
       <c r="Q83">
-        <f>ROUND((($B$1/100)*$F83*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F83/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
     </row>
@@ -12316,47 +12515,47 @@
         <v>81</v>
       </c>
       <c r="G84">
-        <f>ROUND((($B$1/100)*$F84*(G$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(G$2/5)),0)</f>
-        <v>41</v>
+        <f t="shared" ref="G84:Q93" si="9">ROUND((($B$1/100)*$F84*(G$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(G$2/5)),0)</f>
+        <v>31</v>
       </c>
       <c r="H84">
-        <f>ROUND((($B$1/100)*$F84*(H$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(H$2/5)),0)</f>
-        <v>76</v>
+        <f t="shared" si="9"/>
+        <v>52</v>
       </c>
       <c r="I84">
-        <f>ROUND((($B$1/100)*$F84*(I$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(I$2/5)),0)</f>
-        <v>103</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
       <c r="J84">
-        <f>ROUND((($B$1/100)*$F84*(J$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(J$2/5)),0)</f>
-        <v>129</v>
+        <f t="shared" si="9"/>
+        <v>93</v>
       </c>
       <c r="K84">
-        <f>ROUND((($B$1/100)*$F84*(K$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(K$2/5)),0)</f>
-        <v>148</v>
+        <f t="shared" si="9"/>
+        <v>113</v>
       </c>
       <c r="L84">
-        <f>ROUND((($B$1/100)*$F84*(L$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(L$2/5)),0)</f>
-        <v>162</v>
+        <f t="shared" si="9"/>
+        <v>134</v>
       </c>
       <c r="M84">
-        <f>ROUND((($B$1/100)*$F84*(M$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(M$2/5)),0)</f>
-        <v>174</v>
+        <f t="shared" si="9"/>
+        <v>153</v>
       </c>
       <c r="N84">
-        <f>ROUND((($B$1/100)*$F84*(N$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
-      <c r="O84">
-        <f>ROUND((($B$1/100)*$F84*(O$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(O$2/5)),0)</f>
-        <v>192</v>
-      </c>
       <c r="P84">
-        <f>ROUND((($B$1/100)*$F84*(P$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(P$2/5)),0)</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>196</v>
       </c>
       <c r="Q84">
-        <f>ROUND((($B$1/100)*$F84*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F84/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>206</v>
       </c>
     </row>
@@ -12365,47 +12564,47 @@
         <v>82</v>
       </c>
       <c r="G85">
-        <f>ROUND((($B$1/100)*$F85*(G$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(G$2/5)),0)</f>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
       <c r="H85">
-        <f>ROUND((($B$1/100)*$F85*(H$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(H$2/5)),0)</f>
-        <v>77</v>
+        <f t="shared" si="9"/>
+        <v>52</v>
       </c>
       <c r="I85">
-        <f>ROUND((($B$1/100)*$F85*(I$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(I$2/5)),0)</f>
-        <v>104</v>
+        <f t="shared" si="9"/>
+        <v>73</v>
       </c>
       <c r="J85">
-        <f>ROUND((($B$1/100)*$F85*(J$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(J$2/5)),0)</f>
-        <v>130</v>
+        <f t="shared" si="9"/>
+        <v>94</v>
       </c>
       <c r="K85">
-        <f>ROUND((($B$1/100)*$F85*(K$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(K$2/5)),0)</f>
-        <v>149</v>
+        <f t="shared" si="9"/>
+        <v>115</v>
       </c>
       <c r="L85">
-        <f>ROUND((($B$1/100)*$F85*(L$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(L$2/5)),0)</f>
-        <v>163</v>
+        <f t="shared" si="9"/>
+        <v>136</v>
       </c>
       <c r="M85">
-        <f>ROUND((($B$1/100)*$F85*(M$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(M$2/5)),0)</f>
-        <v>176</v>
+        <f t="shared" si="9"/>
+        <v>154</v>
       </c>
       <c r="N85">
-        <f>ROUND((($B$1/100)*$F85*(N$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
-      <c r="O85">
-        <f>ROUND((($B$1/100)*$F85*(O$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(O$2/5)),0)</f>
-        <v>194</v>
-      </c>
       <c r="P85">
-        <f>ROUND((($B$1/100)*$F85*(P$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(P$2/5)),0)</f>
-        <v>202</v>
+        <f t="shared" si="9"/>
+        <v>198</v>
       </c>
       <c r="Q85">
-        <f>ROUND((($B$1/100)*$F85*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F85/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
     </row>
@@ -12414,47 +12613,47 @@
         <v>83</v>
       </c>
       <c r="G86">
-        <f>ROUND((($B$1/100)*$F86*(G$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(G$2/5)),0)</f>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
       <c r="H86">
-        <f>ROUND((($B$1/100)*$F86*(H$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(H$2/5)),0)</f>
-        <v>78</v>
+        <f t="shared" si="9"/>
+        <v>53</v>
       </c>
       <c r="I86">
-        <f>ROUND((($B$1/100)*$F86*(I$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(I$2/5)),0)</f>
-        <v>105</v>
+        <f t="shared" si="9"/>
+        <v>74</v>
       </c>
       <c r="J86">
-        <f>ROUND((($B$1/100)*$F86*(J$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(J$2/5)),0)</f>
-        <v>132</v>
+        <f t="shared" si="9"/>
+        <v>95</v>
       </c>
       <c r="K86">
-        <f>ROUND((($B$1/100)*$F86*(K$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(K$2/5)),0)</f>
-        <v>151</v>
+        <f t="shared" si="9"/>
+        <v>116</v>
       </c>
       <c r="L86">
-        <f>ROUND((($B$1/100)*$F86*(L$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(L$2/5)),0)</f>
-        <v>165</v>
+        <f t="shared" si="9"/>
+        <v>137</v>
       </c>
       <c r="M86">
-        <f>ROUND((($B$1/100)*$F86*(M$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(M$2/5)),0)</f>
-        <v>177</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="N86">
-        <f>ROUND((($B$1/100)*$F86*(N$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
-      <c r="O86">
-        <f>ROUND((($B$1/100)*$F86*(O$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(O$2/5)),0)</f>
-        <v>196</v>
-      </c>
       <c r="P86">
-        <f>ROUND((($B$1/100)*$F86*(P$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(P$2/5)),0)</f>
-        <v>204</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="Q86">
-        <f>ROUND((($B$1/100)*$F86*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F86/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>211</v>
       </c>
     </row>
@@ -12463,47 +12662,47 @@
         <v>84</v>
       </c>
       <c r="G87">
-        <f>ROUND((($B$1/100)*$F87*(G$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(G$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
       <c r="H87">
-        <f>ROUND((($B$1/100)*$F87*(H$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(H$2/5)),0)</f>
-        <v>79</v>
+        <f t="shared" si="9"/>
+        <v>53</v>
       </c>
       <c r="I87">
-        <f>ROUND((($B$1/100)*$F87*(I$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(I$2/5)),0)</f>
-        <v>107</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
       <c r="J87">
-        <f>ROUND((($B$1/100)*$F87*(J$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(J$2/5)),0)</f>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="K87">
-        <f>ROUND((($B$1/100)*$F87*(K$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(K$2/5)),0)</f>
-        <v>153</v>
+        <f t="shared" si="9"/>
+        <v>117</v>
       </c>
       <c r="L87">
-        <f>ROUND((($B$1/100)*$F87*(L$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(L$2/5)),0)</f>
-        <v>167</v>
+        <f t="shared" si="9"/>
+        <v>138</v>
       </c>
       <c r="M87">
-        <f>ROUND((($B$1/100)*$F87*(M$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(M$2/5)),0)</f>
-        <v>179</v>
+        <f t="shared" si="9"/>
+        <v>158</v>
       </c>
       <c r="N87">
-        <f>ROUND((($B$1/100)*$F87*(N$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="O87">
-        <f>ROUND((($B$1/100)*$F87*(O$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(O$2/5)),0)</f>
-        <v>198</v>
-      </c>
       <c r="P87">
-        <f>ROUND((($B$1/100)*$F87*(P$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(P$2/5)),0)</f>
-        <v>206</v>
+        <f t="shared" si="9"/>
+        <v>202</v>
       </c>
       <c r="Q87">
-        <f>ROUND((($B$1/100)*$F87*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F87/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>213</v>
       </c>
     </row>
@@ -12512,47 +12711,47 @@
         <v>85</v>
       </c>
       <c r="G88">
-        <f>ROUND((($B$1/100)*$F88*(G$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(G$2/5)),0)</f>
-        <v>43</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="H88">
-        <f>ROUND((($B$1/100)*$F88*(H$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(H$2/5)),0)</f>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>54</v>
       </c>
       <c r="I88">
-        <f>ROUND((($B$1/100)*$F88*(I$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(I$2/5)),0)</f>
-        <v>108</v>
+        <f t="shared" si="9"/>
+        <v>76</v>
       </c>
       <c r="J88">
-        <f>ROUND((($B$1/100)*$F88*(J$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(J$2/5)),0)</f>
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>98</v>
       </c>
       <c r="K88">
-        <f>ROUND((($B$1/100)*$F88*(K$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(K$2/5)),0)</f>
-        <v>155</v>
+        <f t="shared" si="9"/>
+        <v>119</v>
       </c>
       <c r="L88">
-        <f>ROUND((($B$1/100)*$F88*(L$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(L$2/5)),0)</f>
-        <v>170</v>
+        <f t="shared" si="9"/>
+        <v>141</v>
       </c>
       <c r="M88">
-        <f>ROUND((($B$1/100)*$F88*(M$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(M$2/5)),0)</f>
-        <v>183</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
       <c r="N88">
-        <f>ROUND((($B$1/100)*$F88*(N$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>178</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
-      <c r="O88">
-        <f>ROUND((($B$1/100)*$F88*(O$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(O$2/5)),0)</f>
-        <v>202</v>
-      </c>
       <c r="P88">
-        <f>ROUND((($B$1/100)*$F88*(P$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(P$2/5)),0)</f>
-        <v>210</v>
+        <f t="shared" si="9"/>
+        <v>206</v>
       </c>
       <c r="Q88">
-        <f>ROUND((($B$1/100)*$F88*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F88/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>217</v>
       </c>
     </row>
@@ -12561,47 +12760,47 @@
         <v>86</v>
       </c>
       <c r="G89">
-        <f>ROUND((($B$1/100)*$F89*(G$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(G$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="H89">
-        <f>ROUND((($B$1/100)*$F89*(H$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(H$2/5)),0)</f>
-        <v>81</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
       <c r="I89">
-        <f>ROUND((($B$1/100)*$F89*(I$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(I$2/5)),0)</f>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>77</v>
       </c>
       <c r="J89">
-        <f>ROUND((($B$1/100)*$F89*(J$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(J$2/5)),0)</f>
-        <v>137</v>
+        <f t="shared" si="9"/>
+        <v>99</v>
       </c>
       <c r="K89">
-        <f>ROUND((($B$1/100)*$F89*(K$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(K$2/5)),0)</f>
-        <v>157</v>
+        <f t="shared" si="9"/>
+        <v>120</v>
       </c>
       <c r="L89">
-        <f>ROUND((($B$1/100)*$F89*(L$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(L$2/5)),0)</f>
-        <v>172</v>
+        <f t="shared" si="9"/>
+        <v>142</v>
       </c>
       <c r="M89">
-        <f>ROUND((($B$1/100)*$F89*(M$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(M$2/5)),0)</f>
-        <v>184</v>
+        <f t="shared" si="9"/>
+        <v>162</v>
       </c>
       <c r="N89">
-        <f>ROUND((($B$1/100)*$F89*(N$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="O89">
-        <f>ROUND((($B$1/100)*$F89*(O$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(O$2/5)),0)</f>
-        <v>204</v>
-      </c>
       <c r="P89">
-        <f>ROUND((($B$1/100)*$F89*(P$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(P$2/5)),0)</f>
-        <v>212</v>
+        <f t="shared" si="9"/>
+        <v>208</v>
       </c>
       <c r="Q89">
-        <f>ROUND((($B$1/100)*$F89*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F89/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>219</v>
       </c>
     </row>
@@ -12610,47 +12809,47 @@
         <v>87</v>
       </c>
       <c r="G90">
-        <f>ROUND((($B$1/100)*$F90*(G$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(G$2/5)),0)</f>
-        <v>44</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="H90">
-        <f>ROUND((($B$1/100)*$F90*(H$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(H$2/5)),0)</f>
-        <v>82</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
       <c r="I90">
-        <f>ROUND((($B$1/100)*$F90*(I$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(I$2/5)),0)</f>
-        <v>111</v>
+        <f t="shared" si="9"/>
+        <v>77</v>
       </c>
       <c r="J90">
-        <f>ROUND((($B$1/100)*$F90*(J$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(J$2/5)),0)</f>
-        <v>138</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="K90">
-        <f>ROUND((($B$1/100)*$F90*(K$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(K$2/5)),0)</f>
-        <v>158</v>
+        <f t="shared" si="9"/>
+        <v>122</v>
       </c>
       <c r="L90">
-        <f>ROUND((($B$1/100)*$F90*(L$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(L$2/5)),0)</f>
-        <v>173</v>
+        <f t="shared" si="9"/>
+        <v>144</v>
       </c>
       <c r="M90">
-        <f>ROUND((($B$1/100)*$F90*(M$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(M$2/5)),0)</f>
-        <v>186</v>
+        <f t="shared" si="9"/>
+        <v>164</v>
       </c>
       <c r="N90">
-        <f>ROUND((($B$1/100)*$F90*(N$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
-      <c r="O90">
-        <f>ROUND((($B$1/100)*$F90*(O$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(O$2/5)),0)</f>
-        <v>206</v>
-      </c>
       <c r="P90">
-        <f>ROUND((($B$1/100)*$F90*(P$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(P$2/5)),0)</f>
-        <v>214</v>
+        <f t="shared" si="9"/>
+        <v>210</v>
       </c>
       <c r="Q90">
-        <f>ROUND((($B$1/100)*$F90*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F90/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>221</v>
       </c>
     </row>
@@ -12659,47 +12858,47 @@
         <v>88</v>
       </c>
       <c r="G91">
-        <f>ROUND((($B$1/100)*$F91*(G$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(G$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="H91">
-        <f>ROUND((($B$1/100)*$F91*(H$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(H$2/5)),0)</f>
-        <v>83</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
       <c r="I91">
-        <f>ROUND((($B$1/100)*$F91*(I$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(I$2/5)),0)</f>
-        <v>112</v>
+        <f t="shared" si="9"/>
+        <v>78</v>
       </c>
       <c r="J91">
-        <f>ROUND((($B$1/100)*$F91*(J$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(J$2/5)),0)</f>
-        <v>139</v>
+        <f t="shared" si="9"/>
+        <v>101</v>
       </c>
       <c r="K91">
-        <f>ROUND((($B$1/100)*$F91*(K$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(K$2/5)),0)</f>
-        <v>160</v>
+        <f t="shared" si="9"/>
+        <v>123</v>
       </c>
       <c r="L91">
-        <f>ROUND((($B$1/100)*$F91*(L$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(L$2/5)),0)</f>
-        <v>175</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="M91">
-        <f>ROUND((($B$1/100)*$F91*(M$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(M$2/5)),0)</f>
-        <v>188</v>
+        <f t="shared" si="9"/>
+        <v>165</v>
       </c>
       <c r="N91">
-        <f>ROUND((($B$1/100)*$F91*(N$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>183</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="9"/>
         <v>199</v>
       </c>
-      <c r="O91">
-        <f>ROUND((($B$1/100)*$F91*(O$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(O$2/5)),0)</f>
-        <v>208</v>
-      </c>
       <c r="P91">
-        <f>ROUND((($B$1/100)*$F91*(P$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(P$2/5)),0)</f>
-        <v>216</v>
+        <f t="shared" si="9"/>
+        <v>212</v>
       </c>
       <c r="Q91">
-        <f>ROUND((($B$1/100)*$F91*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F91/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>224</v>
       </c>
     </row>
@@ -12708,47 +12907,47 @@
         <v>89</v>
       </c>
       <c r="G92">
-        <f>ROUND((($B$1/100)*$F92*(G$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(G$2/5)),0)</f>
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="H92">
-        <f>ROUND((($B$1/100)*$F92*(H$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(H$2/5)),0)</f>
-        <v>84</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
       <c r="I92">
-        <f>ROUND((($B$1/100)*$F92*(I$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(I$2/5)),0)</f>
-        <v>113</v>
+        <f t="shared" si="9"/>
+        <v>79</v>
       </c>
       <c r="J92">
-        <f>ROUND((($B$1/100)*$F92*(J$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(J$2/5)),0)</f>
-        <v>141</v>
+        <f t="shared" si="9"/>
+        <v>102</v>
       </c>
       <c r="K92">
-        <f>ROUND((($B$1/100)*$F92*(K$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(K$2/5)),0)</f>
-        <v>162</v>
+        <f t="shared" si="9"/>
+        <v>124</v>
       </c>
       <c r="L92">
-        <f>ROUND((($B$1/100)*$F92*(L$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(L$2/5)),0)</f>
-        <v>177</v>
+        <f t="shared" si="9"/>
+        <v>147</v>
       </c>
       <c r="M92">
-        <f>ROUND((($B$1/100)*$F92*(M$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(M$2/5)),0)</f>
-        <v>190</v>
+        <f t="shared" si="9"/>
+        <v>167</v>
       </c>
       <c r="N92">
-        <f>ROUND((($B$1/100)*$F92*(N$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="9"/>
         <v>201</v>
       </c>
-      <c r="O92">
-        <f>ROUND((($B$1/100)*$F92*(O$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(O$2/5)),0)</f>
-        <v>210</v>
-      </c>
       <c r="P92">
-        <f>ROUND((($B$1/100)*$F92*(P$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(P$2/5)),0)</f>
-        <v>219</v>
+        <f t="shared" si="9"/>
+        <v>214</v>
       </c>
       <c r="Q92">
-        <f>ROUND((($B$1/100)*$F92*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F92/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>226</v>
       </c>
     </row>
@@ -12757,47 +12956,47 @@
         <v>90</v>
       </c>
       <c r="G93">
-        <f>ROUND((($B$1/100)*$F93*(G$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(G$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="H93">
-        <f>ROUND((($B$1/100)*$F93*(H$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(H$2/5)),0)</f>
-        <v>85</v>
+        <f t="shared" si="9"/>
+        <v>57</v>
       </c>
       <c r="I93">
-        <f>ROUND((($B$1/100)*$F93*(I$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(I$2/5)),0)</f>
-        <v>115</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="J93">
-        <f>ROUND((($B$1/100)*$F93*(J$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(J$2/5)),0)</f>
-        <v>143</v>
+        <f t="shared" si="9"/>
+        <v>103</v>
       </c>
       <c r="K93">
-        <f>ROUND((($B$1/100)*$F93*(K$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(K$2/5)),0)</f>
-        <v>164</v>
+        <f t="shared" si="9"/>
+        <v>126</v>
       </c>
       <c r="L93">
-        <f>ROUND((($B$1/100)*$F93*(L$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(L$2/5)),0)</f>
-        <v>180</v>
+        <f t="shared" si="9"/>
+        <v>149</v>
       </c>
       <c r="M93">
-        <f>ROUND((($B$1/100)*$F93*(M$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(M$2/5)),0)</f>
-        <v>193</v>
+        <f t="shared" si="9"/>
+        <v>170</v>
       </c>
       <c r="N93">
-        <f>ROUND((($B$1/100)*$F93*(N$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="9"/>
+        <v>188</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
-      <c r="O93">
-        <f>ROUND((($B$1/100)*$F93*(O$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(O$2/5)),0)</f>
-        <v>213</v>
-      </c>
       <c r="P93">
-        <f>ROUND((($B$1/100)*$F93*(P$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(P$2/5)),0)</f>
-        <v>222</v>
+        <f t="shared" si="9"/>
+        <v>218</v>
       </c>
       <c r="Q93">
-        <f>ROUND((($B$1/100)*$F93*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F93/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
     </row>
@@ -12806,47 +13005,47 @@
         <v>91</v>
       </c>
       <c r="G94">
-        <f>ROUND((($B$1/100)*$F94*(G$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(G$2/5)),0)</f>
-        <v>46</v>
+        <f t="shared" ref="G94:Q103" si="10">ROUND((($B$1/100)*$F94*(G$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(G$2/5)),0)</f>
+        <v>35</v>
       </c>
       <c r="H94">
-        <f>ROUND((($B$1/100)*$F94*(H$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(H$2/5)),0)</f>
-        <v>86</v>
+        <f t="shared" si="10"/>
+        <v>58</v>
       </c>
       <c r="I94">
-        <f>ROUND((($B$1/100)*$F94*(I$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(I$2/5)),0)</f>
-        <v>116</v>
+        <f t="shared" si="10"/>
+        <v>81</v>
       </c>
       <c r="J94">
-        <f>ROUND((($B$1/100)*$F94*(J$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(J$2/5)),0)</f>
-        <v>145</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="K94">
-        <f>ROUND((($B$1/100)*$F94*(K$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(K$2/5)),0)</f>
-        <v>166</v>
+        <f t="shared" si="10"/>
+        <v>127</v>
       </c>
       <c r="L94">
-        <f>ROUND((($B$1/100)*$F94*(L$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(L$2/5)),0)</f>
-        <v>182</v>
+        <f t="shared" si="10"/>
+        <v>151</v>
       </c>
       <c r="M94">
-        <f>ROUND((($B$1/100)*$F94*(M$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(M$2/5)),0)</f>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>171</v>
       </c>
       <c r="N94">
-        <f>ROUND((($B$1/100)*$F94*(N$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
-      <c r="O94">
-        <f>ROUND((($B$1/100)*$F94*(O$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(O$2/5)),0)</f>
-        <v>216</v>
-      </c>
       <c r="P94">
-        <f>ROUND((($B$1/100)*$F94*(P$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(P$2/5)),0)</f>
-        <v>224</v>
+        <f t="shared" si="10"/>
+        <v>220</v>
       </c>
       <c r="Q94">
-        <f>ROUND((($B$1/100)*$F94*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F94/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
     </row>
@@ -12855,47 +13054,47 @@
         <v>92</v>
       </c>
       <c r="G95">
-        <f>ROUND((($B$1/100)*$F95*(G$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(G$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="10"/>
+        <v>35</v>
       </c>
       <c r="H95">
-        <f>ROUND((($B$1/100)*$F95*(H$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(H$2/5)),0)</f>
-        <v>87</v>
+        <f t="shared" si="10"/>
+        <v>59</v>
       </c>
       <c r="I95">
-        <f>ROUND((($B$1/100)*$F95*(I$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(I$2/5)),0)</f>
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>82</v>
       </c>
       <c r="J95">
-        <f>ROUND((($B$1/100)*$F95*(J$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(J$2/5)),0)</f>
-        <v>146</v>
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
       <c r="K95">
-        <f>ROUND((($B$1/100)*$F95*(K$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(K$2/5)),0)</f>
-        <v>168</v>
+        <f t="shared" si="10"/>
+        <v>129</v>
       </c>
       <c r="L95">
-        <f>ROUND((($B$1/100)*$F95*(L$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(L$2/5)),0)</f>
-        <v>183</v>
+        <f t="shared" si="10"/>
+        <v>152</v>
       </c>
       <c r="M95">
-        <f>ROUND((($B$1/100)*$F95*(M$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(M$2/5)),0)</f>
-        <v>197</v>
+        <f t="shared" si="10"/>
+        <v>173</v>
       </c>
       <c r="N95">
-        <f>ROUND((($B$1/100)*$F95*(N$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
-      <c r="O95">
-        <f>ROUND((($B$1/100)*$F95*(O$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(O$2/5)),0)</f>
-        <v>218</v>
-      </c>
       <c r="P95">
-        <f>ROUND((($B$1/100)*$F95*(P$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(P$2/5)),0)</f>
-        <v>227</v>
+        <f t="shared" si="10"/>
+        <v>222</v>
       </c>
       <c r="Q95">
-        <f>ROUND((($B$1/100)*$F95*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F95/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
     </row>
@@ -12904,47 +13103,47 @@
         <v>93</v>
       </c>
       <c r="G96">
-        <f>ROUND((($B$1/100)*$F96*(G$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(G$2/5)),0)</f>
-        <v>47</v>
+        <f t="shared" si="10"/>
+        <v>35</v>
       </c>
       <c r="H96">
-        <f>ROUND((($B$1/100)*$F96*(H$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(H$2/5)),0)</f>
-        <v>87</v>
+        <f t="shared" si="10"/>
+        <v>59</v>
       </c>
       <c r="I96">
-        <f>ROUND((($B$1/100)*$F96*(I$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(I$2/5)),0)</f>
-        <v>118</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="J96">
-        <f>ROUND((($B$1/100)*$F96*(J$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(J$2/5)),0)</f>
-        <v>147</v>
+        <f t="shared" si="10"/>
+        <v>106</v>
       </c>
       <c r="K96">
-        <f>ROUND((($B$1/100)*$F96*(K$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(K$2/5)),0)</f>
-        <v>169</v>
+        <f t="shared" si="10"/>
+        <v>130</v>
       </c>
       <c r="L96">
-        <f>ROUND((($B$1/100)*$F96*(L$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(L$2/5)),0)</f>
-        <v>185</v>
+        <f t="shared" si="10"/>
+        <v>154</v>
       </c>
       <c r="M96">
-        <f>ROUND((($B$1/100)*$F96*(M$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(M$2/5)),0)</f>
-        <v>199</v>
+        <f t="shared" si="10"/>
+        <v>175</v>
       </c>
       <c r="N96">
-        <f>ROUND((($B$1/100)*$F96*(N$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
-      <c r="O96">
-        <f>ROUND((($B$1/100)*$F96*(O$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(O$2/5)),0)</f>
-        <v>220</v>
-      </c>
       <c r="P96">
-        <f>ROUND((($B$1/100)*$F96*(P$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(P$2/5)),0)</f>
-        <v>229</v>
+        <f t="shared" si="10"/>
+        <v>224</v>
       </c>
       <c r="Q96">
-        <f>ROUND((($B$1/100)*$F96*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F96/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
     </row>
@@ -12953,47 +13152,47 @@
         <v>94</v>
       </c>
       <c r="G97">
-        <f>ROUND((($B$1/100)*$F97*(G$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(G$2/5)),0)</f>
-        <v>48</v>
+        <f t="shared" si="10"/>
+        <v>36</v>
       </c>
       <c r="H97">
-        <f>ROUND((($B$1/100)*$F97*(H$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(H$2/5)),0)</f>
-        <v>88</v>
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="I97">
-        <f>ROUND((($B$1/100)*$F97*(I$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(I$2/5)),0)</f>
-        <v>119</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="J97">
-        <f>ROUND((($B$1/100)*$F97*(J$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(J$2/5)),0)</f>
-        <v>149</v>
+        <f t="shared" si="10"/>
+        <v>107</v>
       </c>
       <c r="K97">
-        <f>ROUND((($B$1/100)*$F97*(K$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(K$2/5)),0)</f>
-        <v>171</v>
+        <f t="shared" si="10"/>
+        <v>131</v>
       </c>
       <c r="L97">
-        <f>ROUND((($B$1/100)*$F97*(L$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(L$2/5)),0)</f>
-        <v>187</v>
+        <f t="shared" si="10"/>
+        <v>155</v>
       </c>
       <c r="M97">
-        <f>ROUND((($B$1/100)*$F97*(M$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(M$2/5)),0)</f>
-        <v>201</v>
+        <f t="shared" si="10"/>
+        <v>176</v>
       </c>
       <c r="N97">
-        <f>ROUND((($B$1/100)*$F97*(N$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>196</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
-      <c r="O97">
-        <f>ROUND((($B$1/100)*$F97*(O$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(O$2/5)),0)</f>
-        <v>222</v>
-      </c>
       <c r="P97">
-        <f>ROUND((($B$1/100)*$F97*(P$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(P$2/5)),0)</f>
-        <v>231</v>
+        <f t="shared" si="10"/>
+        <v>227</v>
       </c>
       <c r="Q97">
-        <f>ROUND((($B$1/100)*$F97*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F97/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
     </row>
@@ -13002,47 +13201,47 @@
         <v>95</v>
       </c>
       <c r="G98">
-        <f>ROUND((($B$1/100)*$F98*(G$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(G$2/5)),0)</f>
-        <v>48</v>
+        <f t="shared" si="10"/>
+        <v>36</v>
       </c>
       <c r="H98">
-        <f>ROUND((($B$1/100)*$F98*(H$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(H$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="I98">
-        <f>ROUND((($B$1/100)*$F98*(I$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(I$2/5)),0)</f>
-        <v>121</v>
+        <f t="shared" si="10"/>
+        <v>85</v>
       </c>
       <c r="J98">
-        <f>ROUND((($B$1/100)*$F98*(J$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(J$2/5)),0)</f>
-        <v>151</v>
+        <f t="shared" si="10"/>
+        <v>109</v>
       </c>
       <c r="K98">
-        <f>ROUND((($B$1/100)*$F98*(K$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(K$2/5)),0)</f>
-        <v>173</v>
+        <f t="shared" si="10"/>
+        <v>133</v>
       </c>
       <c r="L98">
-        <f>ROUND((($B$1/100)*$F98*(L$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(L$2/5)),0)</f>
-        <v>190</v>
+        <f t="shared" si="10"/>
+        <v>157</v>
       </c>
       <c r="M98">
-        <f>ROUND((($B$1/100)*$F98*(M$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(M$2/5)),0)</f>
-        <v>204</v>
+        <f t="shared" si="10"/>
+        <v>179</v>
       </c>
       <c r="N98">
-        <f>ROUND((($B$1/100)*$F98*(N$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>199</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
-      <c r="O98">
-        <f>ROUND((($B$1/100)*$F98*(O$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(O$2/5)),0)</f>
-        <v>225</v>
-      </c>
       <c r="P98">
-        <f>ROUND((($B$1/100)*$F98*(P$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(P$2/5)),0)</f>
-        <v>234</v>
+        <f t="shared" si="10"/>
+        <v>230</v>
       </c>
       <c r="Q98">
-        <f>ROUND((($B$1/100)*$F98*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F98/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
     </row>
@@ -13051,47 +13250,47 @@
         <v>96</v>
       </c>
       <c r="G99">
-        <f>ROUND((($B$1/100)*$F99*(G$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(G$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="10"/>
+        <v>37</v>
       </c>
       <c r="H99">
-        <f>ROUND((($B$1/100)*$F99*(H$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(H$2/5)),0)</f>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="I99">
-        <f>ROUND((($B$1/100)*$F99*(I$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(I$2/5)),0)</f>
-        <v>122</v>
+        <f t="shared" si="10"/>
+        <v>86</v>
       </c>
       <c r="J99">
-        <f>ROUND((($B$1/100)*$F99*(J$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(J$2/5)),0)</f>
-        <v>153</v>
+        <f t="shared" si="10"/>
+        <v>110</v>
       </c>
       <c r="K99">
-        <f>ROUND((($B$1/100)*$F99*(K$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(K$2/5)),0)</f>
-        <v>175</v>
+        <f t="shared" si="10"/>
+        <v>134</v>
       </c>
       <c r="L99">
-        <f>ROUND((($B$1/100)*$F99*(L$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(L$2/5)),0)</f>
-        <v>192</v>
+        <f t="shared" si="10"/>
+        <v>159</v>
       </c>
       <c r="M99">
-        <f>ROUND((($B$1/100)*$F99*(M$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(M$2/5)),0)</f>
-        <v>206</v>
+        <f t="shared" si="10"/>
+        <v>181</v>
       </c>
       <c r="N99">
-        <f>ROUND((($B$1/100)*$F99*(N$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
-      <c r="O99">
-        <f>ROUND((($B$1/100)*$F99*(O$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(O$2/5)),0)</f>
-        <v>227</v>
-      </c>
       <c r="P99">
-        <f>ROUND((($B$1/100)*$F99*(P$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(P$2/5)),0)</f>
-        <v>237</v>
+        <f t="shared" si="10"/>
+        <v>232</v>
       </c>
       <c r="Q99">
-        <f>ROUND((($B$1/100)*$F99*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F99/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
     </row>
@@ -13100,47 +13299,47 @@
         <v>97</v>
       </c>
       <c r="G100">
-        <f>ROUND((($B$1/100)*$F100*(G$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(G$2/5)),0)</f>
-        <v>49</v>
+        <f t="shared" si="10"/>
+        <v>37</v>
       </c>
       <c r="H100">
-        <f>ROUND((($B$1/100)*$F100*(H$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(H$2/5)),0)</f>
-        <v>91</v>
+        <f t="shared" si="10"/>
+        <v>62</v>
       </c>
       <c r="I100">
-        <f>ROUND((($B$1/100)*$F100*(I$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(I$2/5)),0)</f>
-        <v>123</v>
+        <f t="shared" si="10"/>
+        <v>86</v>
       </c>
       <c r="J100">
-        <f>ROUND((($B$1/100)*$F100*(J$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(J$2/5)),0)</f>
-        <v>154</v>
+        <f t="shared" si="10"/>
+        <v>111</v>
       </c>
       <c r="K100">
-        <f>ROUND((($B$1/100)*$F100*(K$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(K$2/5)),0)</f>
-        <v>177</v>
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="L100">
-        <f>ROUND((($B$1/100)*$F100*(L$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(L$2/5)),0)</f>
-        <v>193</v>
+        <f t="shared" si="10"/>
+        <v>160</v>
       </c>
       <c r="M100">
-        <f>ROUND((($B$1/100)*$F100*(M$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(M$2/5)),0)</f>
-        <v>208</v>
+        <f t="shared" si="10"/>
+        <v>183</v>
       </c>
       <c r="N100">
-        <f>ROUND((($B$1/100)*$F100*(N$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="O100">
-        <f>ROUND((($B$1/100)*$F100*(O$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(O$2/5)),0)</f>
-        <v>229</v>
-      </c>
       <c r="P100">
-        <f>ROUND((($B$1/100)*$F100*(P$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(P$2/5)),0)</f>
-        <v>239</v>
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
       <c r="Q100">
-        <f>ROUND((($B$1/100)*$F100*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F100/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
     </row>
@@ -13149,47 +13348,47 @@
         <v>98</v>
       </c>
       <c r="G101">
-        <f>ROUND((($B$1/100)*$F101*(G$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(G$2/5)),0)</f>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>37</v>
       </c>
       <c r="H101">
-        <f>ROUND((($B$1/100)*$F101*(H$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(H$2/5)),0)</f>
-        <v>92</v>
+        <f t="shared" si="10"/>
+        <v>62</v>
       </c>
       <c r="I101">
-        <f>ROUND((($B$1/100)*$F101*(I$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(I$2/5)),0)</f>
-        <v>125</v>
+        <f t="shared" si="10"/>
+        <v>87</v>
       </c>
       <c r="J101">
-        <f>ROUND((($B$1/100)*$F101*(J$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(J$2/5)),0)</f>
-        <v>155</v>
+        <f t="shared" si="10"/>
+        <v>112</v>
       </c>
       <c r="K101">
-        <f>ROUND((($B$1/100)*$F101*(K$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(K$2/5)),0)</f>
-        <v>178</v>
+        <f t="shared" si="10"/>
+        <v>137</v>
       </c>
       <c r="L101">
-        <f>ROUND((($B$1/100)*$F101*(L$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(L$2/5)),0)</f>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>162</v>
       </c>
       <c r="M101">
-        <f>ROUND((($B$1/100)*$F101*(M$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(M$2/5)),0)</f>
-        <v>210</v>
+        <f t="shared" si="10"/>
+        <v>184</v>
       </c>
       <c r="N101">
-        <f>ROUND((($B$1/100)*$F101*(N$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
-      <c r="O101">
-        <f>ROUND((($B$1/100)*$F101*(O$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(O$2/5)),0)</f>
-        <v>232</v>
-      </c>
       <c r="P101">
-        <f>ROUND((($B$1/100)*$F101*(P$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(P$2/5)),0)</f>
-        <v>241</v>
+        <f t="shared" si="10"/>
+        <v>237</v>
       </c>
       <c r="Q101">
-        <f>ROUND((($B$1/100)*$F101*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F101/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
     </row>
@@ -13198,47 +13397,47 @@
         <v>99</v>
       </c>
       <c r="G102">
-        <f>ROUND((($B$1/100)*$F102*(G$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(G$2/5)),0)</f>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="H102">
-        <f>ROUND((($B$1/100)*$F102*(H$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(H$2/5)),0)</f>
-        <v>93</v>
+        <f t="shared" si="10"/>
+        <v>63</v>
       </c>
       <c r="I102">
-        <f>ROUND((($B$1/100)*$F102*(I$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(I$2/5)),0)</f>
-        <v>126</v>
+        <f t="shared" si="10"/>
+        <v>88</v>
       </c>
       <c r="J102">
-        <f>ROUND((($B$1/100)*$F102*(J$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(J$2/5)),0)</f>
-        <v>157</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="K102">
-        <f>ROUND((($B$1/100)*$F102*(K$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(K$2/5)),0)</f>
-        <v>180</v>
+        <f t="shared" si="10"/>
+        <v>138</v>
       </c>
       <c r="L102">
-        <f>ROUND((($B$1/100)*$F102*(L$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(L$2/5)),0)</f>
-        <v>197</v>
+        <f t="shared" si="10"/>
+        <v>163</v>
       </c>
       <c r="M102">
-        <f>ROUND((($B$1/100)*$F102*(M$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(M$2/5)),0)</f>
-        <v>212</v>
+        <f t="shared" si="10"/>
+        <v>186</v>
       </c>
       <c r="N102">
-        <f>ROUND((($B$1/100)*$F102*(N$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>206</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="O102">
-        <f>ROUND((($B$1/100)*$F102*(O$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(O$2/5)),0)</f>
-        <v>234</v>
-      </c>
       <c r="P102">
-        <f>ROUND((($B$1/100)*$F102*(P$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(P$2/5)),0)</f>
-        <v>243</v>
+        <f t="shared" si="10"/>
+        <v>239</v>
       </c>
       <c r="Q102">
-        <f>ROUND((($B$1/100)*$F102*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F102/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
     </row>
@@ -13247,93 +13446,131 @@
         <v>100</v>
       </c>
       <c r="G103">
-        <f>ROUND((($B$1/100)*$F103*(G$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(G$2/5)),0)</f>
-        <v>51</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="H103">
-        <f>ROUND((($B$1/100)*$F103*(H$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(H$2/5)),0)</f>
-        <v>94</v>
+        <f t="shared" si="10"/>
+        <v>64</v>
       </c>
       <c r="I103">
-        <f>ROUND((($B$1/100)*$F103*(I$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(I$2/5)),0)</f>
-        <v>128</v>
+        <f t="shared" si="10"/>
+        <v>89</v>
       </c>
       <c r="J103">
-        <f>ROUND((($B$1/100)*$F103*(J$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(J$2/5)),0)</f>
-        <v>159</v>
+        <f t="shared" si="10"/>
+        <v>115</v>
       </c>
       <c r="K103">
-        <f>ROUND((($B$1/100)*$F103*(K$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(K$2/5)),0)</f>
-        <v>183</v>
+        <f t="shared" si="10"/>
+        <v>140</v>
       </c>
       <c r="L103">
-        <f>ROUND((($B$1/100)*$F103*(L$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(L$2/5)),0)</f>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>166</v>
       </c>
       <c r="M103">
-        <f>ROUND((($B$1/100)*$F103*(M$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(M$2/5)),0)</f>
-        <v>215</v>
+        <f t="shared" si="10"/>
+        <v>189</v>
       </c>
       <c r="N103">
-        <f>ROUND((($B$1/100)*$F103*(N$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(N$2/5)),0)</f>
+        <f t="shared" si="10"/>
+        <v>209</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="O103">
-        <f>ROUND((($B$1/100)*$F103*(O$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(O$2/5)),0)</f>
-        <v>237</v>
-      </c>
       <c r="P103">
-        <f>ROUND((($B$1/100)*$F103*(P$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(P$2/5)),0)</f>
-        <v>247</v>
+        <f t="shared" si="10"/>
+        <v>242</v>
       </c>
       <c r="Q103">
-        <f>ROUND((($B$1/100)*$F103*(Q$2/5))+(($B$2/20)*ROUNDDOWN($F103/5,0)*(Q$2/5)),0)</f>
+        <f t="shared" si="10"/>
         <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F111" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J111" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="K111" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="L111" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="M111" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="N111" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="O111" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P111" s="3">
+        <v>4.84</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G113" t="e">
-        <f>3.576*LOG(G$3)+2.5</f>
+        <f t="shared" ref="G113:Q113" si="11">3.576*LOG(G$3)+2.5</f>
         <v>#NUM!</v>
       </c>
       <c r="H113">
-        <f>3.576*LOG(H$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>1.4235167355056033</v>
       </c>
       <c r="I113">
-        <f>3.576*LOG(I$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="J113">
-        <f>3.576*LOG(J$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>3.1297023423831161</v>
       </c>
       <c r="K113">
-        <f>3.576*LOG(K$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>3.5764832644943967</v>
       </c>
       <c r="L113">
-        <f>3.576*LOG(L$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>3.9230334710112063</v>
       </c>
       <c r="M113">
-        <f>3.576*LOG(M$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>4.2061856068775132</v>
       </c>
       <c r="N113">
-        <f>3.576*LOG(N$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>4.445587326596586</v>
       </c>
       <c r="O113">
-        <f>3.576*LOG(O$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>4.6529665289887934</v>
       </c>
       <c r="P113">
-        <f>3.576*LOG(P$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>4.8358879492606288</v>
       </c>
       <c r="Q113">
-        <f>3.576*LOG(Q$3)+2.5</f>
+        <f t="shared" si="11"/>
         <v>4.9995167355056029</v>
       </c>
     </row>
@@ -13719,16 +13956,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5234A45-9045-4438-9498-5D3A4A622F57}">
-  <dimension ref="D3:I37"/>
+  <dimension ref="C3:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
@@ -13972,50 +14211,716 @@
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="F35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>30</v>
+      </c>
+      <c r="K35" s="1">
+        <v>60</v>
+      </c>
+      <c r="L35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E36,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G36" s="21">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F36^$D$43),0)</f>
+        <v>37</v>
+      </c>
+      <c r="I36">
+        <f>ROUNDDOWN($G36/I$35,1)</f>
+        <v>3.7</v>
+      </c>
+      <c r="J36">
+        <f>ROUNDDOWN($G36/J$35,1)</f>
+        <v>1.2</v>
+      </c>
+      <c r="K36">
+        <f>ROUNDDOWN($G36/K$35,1)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="20">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E37,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G37" s="21">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F37^$D$43),0)</f>
+        <v>48</v>
+      </c>
+      <c r="I37">
+        <f>ROUNDDOWN($G37/I$35,1)</f>
+        <v>4.8</v>
+      </c>
+      <c r="J37">
+        <f>ROUNDDOWN($G37/J$35,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="K37">
+        <f>ROUNDDOWN($G37/K$35,1)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E38,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G38" s="19">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F38^$D$43),0)</f>
         <v>61</v>
       </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I38">
+        <f>ROUNDDOWN($G38/I$35,1)</f>
+        <v>6.1</v>
+      </c>
+      <c r="J38">
+        <f>ROUNDDOWN($G38/J$35,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f>ROUNDDOWN($G38/K$35,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="18">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E39,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G39" s="19">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F39^$D$43),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <f>ROUNDDOWN($G39/I$35,1)</f>
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <f>ROUNDDOWN($G39/J$35,1)</f>
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <f>ROUNDDOWN($G39/K$35,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+      <c r="F40" s="16">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E40,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>7</v>
+      </c>
+      <c r="G40" s="17">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F40^$D$43),0)</f>
+        <v>106</v>
+      </c>
+      <c r="I40">
+        <f>ROUNDDOWN($G40/I$35,1)</f>
+        <v>10.6</v>
+      </c>
+      <c r="J40">
+        <f>ROUNDDOWN($G40/J$35,1)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K40">
+        <f>ROUNDDOWN($G40/K$35,1)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="16">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E41,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>8</v>
+      </c>
+      <c r="G41" s="17">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F41^$D$43),0)</f>
+        <v>122</v>
+      </c>
+      <c r="I41">
+        <f>ROUNDDOWN($G41/I$35,1)</f>
+        <v>12.2</v>
+      </c>
+      <c r="J41">
+        <f>ROUNDDOWN($G41/J$35,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <f>ROUNDDOWN($G41/K$35,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="14">
+        <v>3</v>
+      </c>
+      <c r="F42" s="14">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E42,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>9</v>
+      </c>
+      <c r="G42" s="15">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F42^$D$43),0)</f>
+        <v>139</v>
+      </c>
+      <c r="I42">
+        <f>ROUNDDOWN($G42/I$35,1)</f>
+        <v>13.9</v>
+      </c>
+      <c r="J42">
+        <f>ROUNDDOWN($G42/J$35,1)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K42">
+        <f>ROUNDDOWN($G42/K$35,1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="E43" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="F43" s="14">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E43,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G43" s="15">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F43^$D$43),0)</f>
+        <v>157</v>
+      </c>
+      <c r="I43">
+        <f>ROUNDDOWN($G43/I$35,1)</f>
+        <v>15.7</v>
+      </c>
+      <c r="J43">
+        <f>ROUNDDOWN($G43/J$35,1)</f>
+        <v>5.2</v>
+      </c>
+      <c r="K43">
+        <f>ROUNDDOWN($G43/K$35,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="12">
+        <v>4</v>
+      </c>
+      <c r="F44" s="12">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E44,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>11</v>
+      </c>
+      <c r="G44" s="13">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F44^$D$43),0)</f>
+        <v>175</v>
+      </c>
+      <c r="I44">
+        <f>ROUNDDOWN($G44/I$35,1)</f>
+        <v>17.5</v>
+      </c>
+      <c r="J44">
+        <f>ROUNDDOWN($G44/J$35,1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="K44">
+        <f>ROUNDDOWN($G44/K$35,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="F45" s="12">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E45,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>12</v>
+      </c>
+      <c r="G45" s="13">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F45^$D$43),0)</f>
+        <v>193</v>
+      </c>
+      <c r="I45">
+        <f>ROUNDDOWN($G45/I$35,1)</f>
+        <v>19.3</v>
+      </c>
+      <c r="J45">
+        <f>ROUNDDOWN($G45/J$35,1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="K45">
+        <f>ROUNDDOWN($G45/K$35,1)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D46" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E46" s="10">
+        <v>5</v>
+      </c>
+      <c r="F46" s="10">
+        <f>VLOOKUP(C$37,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E46,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>13</v>
+      </c>
+      <c r="G46" s="11">
+        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F46^$D$43),0)</f>
+        <v>213</v>
+      </c>
+      <c r="I46">
+        <f>ROUNDDOWN($G46/I$35,1)</f>
+        <v>21.3</v>
+      </c>
+      <c r="J46">
+        <f>ROUNDDOWN($G46/J$35,1)</f>
+        <v>7.1</v>
+      </c>
+      <c r="K46">
+        <f>ROUNDDOWN($G46/K$35,1)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>20</v>
+      </c>
+      <c r="K53" s="1">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E54,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G54" s="21">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F54^$D$61),0)</f>
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <f>ROUNDDOWN($G54/I$53,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:K54" si="1">ROUNDDOWN($G54/J$53,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55" s="7">
+        <v>5</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="20">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E55,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G55" s="21">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F55^$D$61),0)</f>
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:K64" si="2">ROUNDDOWN($G55/I$53,1)</f>
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E56,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G56" s="19">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F56^$D$61),0)</f>
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
+      <c r="D57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="18">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E57,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>6</v>
+      </c>
+      <c r="G57" s="19">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F57^$D$61),0)</f>
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="8">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
         <v>0.5</v>
       </c>
-      <c r="F37">
-        <f>VLOOKUP(D37,'Stat Progression &amp; Growth Rates'!F4:Q103,MATCH(E37,'Stat Progression &amp; Growth Rates'!F3:Q3,0))</f>
-        <v>94</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f>(29+((D37/1.5)*(F37/1.5)))*(1+G37)</f>
-        <v>4206.7777777777783</v>
+      <c r="E58" s="16">
+        <v>2</v>
+      </c>
+      <c r="F58" s="16">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E58,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>7</v>
+      </c>
+      <c r="G58" s="17">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F58^$D$61),0)</f>
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D59" s="7"/>
+      <c r="E59" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F59" s="16">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E59,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>8</v>
+      </c>
+      <c r="G59" s="17">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F59^$D$61),0)</f>
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="14">
+        <v>3</v>
+      </c>
+      <c r="F60" s="14">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E60,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>9</v>
+      </c>
+      <c r="G60" s="15">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F60^$D$61),0)</f>
+        <v>26</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D61" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E61" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="F61" s="14">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E61,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G61" s="15">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F61^$D$61),0)</f>
+        <v>29</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D62" s="7"/>
+      <c r="E62" s="12">
+        <v>4</v>
+      </c>
+      <c r="F62" s="12">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E62,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>11</v>
+      </c>
+      <c r="G62" s="13">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F62^$D$61),0)</f>
+        <v>31</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="F63" s="12">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E63,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>12</v>
+      </c>
+      <c r="G63" s="13">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F63^$D$61),0)</f>
+        <v>34</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D64" s="9">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10">
+        <v>5</v>
+      </c>
+      <c r="F64" s="10">
+        <f>VLOOKUP(C$55,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(E64,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>13</v>
+      </c>
+      <c r="G64" s="11">
+        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F64^$D$61),0)</f>
+        <v>37</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -14029,10 +14934,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EB0E4-D9D7-4D2E-96C4-1C88BE71FF97}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14041,7 +14946,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -14054,13 +14959,16 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14068,10 +14976,16 @@
       <c r="D2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14080,150 +14994,98 @@
         <v>0.5</v>
       </c>
       <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <f>SUBTOTAL(109,Table1[Barbarian])</f>
+        <v>6.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <f>SUBTOTAL(109,Table1[Fighter])</f>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>2.5</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <f>SUBTOTAL(109,Table1[Barbarian])</f>
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <f>SUBTOTAL(109,Table1[Fighter])</f>
-        <v>15</v>
-      </c>
-      <c r="D13">
         <f>SUBTOTAL(109,Table1[Black Mage])</f>
-        <v>12</v>
+        <v>6.5</v>
+      </c>
+      <c r="E7">
+        <f>SUBTOTAL(109,Table1[White Mage])</f>
+        <v>6.5</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/design documents/jRPG balance scratchsheet.xlsx
+++ b/design documents/jRPG balance scratchsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\jRPG-Attempt\design documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16A535-4ECC-4E30-92CD-22244D912A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9910A-605C-4747-8E26-5DEEF17DA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{B20A1628-0B43-4A65-B110-26A0C753EEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Stat Progression &amp; Growth Rates" sheetId="6" r:id="rId6"/>
     <sheet name="Stats (Old)" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="Stats (New)" sheetId="9" r:id="rId8"/>
-    <sheet name="Archetypes" sheetId="8" r:id="rId9"/>
+    <sheet name="Archetypes Scratchsheet" sheetId="8" r:id="rId9"/>
+    <sheet name="What Is A Weapon" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="StatsByGrowthRateAndLevel">'Stat Progression &amp; Growth Rates'!$F$2:$Q$103</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t xml:space="preserve">LOG of </t>
   </si>
@@ -285,6 +286,66 @@
   <si>
     <t>White Mage</t>
   </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>TOTAL GROWTH</t>
+  </si>
+  <si>
+    <t>Stats At Level</t>
+  </si>
+  <si>
+    <t>Weapons have a Rarity and a Level.</t>
+  </si>
+  <si>
+    <t>At baseline, a weapon's damage is equal to STR of a character with (Rarity) Growth, at that Level.</t>
+  </si>
+  <si>
+    <t>Thus, a character's total attack damage is something like STR + Weapon Damage.</t>
+  </si>
+  <si>
+    <t>Maybe reduce it by a bit for every additional passive it has.</t>
+  </si>
+  <si>
+    <t>That's why a Dagger helps you move faster but hits not-as-hard.</t>
+  </si>
+  <si>
+    <t>Or an Axe hits very hard but isn't as accurate.</t>
+  </si>
+  <si>
+    <t>Different weapon types have different built-in passives.</t>
+  </si>
+  <si>
+    <t>That kind of thing.</t>
+  </si>
+  <si>
+    <t>So…</t>
+  </si>
+  <si>
+    <t>WEAPON NAME</t>
+  </si>
+  <si>
+    <t>Type (Sword, Dagger, Etc.)</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Attack Power</t>
+  </si>
+  <si>
+    <t>Additional Passives and Effects</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Color Information</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +353,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -447,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -469,17 +530,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -524,7 +588,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}" name="ArchetypeGrowths" displayName="ArchetypeGrowths" ref="A1:E7" totalsRowCount="1">
   <autoFilter ref="A1:E6" xr:uid="{E1A01606-F80E-4EA2-98BA-7659994D9D51}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{486137BA-44D5-40FB-89BE-88D888F85C59}" name="ARCHETYPE" totalsRowLabel="Total"/>
@@ -1698,6 +1762,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06FF6-5183-478B-AB66-71586CA9F359}">
+  <dimension ref="D2:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F8B701-6211-4913-A6E5-62A20A5B14C8}">
   <dimension ref="B5:S41"/>
@@ -8425,7 +8594,7 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13958,8 +14127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5234A45-9045-4438-9498-5D3A4A622F57}">
   <dimension ref="C3:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14267,19 +14436,19 @@
         <v>2</v>
       </c>
       <c r="G36" s="21">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F36^$D$43),0)</f>
+        <f t="shared" ref="G36:G46" si="1">ROUND(($D$40*$C$37^$D$37)+($D$46*F36^$D$43),0)</f>
         <v>37</v>
       </c>
       <c r="I36">
-        <f>ROUNDDOWN($G36/I$35,1)</f>
+        <f t="shared" ref="I36:K46" si="2">ROUNDDOWN($G36/I$35,1)</f>
         <v>3.7</v>
       </c>
       <c r="J36">
-        <f>ROUNDDOWN($G36/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="K36">
-        <f>ROUNDDOWN($G36/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
@@ -14298,19 +14467,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="21">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F37^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I37">
-        <f>ROUNDDOWN($G37/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
       <c r="J37">
-        <f>ROUNDDOWN($G37/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="K37">
-        <f>ROUNDDOWN($G37/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
@@ -14325,19 +14494,19 @@
         <v>4</v>
       </c>
       <c r="G38" s="19">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F38^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="I38">
-        <f>ROUNDDOWN($G38/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
       <c r="J38">
-        <f>ROUNDDOWN($G38/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K38">
-        <f>ROUNDDOWN($G38/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14356,19 +14525,19 @@
         <v>6</v>
       </c>
       <c r="G39" s="19">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F39^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="I39">
-        <f>ROUNDDOWN($G39/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J39">
-        <f>ROUNDDOWN($G39/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K39">
-        <f>ROUNDDOWN($G39/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
@@ -14387,19 +14556,19 @@
         <v>7</v>
       </c>
       <c r="G40" s="17">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F40^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="I40">
-        <f>ROUNDDOWN($G40/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
       <c r="J40">
-        <f>ROUNDDOWN($G40/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="K40">
-        <f>ROUNDDOWN($G40/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
@@ -14413,19 +14582,19 @@
         <v>8</v>
       </c>
       <c r="G41" s="17">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F41^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="I41">
-        <f>ROUNDDOWN($G41/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>12.2</v>
       </c>
       <c r="J41">
-        <f>ROUNDDOWN($G41/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K41">
-        <f>ROUNDDOWN($G41/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -14441,19 +14610,19 @@
         <v>9</v>
       </c>
       <c r="G42" s="15">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F42^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="I42">
-        <f>ROUNDDOWN($G42/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>13.9</v>
       </c>
       <c r="J42">
-        <f>ROUNDDOWN($G42/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="K42">
-        <f>ROUNDDOWN($G42/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -14469,19 +14638,19 @@
         <v>10</v>
       </c>
       <c r="G43" s="15">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F43^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="I43">
-        <f>ROUNDDOWN($G43/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>15.7</v>
       </c>
       <c r="J43">
-        <f>ROUNDDOWN($G43/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
       <c r="K43">
-        <f>ROUNDDOWN($G43/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
     </row>
@@ -14495,19 +14664,19 @@
         <v>11</v>
       </c>
       <c r="G44" s="13">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F44^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="I44">
-        <f>ROUNDDOWN($G44/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J44">
-        <f>ROUNDDOWN($G44/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
       <c r="K44">
-        <f>ROUNDDOWN($G44/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
     </row>
@@ -14523,19 +14692,19 @@
         <v>12</v>
       </c>
       <c r="G45" s="13">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F45^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="I45">
-        <f>ROUNDDOWN($G45/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>19.3</v>
       </c>
       <c r="J45">
-        <f>ROUNDDOWN($G45/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="K45">
-        <f>ROUNDDOWN($G45/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
     </row>
@@ -14551,19 +14720,19 @@
         <v>13</v>
       </c>
       <c r="G46" s="11">
-        <f>ROUND(($D$40*$C$37^$D$37)+($D$46*F46^$D$43),0)</f>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="I46">
-        <f>ROUNDDOWN($G46/I$35,1)</f>
+        <f t="shared" si="2"/>
         <v>21.3</v>
       </c>
       <c r="J46">
-        <f>ROUNDDOWN($G46/J$35,1)</f>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
       <c r="K46">
-        <f>ROUNDDOWN($G46/K$35,1)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
@@ -14623,7 +14792,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="21">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F54^$D$61),0)</f>
+        <f t="shared" ref="G54:G64" si="3">ROUND(($D$58*$C$55^$D$55)+($D$64*F54^$D$61),0)</f>
         <v>8</v>
       </c>
       <c r="I54">
@@ -14631,11 +14800,11 @@
         <v>1.6</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J54:K54" si="1">ROUNDDOWN($G54/J$53,1)</f>
+        <f t="shared" ref="J54:K54" si="4">ROUNDDOWN($G54/J$53,1)</f>
         <v>0.4</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -14654,19 +14823,19 @@
         <v>3</v>
       </c>
       <c r="G55" s="21">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F55^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55:K64" si="2">ROUNDDOWN($G55/I$53,1)</f>
+        <f t="shared" ref="I55:K64" si="5">ROUNDDOWN($G55/I$53,1)</f>
         <v>2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -14681,19 +14850,19 @@
         <v>4</v>
       </c>
       <c r="G56" s="19">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F56^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -14712,19 +14881,19 @@
         <v>6</v>
       </c>
       <c r="G57" s="19">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F57^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
@@ -14743,19 +14912,19 @@
         <v>7</v>
       </c>
       <c r="G58" s="17">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F58^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -14769,19 +14938,19 @@
         <v>8</v>
       </c>
       <c r="G59" s="17">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F59^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -14797,19 +14966,19 @@
         <v>9</v>
       </c>
       <c r="G60" s="15">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F60^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14825,19 +14994,19 @@
         <v>10</v>
       </c>
       <c r="G61" s="15">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F61^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.8</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14851,19 +15020,19 @@
         <v>11</v>
       </c>
       <c r="G62" s="13">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F62^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -14879,19 +15048,19 @@
         <v>12</v>
       </c>
       <c r="G63" s="13">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F63^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -14907,19 +15076,19 @@
         <v>13</v>
       </c>
       <c r="G64" s="11">
-        <f>ROUND(($D$58*$C$55^$D$55)+($D$64*F64^$D$61),0)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.4</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
@@ -14934,16 +15103,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EB0E4-D9D7-4D2E-96C4-1C88BE71FF97}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -15068,24 +15242,152 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <f>SUBTOTAL(109,Table1[Barbarian])</f>
+        <f>SUBTOTAL(109,ArchetypeGrowths[Barbarian])</f>
         <v>6.5</v>
       </c>
       <c r="C7">
-        <f>SUBTOTAL(109,Table1[Fighter])</f>
+        <f>SUBTOTAL(109,ArchetypeGrowths[Fighter])</f>
         <v>6.5</v>
       </c>
       <c r="D7">
-        <f>SUBTOTAL(109,Table1[Black Mage])</f>
+        <f>SUBTOTAL(109,ArchetypeGrowths[Black Mage])</f>
         <v>6.5</v>
       </c>
       <c r="E7">
-        <f>SUBTOTAL(109,Table1[White Mage])</f>
+        <f>SUBTOTAL(109,ArchetypeGrowths[White Mage])</f>
         <v>6.5</v>
       </c>
       <c r="H7">
         <f>SUM(H2:H6)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>INDEX(A2:E2,1,MATCH($F$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>INDEX(A2:E2,1,MATCH($G$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="22">
+        <f>SUM(F18:G18)</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="22">
+        <f>VLOOKUP($D$18,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(H18,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <f>INDEX(A3:E3,1,MATCH($F$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1.5</v>
+      </c>
+      <c r="G19">
+        <f>INDEX(A3:E3,1,MATCH($G$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" ref="H19:H22" si="0">SUM(F19:G19)</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="22">
+        <f>VLOOKUP($D$18,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(H19,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f>INDEX(A4:E4,1,MATCH($F$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>INDEX(A4:E4,1,MATCH($G$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="22">
+        <f>VLOOKUP($D$18,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(H20,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <f>INDEX(A5:E5,1,MATCH($F$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>INDEX(A5:E5,1,MATCH($G$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="22">
+        <f>VLOOKUP($D$18,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(H21,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <f>INDEX(A6:E6,1,MATCH($F$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f>INDEX(A6:E6,1,MATCH($G$17,ArchetypeGrowths[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="22">
+        <f>VLOOKUP($D$18,'Stat Progression &amp; Growth Rates'!$F$4:$Q$103,MATCH(H22,'Stat Progression &amp; Growth Rates'!$F$3:$Q$3,0))</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
